--- a/Output/agri_survey.xlsx
+++ b/Output/agri_survey.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="468">
   <si>
     <t>country</t>
   </si>
@@ -497,186 +497,15 @@
     <t>151</t>
   </si>
   <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
     <t>Argentina</t>
   </si>
   <si>
     <t>Armenia</t>
   </si>
   <si>
-    <t>Australia</t>
-  </si>
-  <si>
     <t>Bangladesh</t>
   </si>
   <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
     <t>Cambodia</t>
   </si>
   <si>
@@ -686,207 +515,114 @@
     <t>Chad</t>
   </si>
   <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Colombia</t>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Pacific Region</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>United Republic of Tanzania, Zanzibar</t>
   </si>
   <si>
     <t>Costa Rica</t>
   </si>
   <si>
-    <t>Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Netherlands (Kingdom of the)</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Pacific Region</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>United Kingdom Of Great Britain And Northern Ireland</t>
-  </si>
-  <si>
-    <t>United Republic of Tanzania, Zanzibar</t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>DZA</t>
-  </si>
-  <si>
     <t>ARG</t>
   </si>
   <si>
     <t>ARM</t>
   </si>
   <si>
-    <t>AUS</t>
-  </si>
-  <si>
     <t>BGD</t>
   </si>
   <si>
-    <t>BEL</t>
-  </si>
-  <si>
-    <t>BRA</t>
-  </si>
-  <si>
     <t>KHM</t>
   </si>
   <si>
@@ -896,189 +632,102 @@
     <t>TCD</t>
   </si>
   <si>
-    <t>CHN</t>
-  </si>
-  <si>
-    <t>COL</t>
+    <t>CIV</t>
+  </si>
+  <si>
+    <t>DJI</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>GMB</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>GHA</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>IRQ</t>
+  </si>
+  <si>
+    <t>KEN</t>
+  </si>
+  <si>
+    <t>KIR</t>
+  </si>
+  <si>
+    <t>LBR</t>
+  </si>
+  <si>
+    <t>MWI</t>
+  </si>
+  <si>
+    <t>MLI</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>MNG</t>
+  </si>
+  <si>
+    <t>MOZ</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>NAM</t>
+  </si>
+  <si>
+    <t>NPL</t>
+  </si>
+  <si>
+    <t>NER</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>PNG</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>PHL</t>
+  </si>
+  <si>
+    <t>RWA</t>
+  </si>
+  <si>
+    <t>SEN</t>
+  </si>
+  <si>
+    <t>SLB</t>
+  </si>
+  <si>
+    <t>ZAF</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>TZA</t>
   </si>
   <si>
     <t>CRI</t>
   </si>
   <si>
-    <t>CIV</t>
-  </si>
-  <si>
-    <t>DJI</t>
-  </si>
-  <si>
-    <t>ECU</t>
-  </si>
-  <si>
-    <t>EGY</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>FRA</t>
-  </si>
-  <si>
-    <t>GMB</t>
-  </si>
-  <si>
-    <t>GEO</t>
-  </si>
-  <si>
-    <t>DEU</t>
-  </si>
-  <si>
-    <t>GHA</t>
-  </si>
-  <si>
-    <t>GTM</t>
-  </si>
-  <si>
-    <t>HND</t>
-  </si>
-  <si>
-    <t>HUN</t>
-  </si>
-  <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>IDN</t>
-  </si>
-  <si>
-    <t>IRQ</t>
-  </si>
-  <si>
-    <t>ITA</t>
-  </si>
-  <si>
-    <t>JPN</t>
-  </si>
-  <si>
-    <t>JOR</t>
-  </si>
-  <si>
-    <t>KEN</t>
-  </si>
-  <si>
-    <t>KIR</t>
-  </si>
-  <si>
-    <t>LBR</t>
-  </si>
-  <si>
-    <t>MWI</t>
-  </si>
-  <si>
-    <t>MYS</t>
-  </si>
-  <si>
-    <t>MLI</t>
-  </si>
-  <si>
-    <t>MEX</t>
-  </si>
-  <si>
-    <t>MNG</t>
-  </si>
-  <si>
-    <t>MAR</t>
-  </si>
-  <si>
-    <t>MOZ</t>
-  </si>
-  <si>
-    <t>MMR</t>
-  </si>
-  <si>
-    <t>NAM</t>
-  </si>
-  <si>
-    <t>NPL</t>
-  </si>
-  <si>
-    <t>NLD</t>
-  </si>
-  <si>
-    <t>NER</t>
-  </si>
-  <si>
-    <t>NGA</t>
-  </si>
-  <si>
-    <t>PAK</t>
-  </si>
-  <si>
-    <t>PNG</t>
-  </si>
-  <si>
-    <t>PRY</t>
-  </si>
-  <si>
-    <t>PER</t>
-  </si>
-  <si>
-    <t>PHL</t>
-  </si>
-  <si>
-    <t>RUS</t>
-  </si>
-  <si>
-    <t>RWA</t>
-  </si>
-  <si>
-    <t>SEN</t>
-  </si>
-  <si>
-    <t>SLB</t>
-  </si>
-  <si>
-    <t>ZAF</t>
-  </si>
-  <si>
-    <t>ESP</t>
-  </si>
-  <si>
-    <t>SDN</t>
-  </si>
-  <si>
-    <t>THA</t>
-  </si>
-  <si>
-    <t>TUN</t>
-  </si>
-  <si>
-    <t>UGA</t>
-  </si>
-  <si>
-    <t>UKR</t>
-  </si>
-  <si>
-    <t>GBR</t>
-  </si>
-  <si>
-    <t>TZA</t>
-  </si>
-  <si>
-    <t>VNM</t>
-  </si>
-  <si>
-    <t>ZMB</t>
-  </si>
-  <si>
-    <t>ZWE</t>
-  </si>
-  <si>
-    <t>Good Growth Plan, 2022</t>
-  </si>
-  <si>
-    <t>Good Growth Plan, 2014-2019</t>
-  </si>
-  <si>
     <t>Pastoralists-driven Data Management System in Argentina, 2018-2019.</t>
   </si>
   <si>
@@ -1100,9 +749,6 @@
     <t>Integrated Living Conditions Survey 2013</t>
   </si>
   <si>
-    <t>Good Growth Plan, 2014-2016</t>
-  </si>
-  <si>
     <t>Multi Sector Needs Assessment: Cox’s Bazar, Rohingya Refugee Response – June 2019</t>
   </si>
   <si>
@@ -1112,9 +758,6 @@
     <t>Smallholder Household Survey - CGAP, 2016</t>
   </si>
   <si>
-    <t>Good Growth Plan, 2014-2017</t>
-  </si>
-  <si>
     <t>Cambodia Agriculture Survey 2020</t>
   </si>
   <si>
@@ -1172,9 +815,6 @@
     <t>Survey of Agricultural Holdings, 2020</t>
   </si>
   <si>
-    <t>Good Growth Plan, 2015</t>
-  </si>
-  <si>
     <t>Agricultural Integrated Survey (AGRIS) - Pilot - MEA module, Ghana Pilot Survey 2018</t>
   </si>
   <si>
@@ -1190,9 +830,6 @@
     <t>Living Standard Survey 2017</t>
   </si>
   <si>
-    <t>Good Growth Plan, 2014</t>
-  </si>
-  <si>
     <t>COVID-19 Related Shocks Survey (CRSS) in Rural India 2020</t>
   </si>
   <si>
@@ -1214,9 +851,6 @@
     <t>Household Socio-Economic Survey 2012</t>
   </si>
   <si>
-    <t>Good Growth Plan, 2014-2015</t>
-  </si>
-  <si>
     <t>COVID-19 Rapid Response Phone Survey, 2020</t>
   </si>
   <si>
@@ -1298,9 +932,6 @@
     <t>General Household Survey, Panel 2018-2019</t>
   </si>
   <si>
-    <t>Good Growth Plan, 2018-2019</t>
-  </si>
-  <si>
     <t>Living Standards Survey, 2018-2019</t>
   </si>
   <si>
@@ -1322,9 +953,6 @@
     <t>Pacific Nutrient DataBase 2020</t>
   </si>
   <si>
-    <t>Good Growth Plan, 2014-2018</t>
-  </si>
-  <si>
     <t>High Frequency Phone Survey 2020-2021, Round 2</t>
   </si>
   <si>
@@ -1436,9 +1064,6 @@
     <t>Annual Agricultural Survey 2018-2019</t>
   </si>
   <si>
-    <t>Good Growth Plan, 2018</t>
-  </si>
-  <si>
     <t>Annual Agricultural Survey 2017-2018</t>
   </si>
   <si>
@@ -1490,18 +1115,12 @@
     <t>National Panel Survey 2013-2014</t>
   </si>
   <si>
-    <t>Good Growth Plan, 2015-2017</t>
-  </si>
-  <si>
     <t>Annual Agricultural Sample Survey 2014-2015</t>
   </si>
   <si>
     <t>National Panel Survey Wave 4 - Feed the Future Interim Supplemental Survey 2016</t>
   </si>
   <si>
-    <t>Good Growth Plan, 2015-2019</t>
-  </si>
-  <si>
     <t>National Panel Survey 2014-2016</t>
   </si>
   <si>
@@ -1511,9 +1130,6 @@
     <t>National Panel Survey- Universal Panel Questionnaire,  2008-2015</t>
   </si>
   <si>
-    <t>Good Growth Plan, 2016-2019</t>
-  </si>
-  <si>
     <t>Encuesta Nacional Agropecuaria</t>
   </si>
   <si>
@@ -1547,9 +1163,6 @@
     <t>https://www.worldbank.org/en/programs/lsms/initiatives/lsms-ISA#46</t>
   </si>
   <si>
-    <t>Syngenta</t>
-  </si>
-  <si>
     <t>Fundación Gran Chaco, Pastoralist Knowledge Hub, Agricultural Research Centre for International Development (CIRAD)</t>
   </si>
   <si>
@@ -1769,22 +1382,22 @@
     <t>Tanzania National Bureau of Statistics</t>
   </si>
   <si>
+    <t>Integrated Survey (non-LSMS) [hh/is]</t>
+  </si>
+  <si>
+    <t>Other Household Survey [hh/oth]</t>
+  </si>
+  <si>
+    <t>Agriculture Integrated Survey[hh/nhh/agris]</t>
+  </si>
+  <si>
+    <t>Socio-Economic/Monitoring Survey [hh/sems]</t>
+  </si>
+  <si>
+    <t>Living Standards Measurement Study [hh/lsms]</t>
+  </si>
+  <si>
     <t>Agricultural Survey [ag/oth]</t>
-  </si>
-  <si>
-    <t>Integrated Survey (non-LSMS) [hh/is]</t>
-  </si>
-  <si>
-    <t>Other Household Survey [hh/oth]</t>
-  </si>
-  <si>
-    <t>Agriculture Integrated Survey[hh/nhh/agris]</t>
-  </si>
-  <si>
-    <t>Socio-Economic/Monitoring Survey [hh/sems]</t>
-  </si>
-  <si>
-    <t>Living Standards Measurement Study [hh/lsms]</t>
   </si>
   <si>
     <t>Income/Expenditure/Household Survey [hh/ies]</t>
@@ -1891,34 +1504,34 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
-        <v>284</v>
+        <v>200</v>
       </c>
       <c r="D2" t="n">
-        <v>2022.0</v>
+        <v>2019.0</v>
       </c>
       <c r="E2" t="s">
-        <v>353</v>
+        <v>238</v>
       </c>
       <c r="F2" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G2" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H2" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I2" t="s">
-        <v>511</v>
+        <v>383</v>
       </c>
       <c r="J2" t="e">
         <v>#N/A</v>
       </c>
       <c r="K2" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="3">
@@ -1926,34 +1539,34 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>284</v>
+        <v>201</v>
       </c>
       <c r="D3" t="n">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="E3" t="s">
-        <v>354</v>
+        <v>239</v>
       </c>
       <c r="F3" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G3" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H3" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I3" t="s">
-        <v>511</v>
+        <v>384</v>
       </c>
       <c r="J3" t="s">
-        <v>585</v>
+        <v>456</v>
       </c>
       <c r="K3" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="4">
@@ -1961,34 +1574,34 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
-        <v>285</v>
+        <v>201</v>
       </c>
       <c r="D4" t="n">
-        <v>2019.0</v>
+        <v>2017.0</v>
       </c>
       <c r="E4" t="s">
-        <v>355</v>
+        <v>240</v>
       </c>
       <c r="F4" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G4" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H4" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I4" t="s">
-        <v>512</v>
-      </c>
-      <c r="J4" t="e">
-        <v>#N/A</v>
+        <v>384</v>
+      </c>
+      <c r="J4" t="s">
+        <v>456</v>
       </c>
       <c r="K4" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5">
@@ -1996,34 +1609,34 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>215</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>285</v>
+        <v>201</v>
       </c>
       <c r="D5" t="n">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E5" t="s">
-        <v>354</v>
+        <v>241</v>
       </c>
       <c r="F5" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G5" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H5" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I5" t="s">
-        <v>511</v>
+        <v>385</v>
       </c>
       <c r="J5" t="s">
-        <v>585</v>
+        <v>456</v>
       </c>
       <c r="K5" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6">
@@ -2031,34 +1644,34 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="D6" t="n">
-        <v>2018.0</v>
+        <v>2015.0</v>
       </c>
       <c r="E6" t="s">
-        <v>356</v>
+        <v>242</v>
       </c>
       <c r="F6" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G6" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H6" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I6" t="s">
-        <v>513</v>
+        <v>386</v>
       </c>
       <c r="J6" t="s">
-        <v>586</v>
+        <v>456</v>
       </c>
       <c r="K6" t="s">
-        <v>596</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7">
@@ -2066,34 +1679,34 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="C7" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="D7" t="n">
-        <v>2017.0</v>
+        <v>2014.0</v>
       </c>
       <c r="E7" t="s">
-        <v>357</v>
+        <v>243</v>
       </c>
       <c r="F7" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G7" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H7" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I7" t="s">
-        <v>513</v>
+        <v>385</v>
       </c>
       <c r="J7" t="s">
-        <v>586</v>
+        <v>456</v>
       </c>
       <c r="K7" t="s">
-        <v>596</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8">
@@ -2101,34 +1714,34 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="C8" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="D8" t="n">
-        <v>2016.0</v>
+        <v>2013.0</v>
       </c>
       <c r="E8" t="s">
-        <v>358</v>
+        <v>244</v>
       </c>
       <c r="F8" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G8" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H8" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I8" t="s">
-        <v>514</v>
+        <v>386</v>
       </c>
       <c r="J8" t="s">
-        <v>586</v>
+        <v>456</v>
       </c>
       <c r="K8" t="s">
-        <v>596</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9">
@@ -2136,34 +1749,34 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>216</v>
+        <v>163</v>
       </c>
       <c r="C9" t="s">
-        <v>286</v>
+        <v>202</v>
       </c>
       <c r="D9" t="n">
-        <v>2015.0</v>
+        <v>2019.0</v>
       </c>
       <c r="E9" t="s">
-        <v>359</v>
+        <v>245</v>
       </c>
       <c r="F9" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G9" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H9" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I9" t="s">
-        <v>515</v>
-      </c>
-      <c r="J9" t="s">
-        <v>586</v>
+        <v>387</v>
+      </c>
+      <c r="J9" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K9" t="s">
-        <v>596</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10">
@@ -2171,34 +1784,34 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>216</v>
+        <v>163</v>
       </c>
       <c r="C10" t="s">
-        <v>286</v>
+        <v>202</v>
       </c>
       <c r="D10" t="n">
-        <v>2014.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E10" t="s">
-        <v>360</v>
+        <v>246</v>
       </c>
       <c r="F10" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G10" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H10" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I10" t="s">
-        <v>514</v>
+        <v>388</v>
       </c>
       <c r="J10" t="s">
-        <v>586</v>
+        <v>457</v>
       </c>
       <c r="K10" t="s">
-        <v>596</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11">
@@ -2206,34 +1819,34 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>216</v>
+        <v>163</v>
       </c>
       <c r="C11" t="s">
-        <v>286</v>
+        <v>202</v>
       </c>
       <c r="D11" t="n">
-        <v>2013.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E11" t="s">
-        <v>361</v>
+        <v>247</v>
       </c>
       <c r="F11" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G11" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H11" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I11" t="s">
-        <v>515</v>
+        <v>389</v>
       </c>
       <c r="J11" t="s">
-        <v>586</v>
+        <v>457</v>
       </c>
       <c r="K11" t="s">
-        <v>596</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12">
@@ -2241,34 +1854,34 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>217</v>
+        <v>164</v>
       </c>
       <c r="C12" t="s">
-        <v>287</v>
+        <v>203</v>
       </c>
       <c r="D12" t="n">
-        <v>2016.0</v>
+        <v>2021.0</v>
       </c>
       <c r="E12" t="s">
-        <v>362</v>
+        <v>248</v>
       </c>
       <c r="F12" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G12" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H12" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I12" t="s">
-        <v>511</v>
-      </c>
-      <c r="J12" t="s">
-        <v>585</v>
+        <v>390</v>
+      </c>
+      <c r="J12" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K12" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13">
@@ -2276,34 +1889,34 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>218</v>
+        <v>164</v>
       </c>
       <c r="C13" t="s">
-        <v>288</v>
+        <v>203</v>
       </c>
       <c r="D13" t="n">
         <v>2019.0</v>
       </c>
       <c r="E13" t="s">
-        <v>363</v>
+        <v>249</v>
       </c>
       <c r="F13" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G13" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H13" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I13" t="s">
-        <v>516</v>
-      </c>
-      <c r="J13" t="e">
-        <v>#N/A</v>
+        <v>391</v>
+      </c>
+      <c r="J13" t="s">
+        <v>458</v>
       </c>
       <c r="K13" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="14">
@@ -2311,34 +1924,34 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>218</v>
+        <v>164</v>
       </c>
       <c r="C14" t="s">
-        <v>288</v>
+        <v>203</v>
       </c>
       <c r="D14" t="n">
-        <v>2016.0</v>
+        <v>2014.0</v>
       </c>
       <c r="E14" t="s">
-        <v>364</v>
+        <v>250</v>
       </c>
       <c r="F14" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G14" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H14" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I14" t="s">
-        <v>517</v>
+        <v>392</v>
       </c>
       <c r="J14" t="s">
-        <v>587</v>
+        <v>459</v>
       </c>
       <c r="K14" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15">
@@ -2346,34 +1959,34 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>218</v>
+        <v>164</v>
       </c>
       <c r="C15" t="s">
-        <v>288</v>
+        <v>203</v>
       </c>
       <c r="D15" t="n">
-        <v>2016.0</v>
+        <v>2013.0</v>
       </c>
       <c r="E15" t="s">
-        <v>365</v>
+        <v>251</v>
       </c>
       <c r="F15" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G15" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H15" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I15" t="s">
-        <v>518</v>
+        <v>392</v>
       </c>
       <c r="J15" t="s">
-        <v>587</v>
+        <v>459</v>
       </c>
       <c r="K15" t="s">
-        <v>596</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16">
@@ -2381,34 +1994,34 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>218</v>
+        <v>165</v>
       </c>
       <c r="C16" t="s">
-        <v>288</v>
+        <v>204</v>
       </c>
       <c r="D16" t="n">
-        <v>2019.0</v>
+        <v>2013.0</v>
       </c>
       <c r="E16" t="s">
-        <v>354</v>
+        <v>252</v>
       </c>
       <c r="F16" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G16" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H16" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I16" t="s">
-        <v>511</v>
-      </c>
-      <c r="J16" t="s">
-        <v>585</v>
+        <v>392</v>
+      </c>
+      <c r="J16" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K16" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="17">
@@ -2416,34 +2029,34 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>219</v>
+        <v>166</v>
       </c>
       <c r="C17" t="s">
-        <v>289</v>
+        <v>205</v>
       </c>
       <c r="D17" t="n">
-        <v>2017.0</v>
+        <v>2021.0</v>
       </c>
       <c r="E17" t="s">
-        <v>366</v>
+        <v>253</v>
       </c>
       <c r="F17" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G17" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H17" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I17" t="s">
-        <v>511</v>
-      </c>
-      <c r="J17" t="s">
-        <v>585</v>
+        <v>393</v>
+      </c>
+      <c r="J17" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K17" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18">
@@ -2451,34 +2064,34 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>220</v>
+        <v>167</v>
       </c>
       <c r="C18" t="s">
-        <v>290</v>
+        <v>206</v>
       </c>
       <c r="D18" t="n">
         <v>2019.0</v>
       </c>
       <c r="E18" t="s">
-        <v>354</v>
+        <v>254</v>
       </c>
       <c r="F18" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G18" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H18" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I18" t="s">
-        <v>511</v>
-      </c>
-      <c r="J18" t="s">
-        <v>585</v>
+        <v>394</v>
+      </c>
+      <c r="J18" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K18" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19">
@@ -2486,34 +2099,34 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>221</v>
+        <v>167</v>
       </c>
       <c r="C19" t="s">
-        <v>291</v>
+        <v>206</v>
       </c>
       <c r="D19" t="n">
-        <v>2021.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E19" t="s">
-        <v>367</v>
+        <v>247</v>
       </c>
       <c r="F19" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G19" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H19" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I19" t="s">
-        <v>519</v>
-      </c>
-      <c r="J19" t="e">
-        <v>#N/A</v>
+        <v>389</v>
+      </c>
+      <c r="J19" t="s">
+        <v>457</v>
       </c>
       <c r="K19" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20">
@@ -2521,34 +2134,34 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="C20" t="s">
-        <v>291</v>
+        <v>207</v>
       </c>
       <c r="D20" t="n">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="E20" t="s">
-        <v>368</v>
+        <v>255</v>
       </c>
       <c r="F20" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G20" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H20" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I20" t="s">
-        <v>520</v>
-      </c>
-      <c r="J20" t="s">
-        <v>588</v>
+        <v>395</v>
+      </c>
+      <c r="J20" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K20" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="21">
@@ -2556,34 +2169,34 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="C21" t="s">
-        <v>291</v>
+        <v>207</v>
       </c>
       <c r="D21" t="n">
-        <v>2014.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E21" t="s">
-        <v>369</v>
+        <v>256</v>
       </c>
       <c r="F21" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G21" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H21" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I21" t="s">
-        <v>521</v>
+        <v>395</v>
       </c>
       <c r="J21" t="s">
-        <v>589</v>
+        <v>457</v>
       </c>
       <c r="K21" t="s">
-        <v>596</v>
+        <v>466</v>
       </c>
     </row>
     <row r="22">
@@ -2591,34 +2204,34 @@
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="C22" t="s">
-        <v>291</v>
+        <v>207</v>
       </c>
       <c r="D22" t="n">
-        <v>2013.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E22" t="s">
-        <v>370</v>
+        <v>257</v>
       </c>
       <c r="F22" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G22" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H22" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I22" t="s">
-        <v>521</v>
-      </c>
-      <c r="J22" t="s">
-        <v>589</v>
+        <v>396</v>
+      </c>
+      <c r="J22" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K22" t="s">
-        <v>596</v>
+        <v>466</v>
       </c>
     </row>
     <row r="23">
@@ -2626,34 +2239,34 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="C23" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="D23" t="n">
-        <v>2013.0</v>
+        <v>2021.0</v>
       </c>
       <c r="E23" t="s">
-        <v>371</v>
+        <v>258</v>
       </c>
       <c r="F23" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G23" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H23" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I23" t="s">
-        <v>521</v>
+        <v>396</v>
       </c>
       <c r="J23" t="e">
         <v>#N/A</v>
       </c>
       <c r="K23" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="24">
@@ -2661,34 +2274,34 @@
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="C24" t="s">
-        <v>293</v>
+        <v>207</v>
       </c>
       <c r="D24" t="n">
         <v>2021.0</v>
       </c>
       <c r="E24" t="s">
-        <v>372</v>
+        <v>259</v>
       </c>
       <c r="F24" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G24" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H24" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I24" t="s">
-        <v>522</v>
+        <v>395</v>
       </c>
       <c r="J24" t="e">
         <v>#N/A</v>
       </c>
       <c r="K24" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="25">
@@ -2696,34 +2309,34 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="C25" t="s">
-        <v>294</v>
+        <v>208</v>
       </c>
       <c r="D25" t="n">
-        <v>2019.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E25" t="s">
-        <v>354</v>
+        <v>260</v>
       </c>
       <c r="F25" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G25" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H25" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I25" t="s">
-        <v>511</v>
+        <v>397</v>
       </c>
       <c r="J25" t="s">
-        <v>585</v>
+        <v>459</v>
       </c>
       <c r="K25" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="26">
@@ -2731,34 +2344,34 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="C26" t="s">
-        <v>295</v>
+        <v>208</v>
       </c>
       <c r="D26" t="n">
         <v>2019.0</v>
       </c>
       <c r="E26" t="s">
-        <v>354</v>
+        <v>261</v>
       </c>
       <c r="F26" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G26" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H26" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I26" t="s">
-        <v>511</v>
+        <v>398</v>
       </c>
       <c r="J26" t="s">
-        <v>585</v>
+        <v>459</v>
       </c>
       <c r="K26" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27">
@@ -2766,34 +2379,34 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="C27" t="s">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="D27" t="n">
         <v>2016.0</v>
       </c>
       <c r="E27" t="s">
-        <v>362</v>
+        <v>262</v>
       </c>
       <c r="F27" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G27" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H27" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I27" t="s">
-        <v>511</v>
+        <v>399</v>
       </c>
       <c r="J27" t="s">
-        <v>585</v>
+        <v>460</v>
       </c>
       <c r="K27" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="28">
@@ -2801,34 +2414,34 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>227</v>
+        <v>169</v>
       </c>
       <c r="C28" t="s">
-        <v>297</v>
+        <v>208</v>
       </c>
       <c r="D28" t="n">
-        <v>2022.0</v>
+        <v>2014.0</v>
       </c>
       <c r="E28" t="s">
-        <v>353</v>
+        <v>263</v>
       </c>
       <c r="F28" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G28" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H28" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I28" t="s">
-        <v>511</v>
-      </c>
-      <c r="J28" t="e">
-        <v>#N/A</v>
+        <v>400</v>
+      </c>
+      <c r="J28" t="s">
+        <v>459</v>
       </c>
       <c r="K28" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="29">
@@ -2836,34 +2449,34 @@
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>227</v>
+        <v>169</v>
       </c>
       <c r="C29" t="s">
-        <v>297</v>
+        <v>208</v>
       </c>
       <c r="D29" t="n">
-        <v>2019.0</v>
+        <v>2013.0</v>
       </c>
       <c r="E29" t="s">
-        <v>373</v>
+        <v>264</v>
       </c>
       <c r="F29" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G29" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H29" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I29" t="s">
-        <v>523</v>
-      </c>
-      <c r="J29" t="e">
-        <v>#N/A</v>
+        <v>399</v>
+      </c>
+      <c r="J29" t="s">
+        <v>460</v>
       </c>
       <c r="K29" t="s">
-        <v>596</v>
+        <v>466</v>
       </c>
     </row>
     <row r="30">
@@ -2871,34 +2484,34 @@
         <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>227</v>
+        <v>170</v>
       </c>
       <c r="C30" t="s">
-        <v>297</v>
+        <v>209</v>
       </c>
       <c r="D30" t="n">
         <v>2016.0</v>
       </c>
       <c r="E30" t="s">
-        <v>365</v>
+        <v>265</v>
       </c>
       <c r="F30" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G30" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H30" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I30" t="s">
-        <v>518</v>
-      </c>
-      <c r="J30" t="s">
-        <v>587</v>
+        <v>401</v>
+      </c>
+      <c r="J30" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K30" t="s">
-        <v>596</v>
+        <v>467</v>
       </c>
     </row>
     <row r="31">
@@ -2906,34 +2519,34 @@
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="C31" t="s">
-        <v>297</v>
+        <v>210</v>
       </c>
       <c r="D31" t="n">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="E31" t="s">
-        <v>354</v>
+        <v>266</v>
       </c>
       <c r="F31" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G31" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H31" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I31" t="s">
-        <v>511</v>
-      </c>
-      <c r="J31" t="s">
-        <v>585</v>
+        <v>402</v>
+      </c>
+      <c r="J31" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K31" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="32">
@@ -2941,34 +2554,34 @@
         <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>228</v>
+        <v>172</v>
       </c>
       <c r="C32" t="s">
-        <v>298</v>
+        <v>211</v>
       </c>
       <c r="D32" t="n">
-        <v>2021.0</v>
+        <v>2018.0</v>
       </c>
       <c r="E32" t="s">
-        <v>374</v>
+        <v>267</v>
       </c>
       <c r="F32" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G32" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H32" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I32" t="s">
-        <v>524</v>
+        <v>403</v>
       </c>
       <c r="J32" t="e">
         <v>#N/A</v>
       </c>
       <c r="K32" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="33">
@@ -2976,34 +2589,34 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>228</v>
+        <v>172</v>
       </c>
       <c r="C33" t="s">
-        <v>298</v>
+        <v>211</v>
       </c>
       <c r="D33" t="n">
-        <v>2020.0</v>
+        <v>2018.0</v>
       </c>
       <c r="E33" t="s">
-        <v>375</v>
+        <v>268</v>
       </c>
       <c r="F33" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G33" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H33" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I33" t="s">
-        <v>524</v>
-      </c>
-      <c r="J33" t="s">
-        <v>587</v>
+        <v>403</v>
+      </c>
+      <c r="J33" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K33" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="34">
@@ -3011,34 +2624,34 @@
         <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>228</v>
+        <v>172</v>
       </c>
       <c r="C34" t="s">
-        <v>298</v>
+        <v>211</v>
       </c>
       <c r="D34" t="n">
-        <v>2020.0</v>
+        <v>2018.0</v>
       </c>
       <c r="E34" t="s">
-        <v>376</v>
+        <v>269</v>
       </c>
       <c r="F34" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G34" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H34" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I34" t="s">
-        <v>525</v>
+        <v>403</v>
       </c>
       <c r="J34" t="e">
         <v>#N/A</v>
       </c>
       <c r="K34" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="35">
@@ -3046,34 +2659,34 @@
         <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>228</v>
+        <v>172</v>
       </c>
       <c r="C35" t="s">
-        <v>298</v>
+        <v>211</v>
       </c>
       <c r="D35" t="n">
-        <v>2021.0</v>
+        <v>2018.0</v>
       </c>
       <c r="E35" t="s">
-        <v>377</v>
+        <v>270</v>
       </c>
       <c r="F35" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G35" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H35" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I35" t="s">
-        <v>525</v>
+        <v>403</v>
       </c>
       <c r="J35" t="e">
         <v>#N/A</v>
       </c>
       <c r="K35" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="36">
@@ -3081,34 +2694,34 @@
         <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>228</v>
+        <v>172</v>
       </c>
       <c r="C36" t="s">
-        <v>298</v>
+        <v>211</v>
       </c>
       <c r="D36" t="n">
-        <v>2021.0</v>
+        <v>2017.0</v>
       </c>
       <c r="E36" t="s">
-        <v>378</v>
+        <v>271</v>
       </c>
       <c r="F36" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G36" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H36" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I36" t="s">
-        <v>524</v>
-      </c>
-      <c r="J36" t="e">
-        <v>#N/A</v>
+        <v>404</v>
+      </c>
+      <c r="J36" t="s">
+        <v>460</v>
       </c>
       <c r="K36" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37">
@@ -3116,34 +2729,34 @@
         <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>229</v>
+        <v>173</v>
       </c>
       <c r="C37" t="s">
-        <v>299</v>
+        <v>212</v>
       </c>
       <c r="D37" t="n">
-        <v>2019.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E37" t="s">
-        <v>354</v>
+        <v>272</v>
       </c>
       <c r="F37" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G37" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H37" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I37" t="s">
-        <v>511</v>
+        <v>405</v>
       </c>
       <c r="J37" t="s">
-        <v>585</v>
+        <v>457</v>
       </c>
       <c r="K37" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="38">
@@ -3151,34 +2764,34 @@
         <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="C38" t="s">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="D38" t="n">
-        <v>2022.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E38" t="s">
-        <v>353</v>
+        <v>273</v>
       </c>
       <c r="F38" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G38" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H38" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I38" t="s">
-        <v>511</v>
-      </c>
-      <c r="J38" t="e">
-        <v>#N/A</v>
+        <v>405</v>
+      </c>
+      <c r="J38" t="s">
+        <v>457</v>
       </c>
       <c r="K38" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="39">
@@ -3186,34 +2799,34 @@
         <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="C39" t="s">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="D39" t="n">
-        <v>2019.0</v>
+        <v>2013.0</v>
       </c>
       <c r="E39" t="s">
-        <v>354</v>
+        <v>274</v>
       </c>
       <c r="F39" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G39" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H39" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I39" t="s">
-        <v>511</v>
+        <v>406</v>
       </c>
       <c r="J39" t="s">
-        <v>585</v>
+        <v>457</v>
       </c>
       <c r="K39" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="40">
@@ -3221,34 +2834,34 @@
         <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>231</v>
+        <v>173</v>
       </c>
       <c r="C40" t="s">
-        <v>301</v>
+        <v>212</v>
       </c>
       <c r="D40" t="n">
-        <v>2020.0</v>
+        <v>2013.0</v>
       </c>
       <c r="E40" t="s">
-        <v>379</v>
+        <v>275</v>
       </c>
       <c r="F40" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G40" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H40" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I40" t="s">
-        <v>526</v>
+        <v>406</v>
       </c>
       <c r="J40" t="s">
-        <v>589</v>
+        <v>457</v>
       </c>
       <c r="K40" t="s">
-        <v>596</v>
+        <v>466</v>
       </c>
     </row>
     <row r="41">
@@ -3256,34 +2869,34 @@
         <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>231</v>
+        <v>173</v>
       </c>
       <c r="C41" t="s">
-        <v>301</v>
+        <v>212</v>
       </c>
       <c r="D41" t="n">
-        <v>2019.0</v>
+        <v>2013.0</v>
       </c>
       <c r="E41" t="s">
-        <v>380</v>
+        <v>276</v>
       </c>
       <c r="F41" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G41" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H41" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I41" t="s">
-        <v>527</v>
+        <v>407</v>
       </c>
       <c r="J41" t="s">
-        <v>589</v>
+        <v>457</v>
       </c>
       <c r="K41" t="s">
-        <v>596</v>
+        <v>466</v>
       </c>
     </row>
     <row r="42">
@@ -3291,34 +2904,34 @@
         <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>231</v>
+        <v>173</v>
       </c>
       <c r="C42" t="s">
-        <v>301</v>
+        <v>212</v>
       </c>
       <c r="D42" t="n">
-        <v>2016.0</v>
+        <v>2013.0</v>
       </c>
       <c r="E42" t="s">
-        <v>381</v>
+        <v>277</v>
       </c>
       <c r="F42" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G42" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H42" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I42" t="s">
-        <v>528</v>
+        <v>407</v>
       </c>
       <c r="J42" t="s">
-        <v>590</v>
+        <v>457</v>
       </c>
       <c r="K42" t="s">
-        <v>596</v>
+        <v>466</v>
       </c>
     </row>
     <row r="43">
@@ -3326,34 +2939,34 @@
         <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C43" t="s">
-        <v>301</v>
+        <v>213</v>
       </c>
       <c r="D43" t="n">
-        <v>2014.0</v>
+        <v>2021.0</v>
       </c>
       <c r="E43" t="s">
-        <v>382</v>
+        <v>253</v>
       </c>
       <c r="F43" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G43" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H43" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I43" t="s">
-        <v>529</v>
-      </c>
-      <c r="J43" t="s">
-        <v>589</v>
+        <v>408</v>
+      </c>
+      <c r="J43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K43" t="s">
-        <v>596</v>
+        <v>466</v>
       </c>
     </row>
     <row r="44">
@@ -3361,34 +2974,34 @@
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C44" t="s">
-        <v>301</v>
+        <v>213</v>
       </c>
       <c r="D44" t="n">
         <v>2013.0</v>
       </c>
       <c r="E44" t="s">
-        <v>383</v>
+        <v>278</v>
       </c>
       <c r="F44" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G44" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H44" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I44" t="s">
-        <v>528</v>
+        <v>409</v>
       </c>
       <c r="J44" t="s">
-        <v>590</v>
+        <v>459</v>
       </c>
       <c r="K44" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="45">
@@ -3396,34 +3009,34 @@
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="C45" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="D45" t="n">
-        <v>2019.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E45" t="s">
-        <v>354</v>
+        <v>279</v>
       </c>
       <c r="F45" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G45" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H45" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I45" t="s">
-        <v>511</v>
+        <v>410</v>
       </c>
       <c r="J45" t="s">
-        <v>585</v>
+        <v>459</v>
       </c>
       <c r="K45" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="46">
@@ -3431,34 +3044,34 @@
         <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>233</v>
+        <v>175</v>
       </c>
       <c r="C46" t="s">
-        <v>303</v>
+        <v>214</v>
       </c>
       <c r="D46" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="E46" t="s">
-        <v>384</v>
+        <v>280</v>
       </c>
       <c r="F46" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G46" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H46" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I46" t="s">
-        <v>530</v>
-      </c>
-      <c r="J46" t="e">
-        <v>#N/A</v>
+        <v>411</v>
+      </c>
+      <c r="J46" t="s">
+        <v>461</v>
       </c>
       <c r="K46" t="s">
-        <v>596</v>
+        <v>466</v>
       </c>
     </row>
     <row r="47">
@@ -3466,34 +3079,34 @@
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>234</v>
+        <v>175</v>
       </c>
       <c r="C47" t="s">
-        <v>304</v>
+        <v>214</v>
       </c>
       <c r="D47" t="n">
-        <v>2021.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E47" t="s">
-        <v>385</v>
+        <v>281</v>
       </c>
       <c r="F47" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G47" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H47" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I47" t="s">
-        <v>531</v>
-      </c>
-      <c r="J47" t="e">
-        <v>#N/A</v>
+        <v>412</v>
+      </c>
+      <c r="J47" t="s">
+        <v>457</v>
       </c>
       <c r="K47" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="48">
@@ -3501,34 +3114,34 @@
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>235</v>
+        <v>176</v>
       </c>
       <c r="C48" t="s">
-        <v>305</v>
+        <v>215</v>
       </c>
       <c r="D48" t="n">
-        <v>2015.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E48" t="s">
-        <v>386</v>
+        <v>282</v>
       </c>
       <c r="F48" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G48" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H48" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I48" t="s">
-        <v>511</v>
+        <v>413</v>
       </c>
       <c r="J48" t="s">
-        <v>585</v>
+        <v>462</v>
       </c>
       <c r="K48" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="49">
@@ -3536,34 +3149,34 @@
         <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
       <c r="C49" t="s">
-        <v>306</v>
+        <v>216</v>
       </c>
       <c r="D49" t="n">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="E49" t="s">
-        <v>387</v>
+        <v>283</v>
       </c>
       <c r="F49" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G49" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H49" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I49" t="s">
-        <v>532</v>
-      </c>
-      <c r="J49" t="e">
-        <v>#N/A</v>
+        <v>414</v>
+      </c>
+      <c r="J49" t="s">
+        <v>462</v>
       </c>
       <c r="K49" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="50">
@@ -3571,34 +3184,34 @@
         <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>236</v>
+        <v>178</v>
       </c>
       <c r="C50" t="s">
-        <v>306</v>
+        <v>217</v>
       </c>
       <c r="D50" t="n">
-        <v>2018.0</v>
+        <v>2021.0</v>
       </c>
       <c r="E50" t="s">
-        <v>388</v>
+        <v>253</v>
       </c>
       <c r="F50" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G50" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H50" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I50" t="s">
-        <v>532</v>
-      </c>
-      <c r="J50" t="e">
-        <v>#N/A</v>
+        <v>415</v>
+      </c>
+      <c r="J50" t="s">
+        <v>459</v>
       </c>
       <c r="K50" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="51">
@@ -3606,34 +3219,34 @@
         <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>236</v>
+        <v>178</v>
       </c>
       <c r="C51" t="s">
-        <v>306</v>
+        <v>217</v>
       </c>
       <c r="D51" t="n">
-        <v>2018.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E51" t="s">
-        <v>389</v>
+        <v>284</v>
       </c>
       <c r="F51" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G51" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H51" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I51" t="s">
-        <v>532</v>
-      </c>
-      <c r="J51" t="e">
-        <v>#N/A</v>
+        <v>416</v>
+      </c>
+      <c r="J51" t="s">
+        <v>456</v>
       </c>
       <c r="K51" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="52">
@@ -3641,34 +3254,34 @@
         <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>236</v>
+        <v>178</v>
       </c>
       <c r="C52" t="s">
-        <v>306</v>
+        <v>217</v>
       </c>
       <c r="D52" t="n">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="E52" t="s">
-        <v>390</v>
+        <v>285</v>
       </c>
       <c r="F52" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G52" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H52" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I52" t="s">
-        <v>532</v>
-      </c>
-      <c r="J52" t="e">
-        <v>#N/A</v>
+        <v>416</v>
+      </c>
+      <c r="J52" t="s">
+        <v>460</v>
       </c>
       <c r="K52" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="53">
@@ -3676,34 +3289,34 @@
         <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>236</v>
+        <v>178</v>
       </c>
       <c r="C53" t="s">
-        <v>306</v>
+        <v>217</v>
       </c>
       <c r="D53" t="n">
-        <v>2017.0</v>
+        <v>2013.0</v>
       </c>
       <c r="E53" t="s">
-        <v>391</v>
+        <v>286</v>
       </c>
       <c r="F53" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G53" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H53" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I53" t="s">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="J53" t="s">
-        <v>590</v>
+        <v>460</v>
       </c>
       <c r="K53" t="s">
-        <v>596</v>
+        <v>467</v>
       </c>
     </row>
     <row r="54">
@@ -3711,34 +3324,34 @@
         <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>236</v>
+        <v>178</v>
       </c>
       <c r="C54" t="s">
-        <v>306</v>
+        <v>217</v>
       </c>
       <c r="D54" t="n">
         <v>2014.0</v>
       </c>
       <c r="E54" t="s">
-        <v>392</v>
+        <v>287</v>
       </c>
       <c r="F54" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G54" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H54" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I54" t="s">
-        <v>511</v>
+        <v>418</v>
       </c>
       <c r="J54" t="s">
-        <v>585</v>
+        <v>457</v>
       </c>
       <c r="K54" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="55">
@@ -3746,34 +3359,34 @@
         <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="C55" t="s">
-        <v>307</v>
+        <v>217</v>
       </c>
       <c r="D55" t="n">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E55" t="s">
-        <v>354</v>
+        <v>288</v>
       </c>
       <c r="F55" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G55" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H55" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I55" t="s">
-        <v>511</v>
+        <v>417</v>
       </c>
       <c r="J55" t="s">
-        <v>585</v>
+        <v>463</v>
       </c>
       <c r="K55" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="56">
@@ -3781,34 +3394,34 @@
         <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="C56" t="s">
-        <v>308</v>
+        <v>217</v>
       </c>
       <c r="D56" t="n">
-        <v>2017.0</v>
+        <v>2019.0</v>
       </c>
       <c r="E56" t="s">
-        <v>366</v>
+        <v>289</v>
       </c>
       <c r="F56" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G56" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H56" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I56" t="s">
-        <v>511</v>
+        <v>416</v>
       </c>
       <c r="J56" t="s">
-        <v>585</v>
+        <v>460</v>
       </c>
       <c r="K56" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="57">
@@ -3816,34 +3429,34 @@
         <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="C57" t="s">
-        <v>309</v>
+        <v>218</v>
       </c>
       <c r="D57" t="n">
-        <v>2019.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E57" t="s">
-        <v>354</v>
+        <v>290</v>
       </c>
       <c r="F57" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G57" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H57" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I57" t="s">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="J57" t="s">
-        <v>585</v>
+        <v>457</v>
       </c>
       <c r="K57" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="58">
@@ -3851,34 +3464,34 @@
         <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="C58" t="s">
-        <v>310</v>
+        <v>218</v>
       </c>
       <c r="D58" t="n">
-        <v>2020.0</v>
+        <v>2018.0</v>
       </c>
       <c r="E58" t="s">
-        <v>393</v>
+        <v>291</v>
       </c>
       <c r="F58" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G58" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H58" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I58" t="s">
-        <v>534</v>
+        <v>420</v>
       </c>
       <c r="J58" t="s">
-        <v>587</v>
+        <v>460</v>
       </c>
       <c r="K58" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="59">
@@ -3886,34 +3499,34 @@
         <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="C59" t="s">
-        <v>310</v>
+        <v>218</v>
       </c>
       <c r="D59" t="n">
-        <v>2020.0</v>
+        <v>2014.0</v>
       </c>
       <c r="E59" t="s">
-        <v>394</v>
+        <v>292</v>
       </c>
       <c r="F59" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G59" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H59" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I59" t="s">
-        <v>534</v>
+        <v>420</v>
       </c>
       <c r="J59" t="s">
-        <v>587</v>
+        <v>460</v>
       </c>
       <c r="K59" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="60">
@@ -3921,34 +3534,34 @@
         <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="C60" t="s">
-        <v>310</v>
+        <v>219</v>
       </c>
       <c r="D60" t="n">
-        <v>2019.0</v>
+        <v>2017.0</v>
       </c>
       <c r="E60" t="s">
-        <v>354</v>
+        <v>293</v>
       </c>
       <c r="F60" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G60" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H60" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I60" t="s">
-        <v>511</v>
+        <v>421</v>
       </c>
       <c r="J60" t="s">
-        <v>585</v>
+        <v>461</v>
       </c>
       <c r="K60" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="61">
@@ -3956,34 +3569,34 @@
         <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="C61" t="s">
-        <v>310</v>
+        <v>219</v>
       </c>
       <c r="D61" t="n">
-        <v>2013.0</v>
+        <v>2014.0</v>
       </c>
       <c r="E61" t="s">
-        <v>395</v>
+        <v>294</v>
       </c>
       <c r="F61" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G61" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H61" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I61" t="s">
-        <v>535</v>
+        <v>422</v>
       </c>
       <c r="J61" t="s">
-        <v>587</v>
+        <v>461</v>
       </c>
       <c r="K61" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="62">
@@ -3991,34 +3604,34 @@
         <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>240</v>
+        <v>181</v>
       </c>
       <c r="C62" t="s">
-        <v>310</v>
+        <v>220</v>
       </c>
       <c r="D62" t="n">
-        <v>2013.0</v>
+        <v>2019.0</v>
       </c>
       <c r="E62" t="s">
-        <v>396</v>
+        <v>295</v>
       </c>
       <c r="F62" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G62" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H62" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I62" t="s">
-        <v>535</v>
-      </c>
-      <c r="J62" t="s">
-        <v>587</v>
+        <v>423</v>
+      </c>
+      <c r="J62" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K62" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="63">
@@ -4026,34 +3639,34 @@
         <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="C63" t="s">
-        <v>310</v>
+        <v>221</v>
       </c>
       <c r="D63" t="n">
-        <v>2013.0</v>
+        <v>2015.0</v>
       </c>
       <c r="E63" t="s">
-        <v>397</v>
+        <v>296</v>
       </c>
       <c r="F63" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G63" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H63" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I63" t="s">
-        <v>536</v>
+        <v>389</v>
       </c>
       <c r="J63" t="s">
-        <v>587</v>
+        <v>457</v>
       </c>
       <c r="K63" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="64">
@@ -4061,34 +3674,34 @@
         <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="C64" t="s">
-        <v>310</v>
+        <v>221</v>
       </c>
       <c r="D64" t="n">
-        <v>2013.0</v>
+        <v>2015.0</v>
       </c>
       <c r="E64" t="s">
-        <v>398</v>
+        <v>297</v>
       </c>
       <c r="F64" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G64" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H64" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I64" t="s">
-        <v>536</v>
+        <v>424</v>
       </c>
       <c r="J64" t="s">
-        <v>587</v>
+        <v>457</v>
       </c>
       <c r="K64" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="65">
@@ -4096,34 +3709,34 @@
         <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="C65" t="s">
-        <v>311</v>
+        <v>222</v>
       </c>
       <c r="D65" t="n">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="E65" t="s">
-        <v>354</v>
+        <v>253</v>
       </c>
       <c r="F65" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G65" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H65" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I65" t="s">
-        <v>511</v>
-      </c>
-      <c r="J65" t="s">
-        <v>585</v>
+        <v>397</v>
+      </c>
+      <c r="J65" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K65" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="66">
@@ -4131,34 +3744,34 @@
         <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>242</v>
+        <v>184</v>
       </c>
       <c r="C66" t="s">
-        <v>312</v>
+        <v>223</v>
       </c>
       <c r="D66" t="n">
-        <v>2021.0</v>
+        <v>2018.0</v>
       </c>
       <c r="E66" t="s">
-        <v>372</v>
+        <v>298</v>
       </c>
       <c r="F66" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G66" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H66" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I66" t="s">
-        <v>537</v>
-      </c>
-      <c r="J66" t="e">
-        <v>#N/A</v>
+        <v>425</v>
+      </c>
+      <c r="J66" t="s">
+        <v>461</v>
       </c>
       <c r="K66" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="67">
@@ -4166,34 +3779,34 @@
         <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
       <c r="C67" t="s">
-        <v>312</v>
+        <v>224</v>
       </c>
       <c r="D67" t="n">
-        <v>2013.0</v>
+        <v>2019.0</v>
       </c>
       <c r="E67" t="s">
-        <v>399</v>
+        <v>299</v>
       </c>
       <c r="F67" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G67" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H67" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I67" t="s">
-        <v>538</v>
-      </c>
-      <c r="J67" t="s">
-        <v>589</v>
+        <v>426</v>
+      </c>
+      <c r="J67" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K67" t="s">
-        <v>596</v>
+        <v>466</v>
       </c>
     </row>
     <row r="68">
@@ -4201,34 +3814,34 @@
         <v>76</v>
       </c>
       <c r="B68" t="s">
-        <v>243</v>
+        <v>185</v>
       </c>
       <c r="C68" t="s">
-        <v>313</v>
+        <v>224</v>
       </c>
       <c r="D68" t="n">
-        <v>2019.0</v>
+        <v>2017.0</v>
       </c>
       <c r="E68" t="s">
-        <v>354</v>
+        <v>300</v>
       </c>
       <c r="F68" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G68" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H68" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I68" t="s">
-        <v>511</v>
-      </c>
-      <c r="J68" t="s">
-        <v>585</v>
+        <v>427</v>
+      </c>
+      <c r="J68" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K68" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="69">
@@ -4236,34 +3849,34 @@
         <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>244</v>
+        <v>185</v>
       </c>
       <c r="C69" t="s">
-        <v>314</v>
+        <v>224</v>
       </c>
       <c r="D69" t="n">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="E69" t="s">
-        <v>354</v>
+        <v>301</v>
       </c>
       <c r="F69" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G69" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H69" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I69" t="s">
-        <v>511</v>
+        <v>405</v>
       </c>
       <c r="J69" t="s">
-        <v>585</v>
+        <v>462</v>
       </c>
       <c r="K69" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="70">
@@ -4271,34 +3884,34 @@
         <v>78</v>
       </c>
       <c r="B70" t="s">
-        <v>245</v>
+        <v>185</v>
       </c>
       <c r="C70" t="s">
-        <v>315</v>
+        <v>224</v>
       </c>
       <c r="D70" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E70" t="s">
-        <v>400</v>
+        <v>302</v>
       </c>
       <c r="F70" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G70" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H70" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I70" t="s">
-        <v>511</v>
+        <v>428</v>
       </c>
       <c r="J70" t="s">
-        <v>585</v>
+        <v>461</v>
       </c>
       <c r="K70" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="71">
@@ -4306,34 +3919,34 @@
         <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>246</v>
+        <v>186</v>
       </c>
       <c r="C71" t="s">
-        <v>316</v>
+        <v>225</v>
       </c>
       <c r="D71" t="n">
-        <v>2022.0</v>
+        <v>2015.0</v>
       </c>
       <c r="E71" t="s">
-        <v>353</v>
+        <v>303</v>
       </c>
       <c r="F71" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G71" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H71" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I71" t="s">
-        <v>511</v>
-      </c>
-      <c r="J71" t="e">
-        <v>#N/A</v>
+        <v>429</v>
+      </c>
+      <c r="J71" t="s">
+        <v>460</v>
       </c>
       <c r="K71" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="72">
@@ -4341,34 +3954,34 @@
         <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>246</v>
+        <v>187</v>
       </c>
       <c r="C72" t="s">
-        <v>316</v>
+        <v>226</v>
       </c>
       <c r="D72" t="n">
         <v>2020.0</v>
       </c>
       <c r="E72" t="s">
-        <v>401</v>
+        <v>304</v>
       </c>
       <c r="F72" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G72" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H72" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I72" t="s">
-        <v>539</v>
+        <v>430</v>
       </c>
       <c r="J72" t="s">
-        <v>589</v>
+        <v>457</v>
       </c>
       <c r="K72" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="73">
@@ -4376,34 +3989,34 @@
         <v>81</v>
       </c>
       <c r="B73" t="s">
-        <v>246</v>
+        <v>187</v>
       </c>
       <c r="C73" t="s">
-        <v>316</v>
+        <v>226</v>
       </c>
       <c r="D73" t="n">
-        <v>2017.0</v>
+        <v>2019.0</v>
       </c>
       <c r="E73" t="s">
-        <v>402</v>
+        <v>305</v>
       </c>
       <c r="F73" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G73" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H73" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I73" t="s">
-        <v>540</v>
+        <v>431</v>
       </c>
       <c r="J73" t="s">
-        <v>585</v>
+        <v>460</v>
       </c>
       <c r="K73" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="74">
@@ -4411,34 +4024,34 @@
         <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>246</v>
+        <v>187</v>
       </c>
       <c r="C74" t="s">
-        <v>316</v>
+        <v>226</v>
       </c>
       <c r="D74" t="n">
-        <v>2016.0</v>
+        <v>2019.0</v>
       </c>
       <c r="E74" t="s">
-        <v>403</v>
+        <v>306</v>
       </c>
       <c r="F74" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G74" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H74" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I74" t="s">
-        <v>541</v>
+        <v>430</v>
       </c>
       <c r="J74" t="s">
-        <v>587</v>
+        <v>460</v>
       </c>
       <c r="K74" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="75">
@@ -4446,34 +4059,34 @@
         <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>246</v>
+        <v>187</v>
       </c>
       <c r="C75" t="s">
-        <v>316</v>
+        <v>226</v>
       </c>
       <c r="D75" t="n">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E75" t="s">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="F75" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G75" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H75" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I75" t="s">
-        <v>511</v>
+        <v>430</v>
       </c>
       <c r="J75" t="s">
-        <v>585</v>
+        <v>457</v>
       </c>
       <c r="K75" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="76">
@@ -4481,34 +4094,34 @@
         <v>84</v>
       </c>
       <c r="B76" t="s">
+        <v>187</v>
+      </c>
+      <c r="C76" t="s">
+        <v>226</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E76" t="s">
         <v>247</v>
       </c>
-      <c r="C76" t="s">
-        <v>317</v>
-      </c>
-      <c r="D76" t="n">
-        <v>2020.0</v>
-      </c>
-      <c r="E76" t="s">
-        <v>404</v>
-      </c>
       <c r="F76" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G76" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H76" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I76" t="s">
-        <v>542</v>
+        <v>389</v>
       </c>
       <c r="J76" t="s">
-        <v>591</v>
+        <v>457</v>
       </c>
       <c r="K76" t="s">
-        <v>596</v>
+        <v>467</v>
       </c>
     </row>
     <row r="77">
@@ -4516,34 +4129,34 @@
         <v>85</v>
       </c>
       <c r="B77" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
       <c r="C77" t="s">
-        <v>318</v>
+        <v>226</v>
       </c>
       <c r="D77" t="n">
-        <v>2017.0</v>
+        <v>2015.0</v>
       </c>
       <c r="E77" t="s">
-        <v>405</v>
+        <v>308</v>
       </c>
       <c r="F77" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G77" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H77" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I77" t="s">
-        <v>543</v>
+        <v>432</v>
       </c>
       <c r="J77" t="s">
-        <v>591</v>
+        <v>461</v>
       </c>
       <c r="K77" t="s">
-        <v>596</v>
+        <v>466</v>
       </c>
     </row>
     <row r="78">
@@ -4551,34 +4164,34 @@
         <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c r="C78" t="s">
-        <v>319</v>
+        <v>226</v>
       </c>
       <c r="D78" t="n">
-        <v>2021.0</v>
+        <v>2015.0</v>
       </c>
       <c r="E78" t="s">
-        <v>372</v>
+        <v>309</v>
       </c>
       <c r="F78" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G78" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H78" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I78" t="s">
-        <v>544</v>
+        <v>430</v>
       </c>
       <c r="J78" t="s">
-        <v>589</v>
+        <v>457</v>
       </c>
       <c r="K78" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="79">
@@ -4586,34 +4199,34 @@
         <v>87</v>
       </c>
       <c r="B79" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c r="C79" t="s">
-        <v>319</v>
+        <v>226</v>
       </c>
       <c r="D79" t="n">
-        <v>2020.0</v>
+        <v>2013.0</v>
       </c>
       <c r="E79" t="s">
-        <v>406</v>
+        <v>310</v>
       </c>
       <c r="F79" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G79" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H79" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I79" t="s">
-        <v>545</v>
+        <v>431</v>
       </c>
       <c r="J79" t="s">
-        <v>586</v>
+        <v>460</v>
       </c>
       <c r="K79" t="s">
-        <v>596</v>
+        <v>467</v>
       </c>
     </row>
     <row r="80">
@@ -4621,34 +4234,34 @@
         <v>88</v>
       </c>
       <c r="B80" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c r="C80" t="s">
-        <v>319</v>
+        <v>226</v>
       </c>
       <c r="D80" t="n">
-        <v>2017.0</v>
+        <v>2013.0</v>
       </c>
       <c r="E80" t="s">
-        <v>407</v>
+        <v>311</v>
       </c>
       <c r="F80" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G80" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H80" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I80" t="s">
-        <v>545</v>
+        <v>430</v>
       </c>
       <c r="J80" t="s">
-        <v>590</v>
+        <v>460</v>
       </c>
       <c r="K80" t="s">
-        <v>596</v>
+        <v>467</v>
       </c>
     </row>
     <row r="81">
@@ -4656,34 +4269,34 @@
         <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>249</v>
-      </c>
-      <c r="C81" t="s">
-        <v>319</v>
+        <v>188</v>
+      </c>
+      <c r="C81" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D81" t="n">
-        <v>2013.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E81" t="s">
-        <v>408</v>
+        <v>312</v>
       </c>
       <c r="F81" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G81" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H81" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I81" t="s">
-        <v>546</v>
-      </c>
-      <c r="J81" t="s">
-        <v>590</v>
+        <v>433</v>
+      </c>
+      <c r="J81" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K81" t="s">
-        <v>596</v>
+        <v>466</v>
       </c>
     </row>
     <row r="82">
@@ -4691,34 +4304,34 @@
         <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>249</v>
+        <v>189</v>
       </c>
       <c r="C82" t="s">
-        <v>319</v>
+        <v>227</v>
       </c>
       <c r="D82" t="n">
-        <v>2014.0</v>
+        <v>2015.0</v>
       </c>
       <c r="E82" t="s">
-        <v>409</v>
+        <v>297</v>
       </c>
       <c r="F82" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G82" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H82" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I82" t="s">
-        <v>547</v>
+        <v>424</v>
       </c>
       <c r="J82" t="s">
-        <v>587</v>
+        <v>457</v>
       </c>
       <c r="K82" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="83">
@@ -4726,34 +4339,34 @@
         <v>91</v>
       </c>
       <c r="B83" t="s">
-        <v>249</v>
+        <v>190</v>
       </c>
       <c r="C83" t="s">
-        <v>319</v>
+        <v>228</v>
       </c>
       <c r="D83" t="n">
-        <v>2016.0</v>
+        <v>2021.0</v>
       </c>
       <c r="E83" t="s">
-        <v>410</v>
+        <v>313</v>
       </c>
       <c r="F83" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G83" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H83" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I83" t="s">
-        <v>546</v>
-      </c>
-      <c r="J83" t="s">
-        <v>592</v>
+        <v>397</v>
+      </c>
+      <c r="J83" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K83" t="s">
-        <v>596</v>
+        <v>466</v>
       </c>
     </row>
     <row r="84">
@@ -4761,34 +4374,34 @@
         <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>249</v>
+        <v>190</v>
       </c>
       <c r="C84" t="s">
-        <v>319</v>
+        <v>228</v>
       </c>
       <c r="D84" t="n">
-        <v>2019.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E84" t="s">
-        <v>411</v>
+        <v>314</v>
       </c>
       <c r="F84" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G84" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H84" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I84" t="s">
-        <v>545</v>
+        <v>397</v>
       </c>
       <c r="J84" t="s">
-        <v>590</v>
+        <v>459</v>
       </c>
       <c r="K84" t="s">
-        <v>596</v>
+        <v>466</v>
       </c>
     </row>
     <row r="85">
@@ -4796,34 +4409,34 @@
         <v>93</v>
       </c>
       <c r="B85" t="s">
-        <v>250</v>
+        <v>191</v>
       </c>
       <c r="C85" t="s">
-        <v>320</v>
+        <v>229</v>
       </c>
       <c r="D85" t="n">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="E85" t="s">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="F85" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G85" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H85" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I85" t="s">
-        <v>511</v>
+        <v>434</v>
       </c>
       <c r="J85" t="s">
-        <v>585</v>
+        <v>461</v>
       </c>
       <c r="K85" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="86">
@@ -4831,34 +4444,34 @@
         <v>94</v>
       </c>
       <c r="B86" t="s">
-        <v>251</v>
+        <v>191</v>
       </c>
       <c r="C86" t="s">
-        <v>321</v>
+        <v>229</v>
       </c>
       <c r="D86" t="n">
-        <v>2020.0</v>
+        <v>2017.0</v>
       </c>
       <c r="E86" t="s">
-        <v>412</v>
+        <v>293</v>
       </c>
       <c r="F86" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G86" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H86" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I86" t="s">
-        <v>548</v>
+        <v>434</v>
       </c>
       <c r="J86" t="s">
-        <v>587</v>
+        <v>461</v>
       </c>
       <c r="K86" t="s">
-        <v>596</v>
+        <v>466</v>
       </c>
     </row>
     <row r="87">
@@ -4866,34 +4479,34 @@
         <v>95</v>
       </c>
       <c r="B87" t="s">
-        <v>251</v>
+        <v>191</v>
       </c>
       <c r="C87" t="s">
-        <v>321</v>
+        <v>229</v>
       </c>
       <c r="D87" t="n">
-        <v>2018.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E87" t="s">
-        <v>413</v>
+        <v>316</v>
       </c>
       <c r="F87" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G87" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H87" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I87" t="s">
-        <v>549</v>
+        <v>434</v>
       </c>
       <c r="J87" t="s">
-        <v>590</v>
+        <v>461</v>
       </c>
       <c r="K87" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="88">
@@ -4901,34 +4514,34 @@
         <v>96</v>
       </c>
       <c r="B88" t="s">
-        <v>251</v>
+        <v>191</v>
       </c>
       <c r="C88" t="s">
-        <v>321</v>
+        <v>229</v>
       </c>
       <c r="D88" t="n">
-        <v>2014.0</v>
+        <v>2015.0</v>
       </c>
       <c r="E88" t="s">
-        <v>414</v>
+        <v>317</v>
       </c>
       <c r="F88" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G88" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H88" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I88" t="s">
-        <v>549</v>
+        <v>434</v>
       </c>
       <c r="J88" t="s">
-        <v>590</v>
+        <v>461</v>
       </c>
       <c r="K88" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="89">
@@ -4936,34 +4549,34 @@
         <v>97</v>
       </c>
       <c r="B89" t="s">
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="C89" t="s">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="D89" t="n">
-        <v>2017.0</v>
+        <v>2014.0</v>
       </c>
       <c r="E89" t="s">
-        <v>415</v>
+        <v>294</v>
       </c>
       <c r="F89" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G89" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H89" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I89" t="s">
-        <v>550</v>
+        <v>434</v>
       </c>
       <c r="J89" t="s">
-        <v>585</v>
+        <v>461</v>
       </c>
       <c r="K89" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="90">
@@ -4971,34 +4584,34 @@
         <v>98</v>
       </c>
       <c r="B90" t="s">
-        <v>252</v>
+        <v>192</v>
       </c>
       <c r="C90" t="s">
-        <v>322</v>
+        <v>230</v>
       </c>
       <c r="D90" t="n">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="E90" t="s">
-        <v>354</v>
+        <v>318</v>
       </c>
       <c r="F90" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G90" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H90" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I90" t="s">
-        <v>511</v>
-      </c>
-      <c r="J90" t="s">
-        <v>585</v>
+        <v>435</v>
+      </c>
+      <c r="J90" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K90" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="91">
@@ -5006,34 +4619,34 @@
         <v>99</v>
       </c>
       <c r="B91" t="s">
-        <v>252</v>
+        <v>192</v>
       </c>
       <c r="C91" t="s">
-        <v>322</v>
+        <v>230</v>
       </c>
       <c r="D91" t="n">
-        <v>2014.0</v>
+        <v>2017.0</v>
       </c>
       <c r="E91" t="s">
-        <v>416</v>
+        <v>319</v>
       </c>
       <c r="F91" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G91" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H91" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I91" t="s">
-        <v>551</v>
+        <v>436</v>
       </c>
       <c r="J91" t="s">
-        <v>585</v>
+        <v>461</v>
       </c>
       <c r="K91" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="92">
@@ -5041,34 +4654,34 @@
         <v>100</v>
       </c>
       <c r="B92" t="s">
-        <v>253</v>
+        <v>192</v>
       </c>
       <c r="C92" t="s">
-        <v>323</v>
+        <v>230</v>
       </c>
       <c r="D92" t="n">
-        <v>2019.0</v>
+        <v>2017.0</v>
       </c>
       <c r="E92" t="s">
-        <v>417</v>
+        <v>320</v>
       </c>
       <c r="F92" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G92" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H92" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I92" t="s">
-        <v>552</v>
+        <v>435</v>
       </c>
       <c r="J92" t="e">
         <v>#N/A</v>
       </c>
       <c r="K92" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="93">
@@ -5076,34 +4689,34 @@
         <v>101</v>
       </c>
       <c r="B93" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="C93" t="s">
-        <v>324</v>
+        <v>230</v>
       </c>
       <c r="D93" t="n">
-        <v>2022.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E93" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="F93" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G93" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H93" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I93" t="s">
-        <v>511</v>
-      </c>
-      <c r="J93" t="e">
-        <v>#N/A</v>
+        <v>437</v>
+      </c>
+      <c r="J93" t="s">
+        <v>461</v>
       </c>
       <c r="K93" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="94">
@@ -5111,34 +4724,34 @@
         <v>102</v>
       </c>
       <c r="B94" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="C94" t="s">
-        <v>324</v>
+        <v>230</v>
       </c>
       <c r="D94" t="n">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E94" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="F94" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G94" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H94" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I94" t="s">
-        <v>511</v>
+        <v>435</v>
       </c>
       <c r="J94" t="s">
-        <v>585</v>
+        <v>461</v>
       </c>
       <c r="K94" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="95">
@@ -5146,34 +4759,34 @@
         <v>103</v>
       </c>
       <c r="B95" t="s">
-        <v>255</v>
+        <v>192</v>
       </c>
       <c r="C95" t="s">
-        <v>325</v>
+        <v>230</v>
       </c>
       <c r="D95" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E95" t="s">
-        <v>418</v>
+        <v>323</v>
       </c>
       <c r="F95" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G95" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H95" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I95" t="s">
-        <v>518</v>
+        <v>438</v>
       </c>
       <c r="J95" t="s">
-        <v>587</v>
+        <v>461</v>
       </c>
       <c r="K95" t="s">
-        <v>596</v>
+        <v>466</v>
       </c>
     </row>
     <row r="96">
@@ -5181,34 +4794,34 @@
         <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>255</v>
+        <v>192</v>
       </c>
       <c r="C96" t="s">
-        <v>325</v>
+        <v>230</v>
       </c>
       <c r="D96" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E96" t="s">
-        <v>419</v>
+        <v>324</v>
       </c>
       <c r="F96" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G96" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H96" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I96" t="s">
-        <v>553</v>
+        <v>438</v>
       </c>
       <c r="J96" t="s">
-        <v>587</v>
+        <v>461</v>
       </c>
       <c r="K96" t="s">
-        <v>596</v>
+        <v>466</v>
       </c>
     </row>
     <row r="97">
@@ -5216,34 +4829,34 @@
         <v>105</v>
       </c>
       <c r="B97" t="s">
-        <v>256</v>
+        <v>192</v>
       </c>
       <c r="C97" t="s">
-        <v>326</v>
+        <v>230</v>
       </c>
       <c r="D97" t="n">
-        <v>2021.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E97" t="s">
-        <v>372</v>
+        <v>325</v>
       </c>
       <c r="F97" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G97" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H97" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I97" t="s">
-        <v>526</v>
-      </c>
-      <c r="J97" t="e">
-        <v>#N/A</v>
+        <v>438</v>
+      </c>
+      <c r="J97" t="s">
+        <v>461</v>
       </c>
       <c r="K97" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="98">
@@ -5251,34 +4864,34 @@
         <v>106</v>
       </c>
       <c r="B98" t="s">
-        <v>257</v>
+        <v>192</v>
       </c>
       <c r="C98" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="D98" t="n">
-        <v>2018.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E98" t="s">
-        <v>420</v>
+        <v>326</v>
       </c>
       <c r="F98" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G98" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H98" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I98" t="s">
-        <v>554</v>
+        <v>437</v>
       </c>
       <c r="J98" t="s">
-        <v>585</v>
+        <v>461</v>
       </c>
       <c r="K98" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="99">
@@ -5286,34 +4899,34 @@
         <v>107</v>
       </c>
       <c r="B99" t="s">
-        <v>258</v>
+        <v>192</v>
       </c>
       <c r="C99" t="s">
-        <v>328</v>
+        <v>230</v>
       </c>
       <c r="D99" t="n">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E99" t="s">
-        <v>421</v>
+        <v>327</v>
       </c>
       <c r="F99" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G99" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H99" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I99" t="s">
-        <v>555</v>
-      </c>
-      <c r="J99" t="e">
-        <v>#N/A</v>
+        <v>435</v>
+      </c>
+      <c r="J99" t="s">
+        <v>461</v>
       </c>
       <c r="K99" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="100">
@@ -5321,34 +4934,34 @@
         <v>108</v>
       </c>
       <c r="B100" t="s">
-        <v>258</v>
+        <v>192</v>
       </c>
       <c r="C100" t="s">
+        <v>230</v>
+      </c>
+      <c r="D100" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E100" t="s">
         <v>328</v>
       </c>
-      <c r="D100" t="n">
-        <v>2017.0</v>
-      </c>
-      <c r="E100" t="s">
-        <v>422</v>
-      </c>
       <c r="F100" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G100" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H100" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I100" t="s">
-        <v>556</v>
-      </c>
-      <c r="J100" t="e">
-        <v>#N/A</v>
+        <v>438</v>
+      </c>
+      <c r="J100" t="s">
+        <v>461</v>
       </c>
       <c r="K100" t="s">
-        <v>596</v>
+        <v>466</v>
       </c>
     </row>
     <row r="101">
@@ -5356,34 +4969,34 @@
         <v>109</v>
       </c>
       <c r="B101" t="s">
-        <v>258</v>
+        <v>192</v>
       </c>
       <c r="C101" t="s">
-        <v>328</v>
+        <v>230</v>
       </c>
       <c r="D101" t="n">
-        <v>2018.0</v>
+        <v>2015.0</v>
       </c>
       <c r="E101" t="s">
-        <v>423</v>
+        <v>329</v>
       </c>
       <c r="F101" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G101" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H101" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I101" t="s">
-        <v>534</v>
+        <v>435</v>
       </c>
       <c r="J101" t="s">
-        <v>591</v>
+        <v>461</v>
       </c>
       <c r="K101" t="s">
-        <v>596</v>
+        <v>466</v>
       </c>
     </row>
     <row r="102">
@@ -5391,34 +5004,34 @@
         <v>110</v>
       </c>
       <c r="B102" t="s">
-        <v>258</v>
+        <v>193</v>
       </c>
       <c r="C102" t="s">
-        <v>328</v>
+        <v>231</v>
       </c>
       <c r="D102" t="n">
-        <v>2016.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E102" t="s">
-        <v>424</v>
+        <v>330</v>
       </c>
       <c r="F102" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G102" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H102" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I102" t="s">
-        <v>557</v>
-      </c>
-      <c r="J102" t="s">
-        <v>585</v>
+        <v>439</v>
+      </c>
+      <c r="J102" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K102" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="103">
@@ -5426,34 +5039,34 @@
         <v>111</v>
       </c>
       <c r="B103" t="s">
-        <v>259</v>
+        <v>193</v>
       </c>
       <c r="C103" t="s">
-        <v>329</v>
+        <v>231</v>
       </c>
       <c r="D103" t="n">
         <v>2019.0</v>
       </c>
       <c r="E103" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="F103" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G103" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H103" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I103" t="s">
-        <v>511</v>
+        <v>439</v>
       </c>
       <c r="J103" t="s">
-        <v>585</v>
+        <v>461</v>
       </c>
       <c r="K103" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="104">
@@ -5461,34 +5074,34 @@
         <v>112</v>
       </c>
       <c r="B104" t="s">
-        <v>260</v>
+        <v>193</v>
       </c>
       <c r="C104" t="s">
-        <v>330</v>
+        <v>231</v>
       </c>
       <c r="D104" t="n">
-        <v>2015.0</v>
+        <v>2017.0</v>
       </c>
       <c r="E104" t="s">
-        <v>425</v>
+        <v>332</v>
       </c>
       <c r="F104" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G104" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H104" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I104" t="s">
-        <v>558</v>
+        <v>439</v>
       </c>
       <c r="J104" t="s">
-        <v>590</v>
+        <v>461</v>
       </c>
       <c r="K104" t="s">
-        <v>596</v>
+        <v>467</v>
       </c>
     </row>
     <row r="105">
@@ -5496,34 +5109,34 @@
         <v>113</v>
       </c>
       <c r="B105" t="s">
-        <v>261</v>
+        <v>193</v>
       </c>
       <c r="C105" t="s">
-        <v>331</v>
+        <v>231</v>
       </c>
       <c r="D105" t="n">
-        <v>2020.0</v>
+        <v>2018.0</v>
       </c>
       <c r="E105" t="s">
-        <v>426</v>
+        <v>333</v>
       </c>
       <c r="F105" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G105" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H105" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I105" t="s">
-        <v>559</v>
+        <v>439</v>
       </c>
       <c r="J105" t="s">
-        <v>587</v>
+        <v>461</v>
       </c>
       <c r="K105" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="106">
@@ -5531,34 +5144,34 @@
         <v>114</v>
       </c>
       <c r="B106" t="s">
-        <v>261</v>
+        <v>193</v>
       </c>
       <c r="C106" t="s">
-        <v>331</v>
+        <v>231</v>
       </c>
       <c r="D106" t="n">
-        <v>2019.0</v>
+        <v>2017.0</v>
       </c>
       <c r="E106" t="s">
-        <v>427</v>
+        <v>334</v>
       </c>
       <c r="F106" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G106" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H106" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I106" t="s">
-        <v>560</v>
+        <v>440</v>
       </c>
       <c r="J106" t="s">
-        <v>590</v>
+        <v>462</v>
       </c>
       <c r="K106" t="s">
-        <v>596</v>
+        <v>467</v>
       </c>
     </row>
     <row r="107">
@@ -5566,34 +5179,34 @@
         <v>115</v>
       </c>
       <c r="B107" t="s">
-        <v>261</v>
+        <v>193</v>
       </c>
       <c r="C107" t="s">
-        <v>331</v>
+        <v>231</v>
       </c>
       <c r="D107" t="n">
-        <v>2019.0</v>
+        <v>2017.0</v>
       </c>
       <c r="E107" t="s">
-        <v>428</v>
+        <v>335</v>
       </c>
       <c r="F107" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G107" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H107" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I107" t="s">
-        <v>511</v>
+        <v>440</v>
       </c>
       <c r="J107" t="s">
-        <v>585</v>
+        <v>462</v>
       </c>
       <c r="K107" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="108">
@@ -5601,34 +5214,34 @@
         <v>116</v>
       </c>
       <c r="B108" t="s">
-        <v>261</v>
+        <v>193</v>
       </c>
       <c r="C108" t="s">
-        <v>331</v>
+        <v>231</v>
       </c>
       <c r="D108" t="n">
-        <v>2019.0</v>
+        <v>2017.0</v>
       </c>
       <c r="E108" t="s">
-        <v>429</v>
+        <v>336</v>
       </c>
       <c r="F108" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G108" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H108" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I108" t="s">
-        <v>559</v>
+        <v>439</v>
       </c>
       <c r="J108" t="s">
-        <v>590</v>
+        <v>461</v>
       </c>
       <c r="K108" t="s">
-        <v>596</v>
+        <v>466</v>
       </c>
     </row>
     <row r="109">
@@ -5636,34 +5249,34 @@
         <v>117</v>
       </c>
       <c r="B109" t="s">
-        <v>261</v>
+        <v>193</v>
       </c>
       <c r="C109" t="s">
-        <v>331</v>
+        <v>231</v>
       </c>
       <c r="D109" t="n">
         <v>2016.0</v>
       </c>
       <c r="E109" t="s">
-        <v>430</v>
+        <v>337</v>
       </c>
       <c r="F109" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G109" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H109" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I109" t="s">
-        <v>559</v>
+        <v>439</v>
       </c>
       <c r="J109" t="s">
-        <v>587</v>
+        <v>461</v>
       </c>
       <c r="K109" t="s">
-        <v>596</v>
+        <v>466</v>
       </c>
     </row>
     <row r="110">
@@ -5671,34 +5284,34 @@
         <v>118</v>
       </c>
       <c r="B110" t="s">
-        <v>261</v>
+        <v>193</v>
       </c>
       <c r="C110" t="s">
-        <v>331</v>
+        <v>231</v>
       </c>
       <c r="D110" t="n">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
       <c r="E110" t="s">
-        <v>365</v>
+        <v>338</v>
       </c>
       <c r="F110" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G110" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H110" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I110" t="s">
-        <v>518</v>
+        <v>439</v>
       </c>
       <c r="J110" t="s">
-        <v>587</v>
+        <v>461</v>
       </c>
       <c r="K110" t="s">
-        <v>596</v>
+        <v>466</v>
       </c>
     </row>
     <row r="111">
@@ -5706,34 +5319,34 @@
         <v>119</v>
       </c>
       <c r="B111" t="s">
-        <v>261</v>
+        <v>193</v>
       </c>
       <c r="C111" t="s">
-        <v>331</v>
+        <v>231</v>
       </c>
       <c r="D111" t="n">
-        <v>2015.0</v>
+        <v>2014.0</v>
       </c>
       <c r="E111" t="s">
-        <v>431</v>
+        <v>339</v>
       </c>
       <c r="F111" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G111" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H111" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I111" t="s">
-        <v>561</v>
+        <v>440</v>
       </c>
       <c r="J111" t="s">
-        <v>585</v>
+        <v>462</v>
       </c>
       <c r="K111" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="112">
@@ -5741,34 +5354,34 @@
         <v>120</v>
       </c>
       <c r="B112" t="s">
-        <v>261</v>
+        <v>193</v>
       </c>
       <c r="C112" t="s">
-        <v>331</v>
+        <v>231</v>
       </c>
       <c r="D112" t="n">
-        <v>2015.0</v>
+        <v>2014.0</v>
       </c>
       <c r="E112" t="s">
-        <v>432</v>
+        <v>340</v>
       </c>
       <c r="F112" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G112" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H112" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I112" t="s">
-        <v>559</v>
+        <v>440</v>
       </c>
       <c r="J112" t="s">
-        <v>587</v>
+        <v>462</v>
       </c>
       <c r="K112" t="s">
-        <v>596</v>
+        <v>467</v>
       </c>
     </row>
     <row r="113">
@@ -5776,34 +5389,34 @@
         <v>121</v>
       </c>
       <c r="B113" t="s">
-        <v>261</v>
+        <v>193</v>
       </c>
       <c r="C113" t="s">
-        <v>331</v>
+        <v>231</v>
       </c>
       <c r="D113" t="n">
-        <v>2013.0</v>
+        <v>2014.0</v>
       </c>
       <c r="E113" t="s">
-        <v>433</v>
+        <v>341</v>
       </c>
       <c r="F113" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G113" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H113" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I113" t="s">
-        <v>560</v>
+        <v>440</v>
       </c>
       <c r="J113" t="s">
-        <v>590</v>
+        <v>462</v>
       </c>
       <c r="K113" t="s">
-        <v>596</v>
+        <v>467</v>
       </c>
     </row>
     <row r="114">
@@ -5811,34 +5424,34 @@
         <v>122</v>
       </c>
       <c r="B114" t="s">
-        <v>261</v>
+        <v>193</v>
       </c>
       <c r="C114" t="s">
-        <v>331</v>
+        <v>231</v>
       </c>
       <c r="D114" t="n">
-        <v>2013.0</v>
+        <v>2014.0</v>
       </c>
       <c r="E114" t="s">
-        <v>434</v>
+        <v>342</v>
       </c>
       <c r="F114" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G114" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H114" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I114" t="s">
-        <v>559</v>
+        <v>441</v>
       </c>
       <c r="J114" t="s">
-        <v>590</v>
+        <v>461</v>
       </c>
       <c r="K114" t="s">
-        <v>596</v>
+        <v>466</v>
       </c>
     </row>
     <row r="115">
@@ -5846,34 +5459,34 @@
         <v>123</v>
       </c>
       <c r="B115" t="s">
-        <v>262</v>
-      </c>
-      <c r="C115" t="e">
-        <v>#N/A</v>
+        <v>193</v>
+      </c>
+      <c r="C115" t="s">
+        <v>231</v>
       </c>
       <c r="D115" t="n">
-        <v>2020.0</v>
+        <v>2013.0</v>
       </c>
       <c r="E115" t="s">
-        <v>435</v>
+        <v>343</v>
       </c>
       <c r="F115" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G115" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H115" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I115" t="s">
-        <v>562</v>
-      </c>
-      <c r="J115" t="e">
-        <v>#N/A</v>
+        <v>439</v>
+      </c>
+      <c r="J115" t="s">
+        <v>461</v>
       </c>
       <c r="K115" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="116">
@@ -5881,34 +5494,34 @@
         <v>124</v>
       </c>
       <c r="B116" t="s">
-        <v>263</v>
+        <v>194</v>
       </c>
       <c r="C116" t="s">
-        <v>332</v>
+        <v>232</v>
       </c>
       <c r="D116" t="n">
-        <v>2015.0</v>
+        <v>2022.0</v>
       </c>
       <c r="E116" t="s">
-        <v>419</v>
+        <v>344</v>
       </c>
       <c r="F116" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G116" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H116" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I116" t="s">
-        <v>553</v>
-      </c>
-      <c r="J116" t="s">
-        <v>587</v>
+        <v>442</v>
+      </c>
+      <c r="J116" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K116" t="s">
-        <v>596</v>
+        <v>466</v>
       </c>
     </row>
     <row r="117">
@@ -5916,34 +5529,34 @@
         <v>125</v>
       </c>
       <c r="B117" t="s">
-        <v>263</v>
+        <v>194</v>
       </c>
       <c r="C117" t="s">
-        <v>332</v>
+        <v>232</v>
       </c>
       <c r="D117" t="n">
-        <v>2018.0</v>
+        <v>2021.0</v>
       </c>
       <c r="E117" t="s">
-        <v>436</v>
+        <v>345</v>
       </c>
       <c r="F117" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G117" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H117" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I117" t="s">
-        <v>511</v>
-      </c>
-      <c r="J117" t="s">
-        <v>585</v>
+        <v>442</v>
+      </c>
+      <c r="J117" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K117" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="118">
@@ -5951,34 +5564,34 @@
         <v>126</v>
       </c>
       <c r="B118" t="s">
-        <v>264</v>
+        <v>194</v>
       </c>
       <c r="C118" t="s">
-        <v>333</v>
+        <v>232</v>
       </c>
       <c r="D118" t="n">
-        <v>2021.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E118" t="s">
-        <v>437</v>
+        <v>346</v>
       </c>
       <c r="F118" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G118" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H118" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I118" t="s">
-        <v>526</v>
+        <v>442</v>
       </c>
       <c r="J118" t="e">
         <v>#N/A</v>
       </c>
       <c r="K118" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="119">
@@ -5986,34 +5599,34 @@
         <v>127</v>
       </c>
       <c r="B119" t="s">
-        <v>264</v>
+        <v>194</v>
       </c>
       <c r="C119" t="s">
-        <v>333</v>
+        <v>232</v>
       </c>
       <c r="D119" t="n">
-        <v>2020.0</v>
+        <v>2019.0</v>
       </c>
       <c r="E119" t="s">
-        <v>438</v>
+        <v>347</v>
       </c>
       <c r="F119" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G119" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H119" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I119" t="s">
-        <v>526</v>
-      </c>
-      <c r="J119" t="s">
-        <v>589</v>
+        <v>443</v>
+      </c>
+      <c r="J119" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K119" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="120">
@@ -6021,34 +5634,34 @@
         <v>128</v>
       </c>
       <c r="B120" t="s">
-        <v>265</v>
+        <v>194</v>
       </c>
       <c r="C120" t="s">
-        <v>334</v>
+        <v>232</v>
       </c>
       <c r="D120" t="n">
         <v>2019.0</v>
       </c>
       <c r="E120" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F120" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G120" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H120" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I120" t="s">
-        <v>511</v>
-      </c>
-      <c r="J120" t="s">
-        <v>585</v>
+        <v>444</v>
+      </c>
+      <c r="J120" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K120" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="121">
@@ -6056,34 +5669,34 @@
         <v>129</v>
       </c>
       <c r="B121" t="s">
-        <v>266</v>
+        <v>194</v>
       </c>
       <c r="C121" t="s">
-        <v>335</v>
+        <v>232</v>
       </c>
       <c r="D121" t="n">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="E121" t="s">
-        <v>439</v>
+        <v>349</v>
       </c>
       <c r="F121" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G121" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H121" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I121" t="s">
-        <v>563</v>
+        <v>445</v>
       </c>
       <c r="J121" t="s">
-        <v>585</v>
+        <v>461</v>
       </c>
       <c r="K121" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="122">
@@ -6091,34 +5704,34 @@
         <v>130</v>
       </c>
       <c r="B122" t="s">
-        <v>266</v>
+        <v>194</v>
       </c>
       <c r="C122" t="s">
-        <v>335</v>
+        <v>232</v>
       </c>
       <c r="D122" t="n">
         <v>2017.0</v>
       </c>
       <c r="E122" t="s">
-        <v>415</v>
+        <v>350</v>
       </c>
       <c r="F122" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G122" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H122" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I122" t="s">
-        <v>563</v>
+        <v>445</v>
       </c>
       <c r="J122" t="s">
-        <v>585</v>
+        <v>461</v>
       </c>
       <c r="K122" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="123">
@@ -6126,34 +5739,34 @@
         <v>131</v>
       </c>
       <c r="B123" t="s">
-        <v>266</v>
+        <v>194</v>
       </c>
       <c r="C123" t="s">
-        <v>335</v>
+        <v>232</v>
       </c>
       <c r="D123" t="n">
-        <v>2016.0</v>
+        <v>2018.0</v>
       </c>
       <c r="E123" t="s">
-        <v>440</v>
+        <v>351</v>
       </c>
       <c r="F123" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G123" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H123" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I123" t="s">
-        <v>563</v>
-      </c>
-      <c r="J123" t="s">
-        <v>585</v>
+        <v>446</v>
+      </c>
+      <c r="J123" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K123" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="124">
@@ -6161,34 +5774,34 @@
         <v>132</v>
       </c>
       <c r="B124" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
       <c r="C124" t="s">
-        <v>335</v>
+        <v>233</v>
       </c>
       <c r="D124" t="n">
-        <v>2015.0</v>
+        <v>2022.0</v>
       </c>
       <c r="E124" t="s">
-        <v>441</v>
+        <v>352</v>
       </c>
       <c r="F124" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G124" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H124" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I124" t="s">
-        <v>563</v>
-      </c>
-      <c r="J124" t="s">
-        <v>585</v>
+        <v>397</v>
+      </c>
+      <c r="J124" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K124" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="125">
@@ -6196,34 +5809,34 @@
         <v>133</v>
       </c>
       <c r="B125" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
       <c r="C125" t="s">
-        <v>335</v>
+        <v>233</v>
       </c>
       <c r="D125" t="n">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="E125" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F125" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G125" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H125" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I125" t="s">
-        <v>511</v>
-      </c>
-      <c r="J125" t="s">
-        <v>585</v>
+        <v>397</v>
+      </c>
+      <c r="J125" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K125" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="126">
@@ -6231,34 +5844,34 @@
         <v>134</v>
       </c>
       <c r="B126" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
       <c r="C126" t="s">
-        <v>335</v>
+        <v>233</v>
       </c>
       <c r="D126" t="n">
-        <v>2014.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E126" t="s">
-        <v>416</v>
+        <v>314</v>
       </c>
       <c r="F126" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G126" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H126" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I126" t="s">
-        <v>563</v>
+        <v>397</v>
       </c>
       <c r="J126" t="s">
-        <v>585</v>
+        <v>459</v>
       </c>
       <c r="K126" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="127">
@@ -6266,34 +5879,34 @@
         <v>135</v>
       </c>
       <c r="B127" t="s">
-        <v>267</v>
+        <v>195</v>
       </c>
       <c r="C127" t="s">
-        <v>336</v>
+        <v>233</v>
       </c>
       <c r="D127" t="n">
-        <v>2018.0</v>
+        <v>2021.0</v>
       </c>
       <c r="E127" t="s">
-        <v>442</v>
+        <v>314</v>
       </c>
       <c r="F127" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G127" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H127" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I127" t="s">
-        <v>564</v>
+        <v>397</v>
       </c>
       <c r="J127" t="e">
         <v>#N/A</v>
       </c>
       <c r="K127" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="128">
@@ -6301,34 +5914,34 @@
         <v>136</v>
       </c>
       <c r="B128" t="s">
-        <v>267</v>
+        <v>196</v>
       </c>
       <c r="C128" t="s">
-        <v>336</v>
+        <v>234</v>
       </c>
       <c r="D128" t="n">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="E128" t="s">
-        <v>443</v>
+        <v>354</v>
       </c>
       <c r="F128" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G128" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H128" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I128" t="s">
-        <v>565</v>
+        <v>447</v>
       </c>
       <c r="J128" t="s">
-        <v>585</v>
+        <v>457</v>
       </c>
       <c r="K128" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="129">
@@ -6336,34 +5949,34 @@
         <v>137</v>
       </c>
       <c r="B129" t="s">
-        <v>267</v>
+        <v>196</v>
       </c>
       <c r="C129" t="s">
-        <v>336</v>
+        <v>234</v>
       </c>
       <c r="D129" t="n">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E129" t="s">
-        <v>444</v>
+        <v>355</v>
       </c>
       <c r="F129" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G129" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H129" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I129" t="s">
-        <v>564</v>
-      </c>
-      <c r="J129" t="e">
-        <v>#N/A</v>
+        <v>447</v>
+      </c>
+      <c r="J129" t="s">
+        <v>460</v>
       </c>
       <c r="K129" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="130">
@@ -6371,34 +5984,34 @@
         <v>138</v>
       </c>
       <c r="B130" t="s">
-        <v>267</v>
+        <v>196</v>
       </c>
       <c r="C130" t="s">
-        <v>336</v>
+        <v>234</v>
       </c>
       <c r="D130" t="n">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
       <c r="E130" t="s">
-        <v>445</v>
+        <v>356</v>
       </c>
       <c r="F130" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G130" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H130" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I130" t="s">
-        <v>566</v>
+        <v>447</v>
       </c>
       <c r="J130" t="s">
-        <v>585</v>
+        <v>457</v>
       </c>
       <c r="K130" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="131">
@@ -6406,34 +6019,34 @@
         <v>139</v>
       </c>
       <c r="B131" t="s">
-        <v>267</v>
+        <v>196</v>
       </c>
       <c r="C131" t="s">
-        <v>336</v>
+        <v>234</v>
       </c>
       <c r="D131" t="n">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
       <c r="E131" t="s">
-        <v>446</v>
+        <v>357</v>
       </c>
       <c r="F131" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G131" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H131" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I131" t="s">
-        <v>564</v>
+        <v>448</v>
       </c>
       <c r="J131" t="s">
-        <v>585</v>
+        <v>462</v>
       </c>
       <c r="K131" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="132">
@@ -6441,34 +6054,34 @@
         <v>140</v>
       </c>
       <c r="B132" t="s">
-        <v>267</v>
+        <v>196</v>
       </c>
       <c r="C132" t="s">
-        <v>336</v>
+        <v>234</v>
       </c>
       <c r="D132" t="n">
-        <v>2016.0</v>
+        <v>2013.0</v>
       </c>
       <c r="E132" t="s">
+        <v>358</v>
+      </c>
+      <c r="F132" t="s">
+        <v>375</v>
+      </c>
+      <c r="G132" t="s">
+        <v>376</v>
+      </c>
+      <c r="H132" t="s">
+        <v>378</v>
+      </c>
+      <c r="I132" t="s">
         <v>447</v>
       </c>
-      <c r="F132" t="s">
-        <v>503</v>
-      </c>
-      <c r="G132" t="s">
-        <v>504</v>
-      </c>
-      <c r="H132" t="s">
-        <v>506</v>
-      </c>
-      <c r="I132" t="s">
-        <v>567</v>
-      </c>
       <c r="J132" t="s">
-        <v>585</v>
+        <v>457</v>
       </c>
       <c r="K132" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="133">
@@ -6476,34 +6089,34 @@
         <v>141</v>
       </c>
       <c r="B133" t="s">
-        <v>267</v>
+        <v>197</v>
       </c>
       <c r="C133" t="s">
-        <v>336</v>
+        <v>235</v>
       </c>
       <c r="D133" t="n">
-        <v>2016.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E133" t="s">
-        <v>448</v>
+        <v>359</v>
       </c>
       <c r="F133" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G133" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H133" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I133" t="s">
-        <v>567</v>
+        <v>449</v>
       </c>
       <c r="J133" t="s">
-        <v>585</v>
+        <v>457</v>
       </c>
       <c r="K133" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="134">
@@ -6511,34 +6124,34 @@
         <v>142</v>
       </c>
       <c r="B134" t="s">
-        <v>267</v>
+        <v>197</v>
       </c>
       <c r="C134" t="s">
-        <v>336</v>
+        <v>235</v>
       </c>
       <c r="D134" t="n">
-        <v>2016.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E134" t="s">
-        <v>449</v>
+        <v>360</v>
       </c>
       <c r="F134" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G134" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H134" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I134" t="s">
-        <v>567</v>
-      </c>
-      <c r="J134" t="s">
-        <v>585</v>
+        <v>450</v>
+      </c>
+      <c r="J134" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K134" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="135">
@@ -6546,34 +6159,34 @@
         <v>143</v>
       </c>
       <c r="B135" t="s">
-        <v>267</v>
+        <v>197</v>
       </c>
       <c r="C135" t="s">
-        <v>336</v>
+        <v>235</v>
       </c>
       <c r="D135" t="n">
-        <v>2016.0</v>
+        <v>2019.0</v>
       </c>
       <c r="E135" t="s">
-        <v>450</v>
+        <v>361</v>
       </c>
       <c r="F135" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G135" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H135" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I135" t="s">
-        <v>566</v>
+        <v>449</v>
       </c>
       <c r="J135" t="s">
-        <v>585</v>
+        <v>464</v>
       </c>
       <c r="K135" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="136">
@@ -6581,34 +6194,34 @@
         <v>144</v>
       </c>
       <c r="B136" t="s">
-        <v>267</v>
+        <v>197</v>
       </c>
       <c r="C136" t="s">
-        <v>336</v>
+        <v>235</v>
       </c>
       <c r="D136" t="n">
-        <v>2016.0</v>
+        <v>2019.0</v>
       </c>
       <c r="E136" t="s">
+        <v>362</v>
+      </c>
+      <c r="F136" t="s">
+        <v>375</v>
+      </c>
+      <c r="G136" t="s">
+        <v>376</v>
+      </c>
+      <c r="H136" t="s">
+        <v>378</v>
+      </c>
+      <c r="I136" t="s">
         <v>451</v>
       </c>
-      <c r="F136" t="s">
-        <v>503</v>
-      </c>
-      <c r="G136" t="s">
-        <v>504</v>
-      </c>
-      <c r="H136" t="s">
-        <v>506</v>
-      </c>
-      <c r="I136" t="s">
-        <v>564</v>
-      </c>
       <c r="J136" t="s">
-        <v>585</v>
+        <v>460</v>
       </c>
       <c r="K136" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="137">
@@ -6616,34 +6229,34 @@
         <v>145</v>
       </c>
       <c r="B137" t="s">
-        <v>267</v>
+        <v>197</v>
       </c>
       <c r="C137" t="s">
-        <v>336</v>
+        <v>235</v>
       </c>
       <c r="D137" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E137" t="s">
+        <v>363</v>
+      </c>
+      <c r="F137" t="s">
+        <v>375</v>
+      </c>
+      <c r="G137" t="s">
+        <v>376</v>
+      </c>
+      <c r="H137" t="s">
+        <v>378</v>
+      </c>
+      <c r="I137" t="s">
         <v>452</v>
       </c>
-      <c r="F137" t="s">
-        <v>503</v>
-      </c>
-      <c r="G137" t="s">
-        <v>504</v>
-      </c>
-      <c r="H137" t="s">
-        <v>506</v>
-      </c>
-      <c r="I137" t="s">
-        <v>567</v>
-      </c>
       <c r="J137" t="s">
-        <v>585</v>
+        <v>465</v>
       </c>
       <c r="K137" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="138">
@@ -6651,34 +6264,34 @@
         <v>146</v>
       </c>
       <c r="B138" t="s">
-        <v>267</v>
+        <v>197</v>
       </c>
       <c r="C138" t="s">
-        <v>336</v>
+        <v>235</v>
       </c>
       <c r="D138" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E138" t="s">
-        <v>453</v>
+        <v>364</v>
       </c>
       <c r="F138" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G138" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H138" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I138" t="s">
-        <v>564</v>
+        <v>450</v>
       </c>
       <c r="J138" t="s">
-        <v>585</v>
+        <v>460</v>
       </c>
       <c r="K138" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="139">
@@ -6686,34 +6299,34 @@
         <v>147</v>
       </c>
       <c r="B139" t="s">
-        <v>267</v>
+        <v>197</v>
       </c>
       <c r="C139" t="s">
-        <v>336</v>
+        <v>235</v>
       </c>
       <c r="D139" t="n">
-        <v>2019.0</v>
+        <v>2015.0</v>
       </c>
       <c r="E139" t="s">
-        <v>354</v>
+        <v>296</v>
       </c>
       <c r="F139" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G139" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H139" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I139" t="s">
-        <v>511</v>
+        <v>389</v>
       </c>
       <c r="J139" t="s">
-        <v>585</v>
+        <v>457</v>
       </c>
       <c r="K139" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="140">
@@ -6721,34 +6334,34 @@
         <v>148</v>
       </c>
       <c r="B140" t="s">
-        <v>268</v>
+        <v>197</v>
       </c>
       <c r="C140" t="s">
-        <v>337</v>
+        <v>235</v>
       </c>
       <c r="D140" t="n">
-        <v>2019.0</v>
+        <v>2013.0</v>
       </c>
       <c r="E140" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="F140" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G140" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H140" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I140" t="s">
-        <v>511</v>
+        <v>453</v>
       </c>
       <c r="J140" t="s">
-        <v>585</v>
+        <v>457</v>
       </c>
       <c r="K140" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="141">
@@ -6756,34 +6369,34 @@
         <v>149</v>
       </c>
       <c r="B141" t="s">
-        <v>269</v>
+        <v>197</v>
       </c>
       <c r="C141" t="s">
-        <v>338</v>
+        <v>235</v>
       </c>
       <c r="D141" t="n">
-        <v>2020.0</v>
+        <v>2014.0</v>
       </c>
       <c r="E141" t="s">
-        <v>454</v>
+        <v>366</v>
       </c>
       <c r="F141" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G141" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H141" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I141" t="s">
-        <v>568</v>
-      </c>
-      <c r="J141" t="e">
-        <v>#N/A</v>
+        <v>450</v>
+      </c>
+      <c r="J141" t="s">
+        <v>460</v>
       </c>
       <c r="K141" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="142">
@@ -6791,34 +6404,34 @@
         <v>150</v>
       </c>
       <c r="B142" t="s">
-        <v>269</v>
+        <v>198</v>
       </c>
       <c r="C142" t="s">
-        <v>338</v>
+        <v>236</v>
       </c>
       <c r="D142" t="n">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E142" t="s">
-        <v>455</v>
+        <v>367</v>
       </c>
       <c r="F142" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G142" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H142" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I142" t="s">
-        <v>568</v>
+        <v>454</v>
       </c>
       <c r="J142" t="s">
-        <v>585</v>
+        <v>461</v>
       </c>
       <c r="K142" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="143">
@@ -6826,34 +6439,34 @@
         <v>151</v>
       </c>
       <c r="B143" t="s">
-        <v>269</v>
+        <v>198</v>
       </c>
       <c r="C143" t="s">
-        <v>338</v>
+        <v>236</v>
       </c>
       <c r="D143" t="n">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E143" t="s">
-        <v>456</v>
+        <v>368</v>
       </c>
       <c r="F143" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G143" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H143" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I143" t="s">
-        <v>568</v>
+        <v>455</v>
       </c>
       <c r="J143" t="s">
-        <v>585</v>
+        <v>460</v>
       </c>
       <c r="K143" t="s">
-        <v>596</v>
+        <v>466</v>
       </c>
     </row>
     <row r="144">
@@ -6861,34 +6474,34 @@
         <v>152</v>
       </c>
       <c r="B144" t="s">
-        <v>269</v>
+        <v>198</v>
       </c>
       <c r="C144" t="s">
-        <v>338</v>
+        <v>236</v>
       </c>
       <c r="D144" t="n">
-        <v>2018.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E144" t="s">
+        <v>247</v>
+      </c>
+      <c r="F144" t="s">
+        <v>375</v>
+      </c>
+      <c r="G144" t="s">
+        <v>376</v>
+      </c>
+      <c r="H144" t="s">
+        <v>378</v>
+      </c>
+      <c r="I144" t="s">
+        <v>389</v>
+      </c>
+      <c r="J144" t="s">
         <v>457</v>
       </c>
-      <c r="F144" t="s">
-        <v>503</v>
-      </c>
-      <c r="G144" t="s">
-        <v>504</v>
-      </c>
-      <c r="H144" t="s">
-        <v>506</v>
-      </c>
-      <c r="I144" t="s">
-        <v>568</v>
-      </c>
-      <c r="J144" t="s">
-        <v>585</v>
-      </c>
       <c r="K144" t="s">
-        <v>595</v>
+        <v>467</v>
       </c>
     </row>
     <row r="145">
@@ -6896,34 +6509,34 @@
         <v>153</v>
       </c>
       <c r="B145" t="s">
-        <v>269</v>
+        <v>198</v>
       </c>
       <c r="C145" t="s">
-        <v>338</v>
+        <v>236</v>
       </c>
       <c r="D145" t="n">
-        <v>2017.0</v>
+        <v>2015.0</v>
       </c>
       <c r="E145" t="s">
-        <v>458</v>
+        <v>297</v>
       </c>
       <c r="F145" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G145" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H145" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I145" t="s">
-        <v>569</v>
+        <v>424</v>
       </c>
       <c r="J145" t="s">
-        <v>591</v>
+        <v>457</v>
       </c>
       <c r="K145" t="s">
-        <v>596</v>
+        <v>467</v>
       </c>
     </row>
     <row r="146">
@@ -6931,34 +6544,34 @@
         <v>154</v>
       </c>
       <c r="B146" t="s">
-        <v>269</v>
+        <v>198</v>
       </c>
       <c r="C146" t="s">
-        <v>338</v>
+        <v>236</v>
       </c>
       <c r="D146" t="n">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E146" t="s">
-        <v>459</v>
+        <v>369</v>
       </c>
       <c r="F146" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G146" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H146" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I146" t="s">
-        <v>569</v>
+        <v>431</v>
       </c>
       <c r="J146" t="s">
-        <v>591</v>
+        <v>460</v>
       </c>
       <c r="K146" t="s">
-        <v>596</v>
+        <v>466</v>
       </c>
     </row>
     <row r="147">
@@ -6966,34 +6579,34 @@
         <v>155</v>
       </c>
       <c r="B147" t="s">
-        <v>269</v>
+        <v>198</v>
       </c>
       <c r="C147" t="s">
-        <v>338</v>
+        <v>236</v>
       </c>
       <c r="D147" t="n">
-        <v>2017.0</v>
+        <v>2013.0</v>
       </c>
       <c r="E147" t="s">
-        <v>460</v>
+        <v>370</v>
       </c>
       <c r="F147" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G147" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H147" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I147" t="s">
-        <v>568</v>
+        <v>431</v>
       </c>
       <c r="J147" t="s">
-        <v>585</v>
+        <v>457</v>
       </c>
       <c r="K147" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="148">
@@ -7001,34 +6614,34 @@
         <v>156</v>
       </c>
       <c r="B148" t="s">
-        <v>269</v>
+        <v>198</v>
       </c>
       <c r="C148" t="s">
-        <v>338</v>
+        <v>236</v>
       </c>
       <c r="D148" t="n">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
       <c r="E148" t="s">
-        <v>461</v>
+        <v>371</v>
       </c>
       <c r="F148" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G148" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="H148" t="s">
-        <v>506</v>
+        <v>378</v>
       </c>
       <c r="I148" t="s">
-        <v>568</v>
+        <v>431</v>
       </c>
       <c r="J148" t="s">
-        <v>585</v>
+        <v>460</v>
       </c>
       <c r="K148" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="149">
@@ -7036,34 +6649,34 @@
         <v>157</v>
       </c>
       <c r="B149" t="s">
-        <v>269</v>
+        <v>199</v>
       </c>
       <c r="C149" t="s">
-        <v>338</v>
+        <v>237</v>
       </c>
       <c r="D149" t="n">
-        <v>2015.0</v>
+        <v>2019.0</v>
       </c>
       <c r="E149" t="s">
-        <v>462</v>
+        <v>372</v>
       </c>
       <c r="F149" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G149" t="s">
-        <v>504</v>
+        <v>377</v>
       </c>
       <c r="H149" t="s">
-        <v>506</v>
-      </c>
-      <c r="I149" t="s">
-        <v>568</v>
+        <v>379</v>
+      </c>
+      <c r="I149" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J149" t="s">
-        <v>585</v>
+        <v>464</v>
       </c>
       <c r="K149" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
     <row r="150">
@@ -7071,34 +6684,34 @@
         <v>158</v>
       </c>
       <c r="B150" t="s">
-        <v>269</v>
+        <v>185</v>
       </c>
       <c r="C150" t="s">
-        <v>338</v>
+        <v>224</v>
       </c>
       <c r="D150" t="n">
-        <v>2014.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E150" t="s">
-        <v>463</v>
+        <v>373</v>
       </c>
       <c r="F150" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G150" t="s">
-        <v>504</v>
+        <v>377</v>
       </c>
       <c r="H150" t="s">
-        <v>506</v>
-      </c>
-      <c r="I150" t="s">
-        <v>569</v>
+        <v>380</v>
+      </c>
+      <c r="I150" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J150" t="s">
-        <v>591</v>
+        <v>464</v>
       </c>
       <c r="K150" t="s">
-        <v>596</v>
+        <v>466</v>
       </c>
     </row>
     <row r="151">
@@ -7106,34 +6719,34 @@
         <v>159</v>
       </c>
       <c r="B151" t="s">
-        <v>269</v>
+        <v>194</v>
       </c>
       <c r="C151" t="s">
-        <v>338</v>
+        <v>232</v>
       </c>
       <c r="D151" t="n">
-        <v>2014.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E151" t="s">
+        <v>346</v>
+      </c>
+      <c r="F151" t="s">
+        <v>375</v>
+      </c>
+      <c r="G151" t="s">
+        <v>377</v>
+      </c>
+      <c r="H151" t="s">
+        <v>381</v>
+      </c>
+      <c r="I151" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J151" t="s">
         <v>464</v>
       </c>
-      <c r="F151" t="s">
-        <v>503</v>
-      </c>
-      <c r="G151" t="s">
-        <v>504</v>
-      </c>
-      <c r="H151" t="s">
-        <v>506</v>
-      </c>
-      <c r="I151" t="s">
-        <v>569</v>
-      </c>
-      <c r="J151" t="s">
-        <v>591</v>
-      </c>
       <c r="K151" t="s">
-        <v>596</v>
+        <v>466</v>
       </c>
     </row>
     <row r="152">
@@ -7141,1889 +6754,34 @@
         <v>160</v>
       </c>
       <c r="B152" t="s">
-        <v>269</v>
+        <v>197</v>
       </c>
       <c r="C152" t="s">
-        <v>338</v>
+        <v>235</v>
       </c>
       <c r="D152" t="n">
-        <v>2014.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E152" t="s">
-        <v>465</v>
+        <v>374</v>
       </c>
       <c r="F152" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="G152" t="s">
-        <v>504</v>
+        <v>377</v>
       </c>
       <c r="H152" t="s">
-        <v>506</v>
-      </c>
-      <c r="I152" t="s">
-        <v>569</v>
+        <v>382</v>
+      </c>
+      <c r="I152" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J152" t="s">
-        <v>591</v>
+        <v>460</v>
       </c>
       <c r="K152" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s">
-        <v>161</v>
-      </c>
-      <c r="B153" t="s">
-        <v>269</v>
-      </c>
-      <c r="C153" t="s">
-        <v>338</v>
-      </c>
-      <c r="D153" t="n">
-        <v>2014.0</v>
-      </c>
-      <c r="E153" t="s">
-        <v>466</v>
-      </c>
-      <c r="F153" t="s">
-        <v>503</v>
-      </c>
-      <c r="G153" t="s">
-        <v>504</v>
-      </c>
-      <c r="H153" t="s">
-        <v>506</v>
-      </c>
-      <c r="I153" t="s">
-        <v>570</v>
-      </c>
-      <c r="J153" t="s">
-        <v>585</v>
-      </c>
-      <c r="K153" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s">
-        <v>162</v>
-      </c>
-      <c r="B154" t="s">
-        <v>269</v>
-      </c>
-      <c r="C154" t="s">
-        <v>338</v>
-      </c>
-      <c r="D154" t="n">
-        <v>2013.0</v>
-      </c>
-      <c r="E154" t="s">
-        <v>467</v>
-      </c>
-      <c r="F154" t="s">
-        <v>503</v>
-      </c>
-      <c r="G154" t="s">
-        <v>504</v>
-      </c>
-      <c r="H154" t="s">
-        <v>506</v>
-      </c>
-      <c r="I154" t="s">
-        <v>568</v>
-      </c>
-      <c r="J154" t="s">
-        <v>585</v>
-      </c>
-      <c r="K154" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s">
-        <v>163</v>
-      </c>
-      <c r="B155" t="s">
-        <v>270</v>
-      </c>
-      <c r="C155" t="s">
-        <v>339</v>
-      </c>
-      <c r="D155" t="n">
-        <v>2022.0</v>
-      </c>
-      <c r="E155" t="s">
-        <v>468</v>
-      </c>
-      <c r="F155" t="s">
-        <v>503</v>
-      </c>
-      <c r="G155" t="s">
-        <v>504</v>
-      </c>
-      <c r="H155" t="s">
-        <v>506</v>
-      </c>
-      <c r="I155" t="s">
-        <v>571</v>
-      </c>
-      <c r="J155" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K155" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s">
-        <v>164</v>
-      </c>
-      <c r="B156" t="s">
-        <v>270</v>
-      </c>
-      <c r="C156" t="s">
-        <v>339</v>
-      </c>
-      <c r="D156" t="n">
-        <v>2021.0</v>
-      </c>
-      <c r="E156" t="s">
-        <v>469</v>
-      </c>
-      <c r="F156" t="s">
-        <v>503</v>
-      </c>
-      <c r="G156" t="s">
-        <v>504</v>
-      </c>
-      <c r="H156" t="s">
-        <v>506</v>
-      </c>
-      <c r="I156" t="s">
-        <v>571</v>
-      </c>
-      <c r="J156" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K156" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s">
-        <v>165</v>
-      </c>
-      <c r="B157" t="s">
-        <v>270</v>
-      </c>
-      <c r="C157" t="s">
-        <v>339</v>
-      </c>
-      <c r="D157" t="n">
-        <v>2020.0</v>
-      </c>
-      <c r="E157" t="s">
-        <v>470</v>
-      </c>
-      <c r="F157" t="s">
-        <v>503</v>
-      </c>
-      <c r="G157" t="s">
-        <v>504</v>
-      </c>
-      <c r="H157" t="s">
-        <v>506</v>
-      </c>
-      <c r="I157" t="s">
-        <v>571</v>
-      </c>
-      <c r="J157" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K157" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s">
-        <v>166</v>
-      </c>
-      <c r="B158" t="s">
-        <v>270</v>
-      </c>
-      <c r="C158" t="s">
-        <v>339</v>
-      </c>
-      <c r="D158" t="n">
-        <v>2019.0</v>
-      </c>
-      <c r="E158" t="s">
-        <v>471</v>
-      </c>
-      <c r="F158" t="s">
-        <v>503</v>
-      </c>
-      <c r="G158" t="s">
-        <v>504</v>
-      </c>
-      <c r="H158" t="s">
-        <v>506</v>
-      </c>
-      <c r="I158" t="s">
-        <v>572</v>
-      </c>
-      <c r="J158" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K158" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s">
-        <v>167</v>
-      </c>
-      <c r="B159" t="s">
-        <v>270</v>
-      </c>
-      <c r="C159" t="s">
-        <v>339</v>
-      </c>
-      <c r="D159" t="n">
-        <v>2019.0</v>
-      </c>
-      <c r="E159" t="s">
-        <v>472</v>
-      </c>
-      <c r="F159" t="s">
-        <v>503</v>
-      </c>
-      <c r="G159" t="s">
-        <v>504</v>
-      </c>
-      <c r="H159" t="s">
-        <v>506</v>
-      </c>
-      <c r="I159" t="s">
-        <v>573</v>
-      </c>
-      <c r="J159" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K159" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s">
-        <v>168</v>
-      </c>
-      <c r="B160" t="s">
-        <v>270</v>
-      </c>
-      <c r="C160" t="s">
-        <v>339</v>
-      </c>
-      <c r="D160" t="n">
-        <v>2019.0</v>
-      </c>
-      <c r="E160" t="s">
-        <v>473</v>
-      </c>
-      <c r="F160" t="s">
-        <v>503</v>
-      </c>
-      <c r="G160" t="s">
-        <v>504</v>
-      </c>
-      <c r="H160" t="s">
-        <v>506</v>
-      </c>
-      <c r="I160" t="s">
-        <v>574</v>
-      </c>
-      <c r="J160" t="s">
-        <v>585</v>
-      </c>
-      <c r="K160" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s">
-        <v>169</v>
-      </c>
-      <c r="B161" t="s">
-        <v>270</v>
-      </c>
-      <c r="C161" t="s">
-        <v>339</v>
-      </c>
-      <c r="D161" t="n">
-        <v>2018.0</v>
-      </c>
-      <c r="E161" t="s">
-        <v>474</v>
-      </c>
-      <c r="F161" t="s">
-        <v>503</v>
-      </c>
-      <c r="G161" t="s">
-        <v>504</v>
-      </c>
-      <c r="H161" t="s">
-        <v>506</v>
-      </c>
-      <c r="I161" t="s">
-        <v>511</v>
-      </c>
-      <c r="J161" t="s">
-        <v>585</v>
-      </c>
-      <c r="K161" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
-        <v>170</v>
-      </c>
-      <c r="B162" t="s">
-        <v>270</v>
-      </c>
-      <c r="C162" t="s">
-        <v>339</v>
-      </c>
-      <c r="D162" t="n">
-        <v>2017.0</v>
-      </c>
-      <c r="E162" t="s">
-        <v>475</v>
-      </c>
-      <c r="F162" t="s">
-        <v>503</v>
-      </c>
-      <c r="G162" t="s">
-        <v>504</v>
-      </c>
-      <c r="H162" t="s">
-        <v>506</v>
-      </c>
-      <c r="I162" t="s">
-        <v>574</v>
-      </c>
-      <c r="J162" t="s">
-        <v>585</v>
-      </c>
-      <c r="K162" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s">
-        <v>171</v>
-      </c>
-      <c r="B163" t="s">
-        <v>270</v>
-      </c>
-      <c r="C163" t="s">
-        <v>339</v>
-      </c>
-      <c r="D163" t="n">
-        <v>2018.0</v>
-      </c>
-      <c r="E163" t="s">
-        <v>476</v>
-      </c>
-      <c r="F163" t="s">
-        <v>503</v>
-      </c>
-      <c r="G163" t="s">
-        <v>504</v>
-      </c>
-      <c r="H163" t="s">
-        <v>506</v>
-      </c>
-      <c r="I163" t="s">
-        <v>575</v>
-      </c>
-      <c r="J163" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K163" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s">
-        <v>172</v>
-      </c>
-      <c r="B164" t="s">
-        <v>271</v>
-      </c>
-      <c r="C164" t="s">
-        <v>340</v>
-      </c>
-      <c r="D164" t="n">
-        <v>2022.0</v>
-      </c>
-      <c r="E164" t="s">
-        <v>477</v>
-      </c>
-      <c r="F164" t="s">
-        <v>503</v>
-      </c>
-      <c r="G164" t="s">
-        <v>504</v>
-      </c>
-      <c r="H164" t="s">
-        <v>506</v>
-      </c>
-      <c r="I164" t="s">
-        <v>526</v>
-      </c>
-      <c r="J164" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K164" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s">
-        <v>173</v>
-      </c>
-      <c r="B165" t="s">
-        <v>271</v>
-      </c>
-      <c r="C165" t="s">
-        <v>340</v>
-      </c>
-      <c r="D165" t="n">
-        <v>2021.0</v>
-      </c>
-      <c r="E165" t="s">
-        <v>478</v>
-      </c>
-      <c r="F165" t="s">
-        <v>503</v>
-      </c>
-      <c r="G165" t="s">
-        <v>504</v>
-      </c>
-      <c r="H165" t="s">
-        <v>506</v>
-      </c>
-      <c r="I165" t="s">
-        <v>526</v>
-      </c>
-      <c r="J165" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K165" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s">
-        <v>174</v>
-      </c>
-      <c r="B166" t="s">
-        <v>271</v>
-      </c>
-      <c r="C166" t="s">
-        <v>340</v>
-      </c>
-      <c r="D166" t="n">
-        <v>2020.0</v>
-      </c>
-      <c r="E166" t="s">
-        <v>438</v>
-      </c>
-      <c r="F166" t="s">
-        <v>503</v>
-      </c>
-      <c r="G166" t="s">
-        <v>504</v>
-      </c>
-      <c r="H166" t="s">
-        <v>506</v>
-      </c>
-      <c r="I166" t="s">
-        <v>526</v>
-      </c>
-      <c r="J166" t="s">
-        <v>589</v>
-      </c>
-      <c r="K166" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s">
-        <v>175</v>
-      </c>
-      <c r="B167" t="s">
-        <v>271</v>
-      </c>
-      <c r="C167" t="s">
-        <v>340</v>
-      </c>
-      <c r="D167" t="n">
-        <v>2021.0</v>
-      </c>
-      <c r="E167" t="s">
-        <v>438</v>
-      </c>
-      <c r="F167" t="s">
-        <v>503</v>
-      </c>
-      <c r="G167" t="s">
-        <v>504</v>
-      </c>
-      <c r="H167" t="s">
-        <v>506</v>
-      </c>
-      <c r="I167" t="s">
-        <v>526</v>
-      </c>
-      <c r="J167" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K167" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s">
-        <v>176</v>
-      </c>
-      <c r="B168" t="s">
-        <v>272</v>
-      </c>
-      <c r="C168" t="s">
-        <v>341</v>
-      </c>
-      <c r="D168" t="n">
-        <v>2018.0</v>
-      </c>
-      <c r="E168" t="s">
-        <v>479</v>
-      </c>
-      <c r="F168" t="s">
-        <v>503</v>
-      </c>
-      <c r="G168" t="s">
-        <v>504</v>
-      </c>
-      <c r="H168" t="s">
-        <v>506</v>
-      </c>
-      <c r="I168" t="s">
-        <v>576</v>
-      </c>
-      <c r="J168" t="s">
-        <v>587</v>
-      </c>
-      <c r="K168" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s">
-        <v>177</v>
-      </c>
-      <c r="B169" t="s">
-        <v>272</v>
-      </c>
-      <c r="C169" t="s">
-        <v>341</v>
-      </c>
-      <c r="D169" t="n">
-        <v>2016.0</v>
-      </c>
-      <c r="E169" t="s">
-        <v>480</v>
-      </c>
-      <c r="F169" t="s">
-        <v>503</v>
-      </c>
-      <c r="G169" t="s">
-        <v>504</v>
-      </c>
-      <c r="H169" t="s">
-        <v>506</v>
-      </c>
-      <c r="I169" t="s">
-        <v>576</v>
-      </c>
-      <c r="J169" t="s">
-        <v>590</v>
-      </c>
-      <c r="K169" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s">
-        <v>178</v>
-      </c>
-      <c r="B170" t="s">
-        <v>272</v>
-      </c>
-      <c r="C170" t="s">
-        <v>341</v>
-      </c>
-      <c r="D170" t="n">
-        <v>2015.0</v>
-      </c>
-      <c r="E170" t="s">
-        <v>481</v>
-      </c>
-      <c r="F170" t="s">
-        <v>503</v>
-      </c>
-      <c r="G170" t="s">
-        <v>504</v>
-      </c>
-      <c r="H170" t="s">
-        <v>506</v>
-      </c>
-      <c r="I170" t="s">
-        <v>576</v>
-      </c>
-      <c r="J170" t="s">
-        <v>587</v>
-      </c>
-      <c r="K170" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s">
-        <v>179</v>
-      </c>
-      <c r="B171" t="s">
-        <v>272</v>
-      </c>
-      <c r="C171" t="s">
-        <v>341</v>
-      </c>
-      <c r="D171" t="n">
-        <v>2015.0</v>
-      </c>
-      <c r="E171" t="s">
-        <v>400</v>
-      </c>
-      <c r="F171" t="s">
-        <v>503</v>
-      </c>
-      <c r="G171" t="s">
-        <v>504</v>
-      </c>
-      <c r="H171" t="s">
-        <v>506</v>
-      </c>
-      <c r="I171" t="s">
-        <v>511</v>
-      </c>
-      <c r="J171" t="s">
-        <v>585</v>
-      </c>
-      <c r="K171" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s">
-        <v>180</v>
-      </c>
-      <c r="B172" t="s">
-        <v>272</v>
-      </c>
-      <c r="C172" t="s">
-        <v>341</v>
-      </c>
-      <c r="D172" t="n">
-        <v>2015.0</v>
-      </c>
-      <c r="E172" t="s">
-        <v>482</v>
-      </c>
-      <c r="F172" t="s">
-        <v>503</v>
-      </c>
-      <c r="G172" t="s">
-        <v>504</v>
-      </c>
-      <c r="H172" t="s">
-        <v>506</v>
-      </c>
-      <c r="I172" t="s">
-        <v>577</v>
-      </c>
-      <c r="J172" t="s">
-        <v>591</v>
-      </c>
-      <c r="K172" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s">
-        <v>181</v>
-      </c>
-      <c r="B173" t="s">
-        <v>272</v>
-      </c>
-      <c r="C173" t="s">
-        <v>341</v>
-      </c>
-      <c r="D173" t="n">
-        <v>2013.0</v>
-      </c>
-      <c r="E173" t="s">
-        <v>483</v>
-      </c>
-      <c r="F173" t="s">
-        <v>503</v>
-      </c>
-      <c r="G173" t="s">
-        <v>504</v>
-      </c>
-      <c r="H173" t="s">
-        <v>506</v>
-      </c>
-      <c r="I173" t="s">
-        <v>576</v>
-      </c>
-      <c r="J173" t="s">
-        <v>587</v>
-      </c>
-      <c r="K173" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s">
-        <v>182</v>
-      </c>
-      <c r="B174" t="s">
-        <v>273</v>
-      </c>
-      <c r="C174" t="s">
-        <v>342</v>
-      </c>
-      <c r="D174" t="n">
-        <v>2019.0</v>
-      </c>
-      <c r="E174" t="s">
-        <v>354</v>
-      </c>
-      <c r="F174" t="s">
-        <v>503</v>
-      </c>
-      <c r="G174" t="s">
-        <v>504</v>
-      </c>
-      <c r="H174" t="s">
-        <v>506</v>
-      </c>
-      <c r="I174" t="s">
-        <v>511</v>
-      </c>
-      <c r="J174" t="s">
-        <v>585</v>
-      </c>
-      <c r="K174" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s">
-        <v>183</v>
-      </c>
-      <c r="B175" t="s">
-        <v>274</v>
-      </c>
-      <c r="C175" t="s">
-        <v>343</v>
-      </c>
-      <c r="D175" t="n">
-        <v>2022.0</v>
-      </c>
-      <c r="E175" t="s">
-        <v>353</v>
-      </c>
-      <c r="F175" t="s">
-        <v>503</v>
-      </c>
-      <c r="G175" t="s">
-        <v>504</v>
-      </c>
-      <c r="H175" t="s">
-        <v>506</v>
-      </c>
-      <c r="I175" t="s">
-        <v>511</v>
-      </c>
-      <c r="J175" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K175" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s">
-        <v>184</v>
-      </c>
-      <c r="B176" t="s">
-        <v>274</v>
-      </c>
-      <c r="C176" t="s">
-        <v>343</v>
-      </c>
-      <c r="D176" t="n">
-        <v>2019.0</v>
-      </c>
-      <c r="E176" t="s">
-        <v>428</v>
-      </c>
-      <c r="F176" t="s">
-        <v>503</v>
-      </c>
-      <c r="G176" t="s">
-        <v>504</v>
-      </c>
-      <c r="H176" t="s">
-        <v>506</v>
-      </c>
-      <c r="I176" t="s">
-        <v>511</v>
-      </c>
-      <c r="J176" t="s">
-        <v>585</v>
-      </c>
-      <c r="K176" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s">
-        <v>185</v>
-      </c>
-      <c r="B177" t="s">
-        <v>275</v>
-      </c>
-      <c r="C177" t="s">
-        <v>344</v>
-      </c>
-      <c r="D177" t="n">
-        <v>2019.0</v>
-      </c>
-      <c r="E177" t="s">
-        <v>354</v>
-      </c>
-      <c r="F177" t="s">
-        <v>503</v>
-      </c>
-      <c r="G177" t="s">
-        <v>504</v>
-      </c>
-      <c r="H177" t="s">
-        <v>506</v>
-      </c>
-      <c r="I177" t="s">
-        <v>511</v>
-      </c>
-      <c r="J177" t="s">
-        <v>585</v>
-      </c>
-      <c r="K177" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s">
-        <v>186</v>
-      </c>
-      <c r="B178" t="s">
-        <v>276</v>
-      </c>
-      <c r="C178" t="s">
-        <v>345</v>
-      </c>
-      <c r="D178" t="n">
-        <v>2018.0</v>
-      </c>
-      <c r="E178" t="s">
-        <v>474</v>
-      </c>
-      <c r="F178" t="s">
-        <v>503</v>
-      </c>
-      <c r="G178" t="s">
-        <v>504</v>
-      </c>
-      <c r="H178" t="s">
-        <v>506</v>
-      </c>
-      <c r="I178" t="s">
-        <v>511</v>
-      </c>
-      <c r="J178" t="s">
-        <v>585</v>
-      </c>
-      <c r="K178" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s">
-        <v>187</v>
-      </c>
-      <c r="B179" t="s">
-        <v>277</v>
-      </c>
-      <c r="C179" t="s">
-        <v>346</v>
-      </c>
-      <c r="D179" t="n">
-        <v>2020.0</v>
-      </c>
-      <c r="E179" t="s">
-        <v>484</v>
-      </c>
-      <c r="F179" t="s">
-        <v>503</v>
-      </c>
-      <c r="G179" t="s">
-        <v>504</v>
-      </c>
-      <c r="H179" t="s">
-        <v>506</v>
-      </c>
-      <c r="I179" t="s">
-        <v>578</v>
-      </c>
-      <c r="J179" t="s">
-        <v>587</v>
-      </c>
-      <c r="K179" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="s">
-        <v>188</v>
-      </c>
-      <c r="B180" t="s">
-        <v>277</v>
-      </c>
-      <c r="C180" t="s">
-        <v>346</v>
-      </c>
-      <c r="D180" t="n">
-        <v>2020.0</v>
-      </c>
-      <c r="E180" t="s">
-        <v>485</v>
-      </c>
-      <c r="F180" t="s">
-        <v>503</v>
-      </c>
-      <c r="G180" t="s">
-        <v>504</v>
-      </c>
-      <c r="H180" t="s">
-        <v>506</v>
-      </c>
-      <c r="I180" t="s">
-        <v>579</v>
-      </c>
-      <c r="J180" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K180" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="s">
-        <v>189</v>
-      </c>
-      <c r="B181" t="s">
-        <v>277</v>
-      </c>
-      <c r="C181" t="s">
-        <v>346</v>
-      </c>
-      <c r="D181" t="n">
-        <v>2019.0</v>
-      </c>
-      <c r="E181" t="s">
-        <v>486</v>
-      </c>
-      <c r="F181" t="s">
-        <v>503</v>
-      </c>
-      <c r="G181" t="s">
-        <v>504</v>
-      </c>
-      <c r="H181" t="s">
-        <v>506</v>
-      </c>
-      <c r="I181" t="s">
-        <v>578</v>
-      </c>
-      <c r="J181" t="s">
-        <v>593</v>
-      </c>
-      <c r="K181" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="s">
-        <v>190</v>
-      </c>
-      <c r="B182" t="s">
-        <v>277</v>
-      </c>
-      <c r="C182" t="s">
-        <v>346</v>
-      </c>
-      <c r="D182" t="n">
-        <v>2019.0</v>
-      </c>
-      <c r="E182" t="s">
-        <v>487</v>
-      </c>
-      <c r="F182" t="s">
-        <v>503</v>
-      </c>
-      <c r="G182" t="s">
-        <v>504</v>
-      </c>
-      <c r="H182" t="s">
-        <v>506</v>
-      </c>
-      <c r="I182" t="s">
-        <v>580</v>
-      </c>
-      <c r="J182" t="s">
-        <v>590</v>
-      </c>
-      <c r="K182" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s">
-        <v>191</v>
-      </c>
-      <c r="B183" t="s">
-        <v>277</v>
-      </c>
-      <c r="C183" t="s">
-        <v>346</v>
-      </c>
-      <c r="D183" t="n">
-        <v>2016.0</v>
-      </c>
-      <c r="E183" t="s">
-        <v>488</v>
-      </c>
-      <c r="F183" t="s">
-        <v>503</v>
-      </c>
-      <c r="G183" t="s">
-        <v>504</v>
-      </c>
-      <c r="H183" t="s">
-        <v>506</v>
-      </c>
-      <c r="I183" t="s">
-        <v>581</v>
-      </c>
-      <c r="J183" t="s">
-        <v>594</v>
-      </c>
-      <c r="K183" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s">
-        <v>192</v>
-      </c>
-      <c r="B184" t="s">
-        <v>277</v>
-      </c>
-      <c r="C184" t="s">
-        <v>346</v>
-      </c>
-      <c r="D184" t="n">
-        <v>2016.0</v>
-      </c>
-      <c r="E184" t="s">
-        <v>489</v>
-      </c>
-      <c r="F184" t="s">
-        <v>503</v>
-      </c>
-      <c r="G184" t="s">
-        <v>504</v>
-      </c>
-      <c r="H184" t="s">
-        <v>506</v>
-      </c>
-      <c r="I184" t="s">
-        <v>579</v>
-      </c>
-      <c r="J184" t="s">
-        <v>590</v>
-      </c>
-      <c r="K184" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="s">
-        <v>193</v>
-      </c>
-      <c r="B185" t="s">
-        <v>277</v>
-      </c>
-      <c r="C185" t="s">
-        <v>346</v>
-      </c>
-      <c r="D185" t="n">
-        <v>2015.0</v>
-      </c>
-      <c r="E185" t="s">
-        <v>418</v>
-      </c>
-      <c r="F185" t="s">
-        <v>503</v>
-      </c>
-      <c r="G185" t="s">
-        <v>504</v>
-      </c>
-      <c r="H185" t="s">
-        <v>506</v>
-      </c>
-      <c r="I185" t="s">
-        <v>518</v>
-      </c>
-      <c r="J185" t="s">
-        <v>587</v>
-      </c>
-      <c r="K185" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="s">
-        <v>194</v>
-      </c>
-      <c r="B186" t="s">
-        <v>277</v>
-      </c>
-      <c r="C186" t="s">
-        <v>346</v>
-      </c>
-      <c r="D186" t="n">
-        <v>2013.0</v>
-      </c>
-      <c r="E186" t="s">
-        <v>490</v>
-      </c>
-      <c r="F186" t="s">
-        <v>503</v>
-      </c>
-      <c r="G186" t="s">
-        <v>504</v>
-      </c>
-      <c r="H186" t="s">
-        <v>506</v>
-      </c>
-      <c r="I186" t="s">
-        <v>582</v>
-      </c>
-      <c r="J186" t="s">
-        <v>587</v>
-      </c>
-      <c r="K186" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s">
-        <v>195</v>
-      </c>
-      <c r="B187" t="s">
-        <v>277</v>
-      </c>
-      <c r="C187" t="s">
-        <v>346</v>
-      </c>
-      <c r="D187" t="n">
-        <v>2014.0</v>
-      </c>
-      <c r="E187" t="s">
-        <v>491</v>
-      </c>
-      <c r="F187" t="s">
-        <v>503</v>
-      </c>
-      <c r="G187" t="s">
-        <v>504</v>
-      </c>
-      <c r="H187" t="s">
-        <v>506</v>
-      </c>
-      <c r="I187" t="s">
-        <v>579</v>
-      </c>
-      <c r="J187" t="s">
-        <v>590</v>
-      </c>
-      <c r="K187" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s">
-        <v>196</v>
-      </c>
-      <c r="B188" t="s">
-        <v>278</v>
-      </c>
-      <c r="C188" t="s">
-        <v>347</v>
-      </c>
-      <c r="D188" t="n">
-        <v>2019.0</v>
-      </c>
-      <c r="E188" t="s">
-        <v>354</v>
-      </c>
-      <c r="F188" t="s">
-        <v>503</v>
-      </c>
-      <c r="G188" t="s">
-        <v>504</v>
-      </c>
-      <c r="H188" t="s">
-        <v>506</v>
-      </c>
-      <c r="I188" t="s">
-        <v>511</v>
-      </c>
-      <c r="J188" t="s">
-        <v>585</v>
-      </c>
-      <c r="K188" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s">
-        <v>197</v>
-      </c>
-      <c r="B189" t="s">
-        <v>279</v>
-      </c>
-      <c r="C189" t="s">
-        <v>348</v>
-      </c>
-      <c r="D189" t="n">
-        <v>2017.0</v>
-      </c>
-      <c r="E189" t="s">
-        <v>492</v>
-      </c>
-      <c r="F189" t="s">
-        <v>503</v>
-      </c>
-      <c r="G189" t="s">
-        <v>504</v>
-      </c>
-      <c r="H189" t="s">
-        <v>506</v>
-      </c>
-      <c r="I189" t="s">
-        <v>511</v>
-      </c>
-      <c r="J189" t="s">
-        <v>585</v>
-      </c>
-      <c r="K189" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s">
-        <v>198</v>
-      </c>
-      <c r="B190" t="s">
-        <v>280</v>
-      </c>
-      <c r="C190" t="s">
-        <v>349</v>
-      </c>
-      <c r="D190" t="n">
-        <v>2022.0</v>
-      </c>
-      <c r="E190" t="s">
-        <v>353</v>
-      </c>
-      <c r="F190" t="s">
-        <v>503</v>
-      </c>
-      <c r="G190" t="s">
-        <v>504</v>
-      </c>
-      <c r="H190" t="s">
-        <v>506</v>
-      </c>
-      <c r="I190" t="s">
-        <v>511</v>
-      </c>
-      <c r="J190" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K190" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="s">
-        <v>199</v>
-      </c>
-      <c r="B191" t="s">
-        <v>280</v>
-      </c>
-      <c r="C191" t="s">
-        <v>349</v>
-      </c>
-      <c r="D191" t="n">
-        <v>2016.0</v>
-      </c>
-      <c r="E191" t="s">
-        <v>493</v>
-      </c>
-      <c r="F191" t="s">
-        <v>503</v>
-      </c>
-      <c r="G191" t="s">
-        <v>504</v>
-      </c>
-      <c r="H191" t="s">
-        <v>506</v>
-      </c>
-      <c r="I191" t="s">
-        <v>583</v>
-      </c>
-      <c r="J191" t="s">
-        <v>585</v>
-      </c>
-      <c r="K191" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s">
-        <v>200</v>
-      </c>
-      <c r="B192" t="s">
-        <v>280</v>
-      </c>
-      <c r="C192" t="s">
-        <v>349</v>
-      </c>
-      <c r="D192" t="n">
-        <v>2016.0</v>
-      </c>
-      <c r="E192" t="s">
-        <v>494</v>
-      </c>
-      <c r="F192" t="s">
-        <v>503</v>
-      </c>
-      <c r="G192" t="s">
-        <v>504</v>
-      </c>
-      <c r="H192" t="s">
-        <v>506</v>
-      </c>
-      <c r="I192" t="s">
-        <v>584</v>
-      </c>
-      <c r="J192" t="s">
-        <v>590</v>
-      </c>
-      <c r="K192" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="s">
-        <v>201</v>
-      </c>
-      <c r="B193" t="s">
-        <v>280</v>
-      </c>
-      <c r="C193" t="s">
-        <v>349</v>
-      </c>
-      <c r="D193" t="n">
-        <v>2016.0</v>
-      </c>
-      <c r="E193" t="s">
-        <v>365</v>
-      </c>
-      <c r="F193" t="s">
-        <v>503</v>
-      </c>
-      <c r="G193" t="s">
-        <v>504</v>
-      </c>
-      <c r="H193" t="s">
-        <v>506</v>
-      </c>
-      <c r="I193" t="s">
-        <v>518</v>
-      </c>
-      <c r="J193" t="s">
-        <v>587</v>
-      </c>
-      <c r="K193" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="s">
-        <v>202</v>
-      </c>
-      <c r="B194" t="s">
-        <v>280</v>
-      </c>
-      <c r="C194" t="s">
-        <v>349</v>
-      </c>
-      <c r="D194" t="n">
-        <v>2019.0</v>
-      </c>
-      <c r="E194" t="s">
-        <v>495</v>
-      </c>
-      <c r="F194" t="s">
-        <v>503</v>
-      </c>
-      <c r="G194" t="s">
-        <v>504</v>
-      </c>
-      <c r="H194" t="s">
-        <v>506</v>
-      </c>
-      <c r="I194" t="s">
-        <v>511</v>
-      </c>
-      <c r="J194" t="s">
-        <v>585</v>
-      </c>
-      <c r="K194" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="s">
-        <v>203</v>
-      </c>
-      <c r="B195" t="s">
-        <v>280</v>
-      </c>
-      <c r="C195" t="s">
-        <v>349</v>
-      </c>
-      <c r="D195" t="n">
-        <v>2015.0</v>
-      </c>
-      <c r="E195" t="s">
-        <v>419</v>
-      </c>
-      <c r="F195" t="s">
-        <v>503</v>
-      </c>
-      <c r="G195" t="s">
-        <v>504</v>
-      </c>
-      <c r="H195" t="s">
-        <v>506</v>
-      </c>
-      <c r="I195" t="s">
-        <v>553</v>
-      </c>
-      <c r="J195" t="s">
-        <v>587</v>
-      </c>
-      <c r="K195" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="s">
-        <v>204</v>
-      </c>
-      <c r="B196" t="s">
-        <v>280</v>
-      </c>
-      <c r="C196" t="s">
-        <v>349</v>
-      </c>
-      <c r="D196" t="n">
-        <v>2016.0</v>
-      </c>
-      <c r="E196" t="s">
-        <v>496</v>
-      </c>
-      <c r="F196" t="s">
-        <v>503</v>
-      </c>
-      <c r="G196" t="s">
-        <v>504</v>
-      </c>
-      <c r="H196" t="s">
-        <v>506</v>
-      </c>
-      <c r="I196" t="s">
-        <v>560</v>
-      </c>
-      <c r="J196" t="s">
-        <v>590</v>
-      </c>
-      <c r="K196" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="s">
-        <v>205</v>
-      </c>
-      <c r="B197" t="s">
-        <v>280</v>
-      </c>
-      <c r="C197" t="s">
-        <v>349</v>
-      </c>
-      <c r="D197" t="n">
-        <v>2013.0</v>
-      </c>
-      <c r="E197" t="s">
-        <v>497</v>
-      </c>
-      <c r="F197" t="s">
-        <v>503</v>
-      </c>
-      <c r="G197" t="s">
-        <v>504</v>
-      </c>
-      <c r="H197" t="s">
-        <v>506</v>
-      </c>
-      <c r="I197" t="s">
-        <v>560</v>
-      </c>
-      <c r="J197" t="s">
-        <v>587</v>
-      </c>
-      <c r="K197" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="s">
-        <v>206</v>
-      </c>
-      <c r="B198" t="s">
-        <v>280</v>
-      </c>
-      <c r="C198" t="s">
-        <v>349</v>
-      </c>
-      <c r="D198" t="n">
-        <v>2015.0</v>
-      </c>
-      <c r="E198" t="s">
-        <v>498</v>
-      </c>
-      <c r="F198" t="s">
-        <v>503</v>
-      </c>
-      <c r="G198" t="s">
-        <v>504</v>
-      </c>
-      <c r="H198" t="s">
-        <v>506</v>
-      </c>
-      <c r="I198" t="s">
-        <v>560</v>
-      </c>
-      <c r="J198" t="s">
-        <v>590</v>
-      </c>
-      <c r="K198" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="s">
-        <v>207</v>
-      </c>
-      <c r="B199" t="s">
-        <v>281</v>
-      </c>
-      <c r="C199" t="s">
-        <v>350</v>
-      </c>
-      <c r="D199" t="n">
-        <v>2019.0</v>
-      </c>
-      <c r="E199" t="s">
-        <v>354</v>
-      </c>
-      <c r="F199" t="s">
-        <v>503</v>
-      </c>
-      <c r="G199" t="s">
-        <v>504</v>
-      </c>
-      <c r="H199" t="s">
-        <v>506</v>
-      </c>
-      <c r="I199" t="s">
-        <v>511</v>
-      </c>
-      <c r="J199" t="s">
-        <v>585</v>
-      </c>
-      <c r="K199" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="s">
-        <v>208</v>
-      </c>
-      <c r="B200" t="s">
-        <v>282</v>
-      </c>
-      <c r="C200" t="s">
-        <v>351</v>
-      </c>
-      <c r="D200" t="n">
-        <v>2019.0</v>
-      </c>
-      <c r="E200" t="s">
-        <v>354</v>
-      </c>
-      <c r="F200" t="s">
-        <v>503</v>
-      </c>
-      <c r="G200" t="s">
-        <v>504</v>
-      </c>
-      <c r="H200" t="s">
-        <v>506</v>
-      </c>
-      <c r="I200" t="s">
-        <v>511</v>
-      </c>
-      <c r="J200" t="s">
-        <v>585</v>
-      </c>
-      <c r="K200" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="s">
-        <v>209</v>
-      </c>
-      <c r="B201" t="s">
-        <v>283</v>
-      </c>
-      <c r="C201" t="s">
-        <v>352</v>
-      </c>
-      <c r="D201" t="n">
-        <v>2019.0</v>
-      </c>
-      <c r="E201" t="s">
-        <v>499</v>
-      </c>
-      <c r="F201" t="s">
-        <v>503</v>
-      </c>
-      <c r="G201" t="s">
-        <v>504</v>
-      </c>
-      <c r="H201" t="s">
-        <v>506</v>
-      </c>
-      <c r="I201" t="s">
-        <v>511</v>
-      </c>
-      <c r="J201" t="s">
-        <v>585</v>
-      </c>
-      <c r="K201" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="s">
-        <v>210</v>
-      </c>
-      <c r="B202" t="s">
-        <v>226</v>
-      </c>
-      <c r="C202" t="s">
-        <v>296</v>
-      </c>
-      <c r="D202" t="n">
-        <v>2019.0</v>
-      </c>
-      <c r="E202" t="s">
-        <v>500</v>
-      </c>
-      <c r="F202" t="s">
-        <v>503</v>
-      </c>
-      <c r="G202" t="s">
-        <v>505</v>
-      </c>
-      <c r="H202" t="s">
-        <v>507</v>
-      </c>
-      <c r="I202" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J202" t="s">
-        <v>593</v>
-      </c>
-      <c r="K202" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="s">
-        <v>211</v>
-      </c>
-      <c r="B203" t="s">
-        <v>258</v>
-      </c>
-      <c r="C203" t="s">
-        <v>328</v>
-      </c>
-      <c r="D203" t="n">
-        <v>2020.0</v>
-      </c>
-      <c r="E203" t="s">
-        <v>501</v>
-      </c>
-      <c r="F203" t="s">
-        <v>503</v>
-      </c>
-      <c r="G203" t="s">
-        <v>505</v>
-      </c>
-      <c r="H203" t="s">
-        <v>508</v>
-      </c>
-      <c r="I203" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J203" t="s">
-        <v>593</v>
-      </c>
-      <c r="K203" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="s">
-        <v>212</v>
-      </c>
-      <c r="B204" t="s">
-        <v>270</v>
-      </c>
-      <c r="C204" t="s">
-        <v>339</v>
-      </c>
-      <c r="D204" t="n">
-        <v>2020.0</v>
-      </c>
-      <c r="E204" t="s">
-        <v>470</v>
-      </c>
-      <c r="F204" t="s">
-        <v>503</v>
-      </c>
-      <c r="G204" t="s">
-        <v>505</v>
-      </c>
-      <c r="H204" t="s">
-        <v>509</v>
-      </c>
-      <c r="I204" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J204" t="s">
-        <v>593</v>
-      </c>
-      <c r="K204" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="s">
-        <v>213</v>
-      </c>
-      <c r="B205" t="s">
-        <v>277</v>
-      </c>
-      <c r="C205" t="s">
-        <v>346</v>
-      </c>
-      <c r="D205" t="n">
-        <v>2020.0</v>
-      </c>
-      <c r="E205" t="s">
-        <v>502</v>
-      </c>
-      <c r="F205" t="s">
-        <v>503</v>
-      </c>
-      <c r="G205" t="s">
-        <v>505</v>
-      </c>
-      <c r="H205" t="s">
-        <v>510</v>
-      </c>
-      <c r="I205" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J205" t="s">
-        <v>590</v>
-      </c>
-      <c r="K205" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>

--- a/Output/agri_survey.xlsx
+++ b/Output/agri_survey.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="564">
   <si>
     <t>country</t>
   </si>
@@ -41,6 +41,15 @@
     <t>study_type</t>
   </si>
   <si>
+    <t>analysis_unit</t>
+  </si>
+  <si>
+    <t>data_kind</t>
+  </si>
+  <si>
+    <t>universe</t>
+  </si>
+  <si>
     <t>household_flag</t>
   </si>
   <si>
@@ -491,12 +500,6 @@
     <t>149</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
     <t>Argentina</t>
   </si>
   <si>
@@ -509,9 +512,6 @@
     <t>Cambodia</t>
   </si>
   <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
     <t>Chad</t>
   </si>
   <si>
@@ -626,9 +626,6 @@
     <t>KHM</t>
   </si>
   <si>
-    <t>CMR</t>
-  </si>
-  <si>
     <t>TCD</t>
   </si>
   <si>
@@ -749,9 +746,6 @@
     <t>Integrated Living Conditions Survey 2013</t>
   </si>
   <si>
-    <t>Multi Sector Needs Assessment: Cox’s Bazar, Rohingya Refugee Response – June 2019</t>
-  </si>
-  <si>
     <t>Poverty and Groundwater Salinity Survey, 2016</t>
   </si>
   <si>
@@ -770,9 +764,6 @@
     <t>Cambodia Socio-Economic Survey 2013</t>
   </si>
   <si>
-    <t>General Livestock and Aquaculture Census, 2013</t>
-  </si>
-  <si>
     <t>High Frequency Phone Survey 2020-2021</t>
   </si>
   <si>
@@ -1175,9 +1166,6 @@
     <t>National Statistical Service</t>
   </si>
   <si>
-    <t>UN High Commissioner for Refugees, IOM Needs and Population Monitoring, ACAPS, Vulnerability Analysis and Mapping, Registration, Evaluation, Authorisation and Restriction of Chemicals</t>
-  </si>
-  <si>
     <t>Monica Yanez-Pagans</t>
   </si>
   <si>
@@ -1382,6 +1370,9 @@
     <t>Tanzania National Bureau of Statistics</t>
   </si>
   <si>
+    <t>Agricultural Survey [ag/oth]</t>
+  </si>
+  <si>
     <t>Integrated Survey (non-LSMS) [hh/is]</t>
   </si>
   <si>
@@ -1397,19 +1388,382 @@
     <t>Living Standards Measurement Study [hh/lsms]</t>
   </si>
   <si>
-    <t>Agricultural Survey [ag/oth]</t>
+    <t>Agricultural Integrated Survey (AGRISurvey)</t>
   </si>
   <si>
     <t>Income/Expenditure/Household Survey [hh/ies]</t>
   </si>
   <si>
+    <t>Agriculture Integrated Survey[AGRISurvey]</t>
+  </si>
+  <si>
+    <t>Agricultural survey [ag/oth]</t>
+  </si>
+  <si>
+    <t>Households</t>
+  </si>
+  <si>
+    <t>Household agricultural holdings and juridical agricultural holdings.
+NOTE: the juridical agricultural holdings are not included in the released microdata</t>
+  </si>
+  <si>
+    <t>Household agricultural holdings and juridical agricultural holdings
+NOTE: the juridical agricultural holdings are not included in the released microdata</t>
+  </si>
+  <si>
+    <t>Households, Individual, Community</t>
+  </si>
+  <si>
+    <t>Households, Individual</t>
+  </si>
+  <si>
+    <t>Households, Individuals</t>
+  </si>
+  <si>
+    <t>Agricultural holdings</t>
+  </si>
+  <si>
+    <t>Agricultural holdings in the household sector</t>
+  </si>
+  <si>
+    <t>Household and Individuals</t>
+  </si>
+  <si>
+    <t>Entreprises</t>
+  </si>
+  <si>
+    <t>Households, Individuals, Agricultural plots, Communites</t>
+  </si>
+  <si>
+    <t>Commodities</t>
+  </si>
+  <si>
+    <t>Individuals and Households</t>
+  </si>
+  <si>
+    <t>Households, individuals</t>
+  </si>
+  <si>
+    <t>households, individuals</t>
+  </si>
+  <si>
+    <t>Households, Individual, Parcel, Plot, Community</t>
+  </si>
+  <si>
+    <t>Households, Individuals, Plots of land, Communities</t>
+  </si>
+  <si>
     <t>Sample survey data [ssd]</t>
   </si>
   <si>
-    <t>Agriculture Integrated Survey[AGRISurvey]</t>
-  </si>
-  <si>
-    <t>Agricultural survey [ag/oth]</t>
+    <t>Event/transaction data [evn]</t>
+  </si>
+  <si>
+    <t>Aggregate data [agg]</t>
+  </si>
+  <si>
+    <t>Pastoralist Households</t>
+  </si>
+  <si>
+    <t>The universe for the survey consists of smallholder households defined as households with the following criteria:
+1) Household with up to 5 hectares OR farmers who have less than 50 heads of cattle, 100 goats/sheep/pigs, or 1,000 chickens
+2) Agriculture provides a meaningful contribution to the household livelihood, income, or consumption.</t>
+  </si>
+  <si>
+    <t>Agricultural households, i.e. holdings in the household sector that are involved in agricultural activities, including the growing of crops, raising of livestock or poultry, and aquaculture or capture fishing activities. It was not considered a minimum threshold to determine a household's engagement in the above mentioned activities.</t>
+  </si>
+  <si>
+    <t>The survey covered only households of the 2018/19 Enquête sur la Consommation des Ménages et le Secteur Informel au Tchad (ECOSIT 4) which excluded populations in prisons, hospitals, military barracks, and school dormitories.</t>
+  </si>
+  <si>
+    <t>The survey covered all de jure households excluding prisons, hospitals, military barracks, and school dormitories.</t>
+  </si>
+  <si>
+    <t>The survey covers national households that reported telephone numbers, are included in the social registry data collected by the Ministry of Social Affairs and Solidarity (MASS) and have been interviewed after 2017.</t>
+  </si>
+  <si>
+    <t>The survey covers households that reported telephone numbers, are included in the social registry data collected by the Ministry of Social Affairs and Solidarity (MASS) and have been interviewed after 2017. Refugees are excluded from this first round.</t>
+  </si>
+  <si>
+    <t>For the refugee sample, the survey covers households from the sample of the Refugee Survey collected in 2019 by INSD jointly with MASS, World Food Program (WFP) and United Nations High Commissioner for Refugees (UNHCR) through face-to-face interviews. The resultant refugee sample of the COVID-19 Phone Survey only includes households who had a phone number, and have responded to the survey.</t>
+  </si>
+  <si>
+    <t>ESS uses a nationally representative sample of over 5,000 households living in rural and urban areas. The urban areas include both small and large towns.</t>
+  </si>
+  <si>
+    <t>All households, agricultural or not, in the 4 surveyed districts.</t>
+  </si>
+  <si>
+    <t>Households located in Jharkhand, Rajasthan, Uttar Pradesh, Andhra Pradesh, Bihar, and Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>The universe of the survey include all household members.</t>
+  </si>
+  <si>
+    <t>Agricultural Households</t>
+  </si>
+  <si>
+    <t>(a) At the household level, the study population consists of all the households in the four HSNP counties (i.e. Mandera, Marsabit, Turkana and Wajir). Within a household, the survey covered all de jure household members (usual residents). 
+(b) At the market level, the survey covered a random sample of businesses in the three main commercial hubs of each county. The following categories of businesses were excluded from the listing:
+- Temporary stalls or mobile sellers located outside permanent kiosks
+- Banks
+- Education institutions (schools, universities etc.)
+- Health facilities
+(c) The livestock trader survey was conducted in the three main livestock markets of each county. To the extent possible, livestock traders have been sampled in order to achieve a balance between those trading large animals, those trading small or medium value animals, those trading only within the HSNP counties and those who also trade outside the HSNP counties.</t>
+  </si>
+  <si>
+    <t>The survey covered all persons resident in private households.</t>
+  </si>
+  <si>
+    <t>Members of the following households are not eligible for inclusion in the survey:
+• All residents of dwellings other than private dwellings, such as prisons, hospitals and army barracks.
+• Members of the Malawian armed forces who reside within a military base. (If such individuals reside in private dwellings off the base, however, they should be included among the households eligible for random selection for the survey.)
+• Non-Malawian diplomats, diplomatic staff, and members of their households. (However, note that non-Malawian residents who are not diplomats or diplomatic staff and are resident in private dwellings are eligible for inclusion in the survey. The survey is not restricted to Malawian citizens alone.)
+• Non-Malawian tourists and others on vacation in Malawi.</t>
+  </si>
+  <si>
+    <t>Members of the following households are not eligible for inclusion in the survey:
+• All people who live outside the selected EAs, whether in urban or rural areas.
+• All residents of dwellings other than private dwellings, such as prisons, hospitals and army barracks.
+• Members of the Malawian armed forces who reside within a military base. (If such individuals reside in private dwellings off the base, however, they should be included among the households eligible for random selection for the survey.)
+• Non-Malawian diplomats, diplomatic staff, and members of their households. (However, note that non-Malawian residents who are not diplomats or diplomatic staff and are resident in private dwellings are eligible for inclusion in the survey. The survey is not restricted to Malawian citizens alone.)
+• Non-Malawian tourists and others on vacation in Malawi.</t>
+  </si>
+  <si>
+    <t>Members of the following households are not eligible for inclusion in the survey: 
+• All people who live outside the selected EAs, whether in urban or rural areas. 
+• All residents of dwellings other than private dwellings, such as prisons, hospitals and army barracks. 
+• Members of the Malawian armed forces who reside within a military base. (If such individuals reside in private dwellings off the base, however, they should be included among the households eligible for random selection for the survey.) 
+• Non-Malawian diplomats, diplomatic staff, and members of their households. (However, note that non-Malawian residents who are not diplomats or diplomatic staff and are resident in private dwellings are eligible for inclusion in the survey. The survey is not restricted to Malawian citizens alone.) 
+• Non-Malawian tourists and others on vacation in Malawi.</t>
+  </si>
+  <si>
+    <t>The IHPS attempted to track all baseline households (from the IHS3) as well as individuals that moved away from the baseline dwellings between 2010 and 2013 as long as they were neither servants nor guests at the time of the IHS3; were projected to be at least 12 years of age and were known to be residing in mainland Malawi but excluding those in Likoma Island and in institutions, including prisons, police compounds, and army barracks.</t>
+  </si>
+  <si>
+    <t>The IHPS 2016 attempted to track all IHPS 2013 households stemming from 102 of the original 204 baseline panel enumeration areas as well as individuals that moved away from the 2013 dwellings between 2013 and 2016 as long as they were neither servants nor guests at the time of the IHPS 2013; were projected to be at least 12 years of age and were known to be residing in mainland Malawi but excluding those in Likoma Island and in institutions, including prisons, police compounds, and army barracks.</t>
+  </si>
+  <si>
+    <t>The IHPS 2016 and 2019 attempted to track all IHPS 2013 households stemming from 102 of the original 204 baseline panel enumeration areas as well as individuals that moved away from the 2013 dwellings between 2013 and 2016 as long as they were neither servants nor guests at the time of the IHPS 2013; were projected to be at least 12 years of age and were known to be residing in mainland Malawi but excluding those in Likoma Island and in institutions, including prisons, police compounds, and army barracks.</t>
+  </si>
+  <si>
+    <t>The survey covered only households of the 2018/19 survey which excluded populations in prisons, hospitals, military barracks, and school dormitories.</t>
+  </si>
+  <si>
+    <t>The universe for the ENA 2017 was made up of 101,828 production units, coming from the Census Agricultural Frame Update (AMCA 2016). This universe was defined from the 34 products of national interest selected for the survey, 29 of which are annual and perennial crops and the rest corresponds to livestock species and products of economic importance for the country.
+The crops that were the subject of the survey were: white grain corn, yellow grain corn, sugar cane, wheat grain, avocado, sorghum grain, beans, chili, alfalfa, tomato, melon, watermelon, coffee, orange, grape, banana, lemon, mango, onion, squash, cotton, apple, cocoa, rice, barley, soy, forage corn, forage sorghum and strawberry; while the species and livestock products were made up of: cattle, pigs, poultry, milk and eggs.</t>
+  </si>
+  <si>
+    <t>The universe for ENA 2014 was made up of 75,221 production units, from the 3.77 million units captured by the 2007 Agricultural Census that reported information in relation to any of the products of national interest or by federal entity. The universe was defined from the 34 products of national interest selected for the survey, 29 of which are annual and perennial crops and the rest corresponds to livestock species and products of economic importance for the country. Likewise, in this universe, 9 products were considered that are representative in some federal entities, but not nationally. Below are the products that form the universe of the ENA 2014.
+The crops that were the object of the survey were: white grain corn, yellow grain corn, fodder corn, sugar cane, wheat grain, avocado, sorghum grain, beans, chili, alfalfa, tomato, potato, melon, watermelon, coffee, orange, grape, banana, lemon, mango, onion, pumpkin, green tomato, cotton, apple, cocoa, rice, barley and soy. While the species and livestock products were made up of: cattle, pigs, poultry, milk and eggs.
+The 8 products with representativeness in some states were: Pine, Guava, Coconut, Nopal vegetable, Agave, Strawberry, Sorghum Forage and Oats Forage.
+It should be noted that of the annual and perennial crops that formed the universe for the survey; yellow corn, green tomato, pine, coconut and prickly pear vegetable crops were not published due to their low prevalence, resulting in lack of representativity at national or state level.</t>
+  </si>
+  <si>
+    <t>Pastoralist Households.</t>
+  </si>
+  <si>
+    <t>The universe for the survey consists of smallholder households defined as households with the following criteria: 
+1) Household with up to 5 hectares OR farmers who have less than 50 heads of cattle, 100 goats/sheep/pigs, or 1,000 chickens
+2) Agriculture provides a meaningful contribution to the household livelihood, income, or consumption.</t>
+  </si>
+  <si>
+    <t>Once the villages for the Smallholder Diaries were selected, the research teams used a screening process to help identify a range of families with 5 acres of land or less, diverse income sources, access to agricultural inputs, wealth levels, and crops to participate in the research. In Mozambique, these eligible households were identified using a participatory rural appraisal wealth-ranking technique. Working with committees of village representatives, the research teams conducted wealth-ranking exercises to assess the relative wealth of households in village hamlets or subareas.</t>
+  </si>
+  <si>
+    <t>The universe for this survey is the whole population in Myanmar. The sample frame used was an existing list of phone numbers provided by the firm collecting the data.</t>
+  </si>
+  <si>
+    <t>Agricultural households in the Kavango West region.</t>
+  </si>
+  <si>
+    <t>The survey covers both commercial and non-commercial algriculture holdings in Chitwan district.</t>
+  </si>
+  <si>
+    <t>All households in non-metropolitan areas per the 2010 Census definition, excluding households in the Kathmandu valley (Kathmandu, Lalitpur and Bhaktapur districts).</t>
+  </si>
+  <si>
+    <t>Total number of fishing ponds of Nepal</t>
+  </si>
+  <si>
+    <t>Household Members</t>
+  </si>
+  <si>
+    <t>Households in both FNLP villages and villages not receiving FNLP services but are part of the control group for the impact evaluation.</t>
+  </si>
+  <si>
+    <t>Agricultural farming household members.</t>
+  </si>
+  <si>
+    <t>Over 18 years of age from the Digicel subscriber logs.</t>
+  </si>
+  <si>
+    <t>The survey covers all agricultural holdings within the country that are less than 50 ha and the agricultural holdings that are agricultural or farming enterprises, as well as enterprises and large producers (Special Stratum).</t>
+  </si>
+  <si>
+    <t>The survey covers all the agricultural units of the country with less than 50 ha and the agricultural units that are agricultural or farming enterprises.</t>
+  </si>
+  <si>
+    <t>The survey covers all agricultural holdings within the country that are less than 50 ha and the agricultural units that are agricultural or farming enterprises.</t>
+  </si>
+  <si>
+    <t>The survey covers all agricultural holdings within the country that are less than 50 ha and the agricultural units that are agricultural or farming enterprises</t>
+  </si>
+  <si>
+    <t>Farming and non-farming households</t>
+  </si>
+  <si>
+    <t>The CLPS covers all livestock and poultry farms with commercial type of operation. Commercial farm refers to a farm or household operated by a farmer/household/operator that raises at least one of the following:
+1. Livestock - Carabao (Water Buffaloes), Cattle, Swine and Goat
+2. Poultry - Layer, Broiler and Duck
+Also, it must satisfy at least one of the following criteria:
+1. Livestock
+· at least 21 heads of adult and zero head of young
+· at least 41 heads of young animals and above
+· at least 10 heads of adult and 22 heads of young and above
+2. Poultry
+· at least 500 layers, or 1,000 broilers and above
+· at least 100 layers and 100 broilers if raised in combination and above
+· at least 100 head of duck regardless of age
+The survey also covers traders such as assemblers and distributors, etc.
+Trader refers to a person or entity that buys and sells goods or commodities.
+Assembler refers to a type of trader who sources and procures his/her stocks from contract growers or independent farmers in several barangays in a specific municipality, and transports the produce to a trading or market center.
+Distributor refers to a trader who sells commodities to other traders and consumers.</t>
+  </si>
+  <si>
+    <t>The survey covered all backyard farms. Backyard Farm refers to a farm or household whether farming or non-farming operated by a farmer/household that raises at least one of the following:
+1. Livestock
+· Less than 21 heads of adult and zero head of young
+· Less than 41 heads of young animals
+· Less than 10 heads of adult and 22 heads of young
+2. Poultry
+· Less than 500 layers, or 1,000 broilers
+· Less than 100 layers and 100 broilers if raised in combination
+· Less than 100 head of duck regardless of age
+A backyard farm is categorized by its household classification. There are two (2) household classification. These are farming households and non-farming households. 
+The farming household is any household in which a member operates an agricultural land, either solely or jointly with other members, and the aggregate area operated by the operator-members of such household qualifies to be called a farm. The non-farming household is any household in which a member operates an agricultural land, either solely or jointly with other members, and the aggregate area operated by the operator-members of such household does not qualify as a farm.</t>
+  </si>
+  <si>
+    <t>All Swine Farms that are considered as commercial farms. Commerical farm refers to a farm or household operated by a farmer/household/operator that raises at least one of the following:
+· at least 21 heads of adult and zero head of young animals
+· at least 41 heads of young animals and above
+· at least 10 heads of adult and 22 heads of young and above</t>
+  </si>
+  <si>
+    <t>The survey covered all Palay and Corn farming households.</t>
+  </si>
+  <si>
+    <t>All aquafarms nationwide covering the following aquafarm type/environments:
+a. Brackish water and fresh water fishpond
+b. Brackish water, fresh water and marine pen and cage
+c. Oyster, mussel and seaweed
+d. Other fresh water aquafarms like rice fish, small farm reservoir, etc.</t>
+  </si>
+  <si>
+    <t>All commercial fish landing centers nationwide</t>
+  </si>
+  <si>
+    <t>All municipal fish landing centers nationwide</t>
+  </si>
+  <si>
+    <t>It covers aquaculture operations in 82 provinces of 17 aquaculture species in 13 aquafarm types/environments. The following are the aquafarm types and environments covered, however, it depends on which is available in the province:
+a. Brackish water and fresh water fishpond
+b. Brackish water, fresh water and marine pen and cage
+c. Oyster, mussel and seaweed
+d. Other fresh water aquafarms like rice fish, small farm reservoirs, etc.</t>
+  </si>
+  <si>
+    <t>All traditional municipal fish landing centers</t>
+  </si>
+  <si>
+    <t>The RSAS 2020 targeted potential agriicultural land and large scale farmers.</t>
+  </si>
+  <si>
+    <t>The RSAS 2019 targeted potential agriicultural land and large scale farmers.</t>
+  </si>
+  <si>
+    <t>All household members</t>
+  </si>
+  <si>
+    <t>The RSAS 2018 targeted potential agricultural land and large scale farmers.</t>
+  </si>
+  <si>
+    <t>All household members.</t>
+  </si>
+  <si>
+    <t>The RSAS 2017 targeted potential agricultural land and large scale farmers.</t>
+  </si>
+  <si>
+    <t>The 2016 RSAS targeted agricultural operators and large scale farmers operating in Rwanda.</t>
+  </si>
+  <si>
+    <t>The RSAS 2015 targeted agricultural operators and large scale farmers operating in Rwanda.</t>
+  </si>
+  <si>
+    <t>All household members (variable s1q15 identifies household membership).</t>
+  </si>
+  <si>
+    <t>The RSAS 2014 targeted agricultural operators and large scale farmers operating in Rwanda.</t>
+  </si>
+  <si>
+    <t>The RSAS 2013 targeted agricultural operators and large scale farmers operating in Rwanda.</t>
+  </si>
+  <si>
+    <t>The agricultural survey covers all households and plots in the 45 departments of Senegal.</t>
+  </si>
+  <si>
+    <t>The survey covers all households and agricultural plots in the 45 districts of Senegal.</t>
+  </si>
+  <si>
+    <t>The survey covers livestock keepers identified within households and resource persons who are either representatives of livestock keepers' organisations, staff of technical livestock services, staff of projects and programmes working in the pastoral field, or large-scale livestock keepers in the target areas.</t>
+  </si>
+  <si>
+    <t>The survey covers the entire population of rural Senegal.</t>
+  </si>
+  <si>
+    <t>The survey covers all households and agricultural plots in the 42 districts of the country.</t>
+  </si>
+  <si>
+    <t>All respondents must be aged 18 and over and have a phone.</t>
+  </si>
+  <si>
+    <t>Respondents must be at least 18 years of age to participate the survey.</t>
+  </si>
+  <si>
+    <t>Respondents aged over 18.</t>
+  </si>
+  <si>
+    <t>Respondents aged 18 and over.</t>
+  </si>
+  <si>
+    <t>The survey covers all de jure household members (usual residents) of households in the nine provinces of South Africa and residents in workers' hostels. The survey does not cover collective living quarters such as student hostels, old age homes, hospitals, prisons and military barracks.</t>
+  </si>
+  <si>
+    <t>The survey covers all de jure household members (usual residents) of households in the nine provinces of South Africa, and residents in workers' hostels. The survey does not cover collective living quarters such as student hostels, old age homes, hospitals, prisons, and military barracks.</t>
+  </si>
+  <si>
+    <t>The target population of the survey consists of all private households in all nine provinces of South Africa and residents in workers' hostels. The survey does not cover other collective living quarters such as students' hostels, old-age homes, hospitals, prisons and military barracks, and is therefore only representative of non-institutionalised and non-military persons or households in South Africa.</t>
+  </si>
+  <si>
+    <t>The target population for NIDS was private households in all nine provinces of South Africa, and residents in workers' hostels, convents and monasteries. The frame excludes other collective living quarters, such as student hostels, old age homes, hospitals, prisons and military barracks.</t>
+  </si>
+  <si>
+    <t>Agricultural households (i.e. agricultural holdings in the household sector)</t>
+  </si>
+  <si>
+    <t>Randomly selected households in purposely sampled sites (sampling procedure varied slightly by country). Within a selected household, only one household members was interviewed about the household. Respondents were adults and we aimed to interview a fairly even share of  men/ women. In some countries this was achieved, but in other countries the share of male respondents is substantially higher (e.g. Pakistan).</t>
+  </si>
+  <si>
+    <t>Farm operators.</t>
+  </si>
+  <si>
+    <t>Once the villages for the Smallholder Diaries were selected, the research teams used a screening process to help identify a range of families with 5 acres of land or less, diverse income sources, access to agricultural inputs, wealth levels, and crops to participate in the research. In Tanzania, these eligible households were identified using a participatory rural appraisal wealth-ranking technique. Working with committees of village representatives, the research teams conducted wealth-ranking exercises to assess the relative wealth of households in village hamlets or subareas.</t>
+  </si>
+  <si>
+    <t>The universe includes all households and individuals in Tanzania with the exception of those residing in military barracks or other institutions.</t>
+  </si>
+  <si>
+    <t>The survey covers all individuals included in the households in the sample. The eligibility requirement for the NPS is defined as any household member aged 15 years and above, excluding live-in servants. Households with at least one eligible member where completely interviewed, including any subsequent non-eligible members present in the household. Any household or eligible members that had either moved or split away from a primary household were tracked and interviewed in their new location.</t>
   </si>
   <si>
     <t>FALSE</t>
@@ -1498,13 +1852,22 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
         <v>200</v>
@@ -1513,33 +1876,42 @@
         <v>2019.0</v>
       </c>
       <c r="E2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I2" t="s">
-        <v>383</v>
-      </c>
-      <c r="J2" t="e">
-        <v>#N/A</v>
+        <v>380</v>
+      </c>
+      <c r="J2" t="s">
+        <v>452</v>
       </c>
       <c r="K2" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L2" t="s">
+        <v>479</v>
+      </c>
+      <c r="M2" t="s">
+        <v>482</v>
+      </c>
+      <c r="N2" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C3" t="s">
         <v>201</v>
@@ -1548,33 +1920,42 @@
         <v>2018.0</v>
       </c>
       <c r="E3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="J3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="K3" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L3" t="s">
+        <v>479</v>
+      </c>
+      <c r="M3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N3" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C4" t="s">
         <v>201</v>
@@ -1583,33 +1964,42 @@
         <v>2017.0</v>
       </c>
       <c r="E4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="J4" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="K4" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L4" t="s">
+        <v>479</v>
+      </c>
+      <c r="M4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N4" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
         <v>201</v>
@@ -1618,33 +2008,42 @@
         <v>2016.0</v>
       </c>
       <c r="E5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="J5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="K5" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L5" t="s">
+        <v>479</v>
+      </c>
+      <c r="M5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N5" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C6" t="s">
         <v>201</v>
@@ -1653,33 +2052,42 @@
         <v>2015.0</v>
       </c>
       <c r="E6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I6" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="J6" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="K6" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L6" t="s">
+        <v>479</v>
+      </c>
+      <c r="M6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N6" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C7" t="s">
         <v>201</v>
@@ -1688,33 +2096,42 @@
         <v>2014.0</v>
       </c>
       <c r="E7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="J7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="K7" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L7" t="s">
+        <v>479</v>
+      </c>
+      <c r="M7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N7" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C8" t="s">
         <v>201</v>
@@ -1723,68 +2140,86 @@
         <v>2013.0</v>
       </c>
       <c r="E8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F8" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H8" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I8" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="J8" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="K8" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L8" t="s">
+        <v>479</v>
+      </c>
+      <c r="M8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N8" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C9" t="s">
         <v>202</v>
       </c>
       <c r="D9" t="n">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F9" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G9" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H9" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I9" t="s">
-        <v>387</v>
-      </c>
-      <c r="J9" t="e">
+        <v>384</v>
+      </c>
+      <c r="J9" t="s">
+        <v>454</v>
+      </c>
+      <c r="K9" t="s">
+        <v>462</v>
+      </c>
+      <c r="L9" t="s">
+        <v>479</v>
+      </c>
+      <c r="M9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K9" t="s">
-        <v>466</v>
+      <c r="N9" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C10" t="s">
         <v>202</v>
@@ -1793,1118 +2228,1406 @@
         <v>2016.0</v>
       </c>
       <c r="E10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I10" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="J10" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="K10" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L10" t="s">
+        <v>479</v>
+      </c>
+      <c r="M10" t="s">
+        <v>483</v>
+      </c>
+      <c r="N10" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D11" t="n">
-        <v>2016.0</v>
+        <v>2021.0</v>
       </c>
       <c r="E11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F11" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G11" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H11" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I11" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J11" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="K11" t="s">
-        <v>467</v>
+        <v>463</v>
+      </c>
+      <c r="L11" t="s">
+        <v>479</v>
+      </c>
+      <c r="M11" t="s">
+        <v>484</v>
+      </c>
+      <c r="N11" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C12" t="s">
         <v>203</v>
       </c>
       <c r="D12" t="n">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="E12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F12" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G12" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H12" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I12" t="s">
-        <v>390</v>
-      </c>
-      <c r="J12" t="e">
+        <v>387</v>
+      </c>
+      <c r="J12" t="s">
+        <v>455</v>
+      </c>
+      <c r="K12" t="s">
+        <v>464</v>
+      </c>
+      <c r="L12" t="s">
+        <v>479</v>
+      </c>
+      <c r="M12" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K12" t="s">
-        <v>466</v>
+      <c r="N12" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C13" t="s">
         <v>203</v>
       </c>
       <c r="D13" t="n">
-        <v>2019.0</v>
+        <v>2014.0</v>
       </c>
       <c r="E13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F13" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G13" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H13" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I13" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="J13" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K13" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L13" t="s">
+        <v>479</v>
+      </c>
+      <c r="M13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N13" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C14" t="s">
         <v>203</v>
       </c>
       <c r="D14" t="n">
-        <v>2014.0</v>
+        <v>2013.0</v>
       </c>
       <c r="E14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F14" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G14" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H14" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I14" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="J14" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="K14" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L14" t="s">
+        <v>479</v>
+      </c>
+      <c r="M14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N14" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D15" t="n">
-        <v>2013.0</v>
+        <v>2021.0</v>
       </c>
       <c r="E15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F15" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G15" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H15" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I15" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="J15" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="K15" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L15" t="s">
+        <v>479</v>
+      </c>
+      <c r="M15" t="s">
+        <v>485</v>
+      </c>
+      <c r="N15" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D16" t="n">
-        <v>2013.0</v>
+        <v>2019.0</v>
       </c>
       <c r="E16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F16" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G16" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H16" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I16" t="s">
-        <v>392</v>
-      </c>
-      <c r="J16" t="e">
-        <v>#N/A</v>
+        <v>390</v>
+      </c>
+      <c r="J16" t="s">
+        <v>457</v>
       </c>
       <c r="K16" t="s">
-        <v>466</v>
+        <v>465</v>
+      </c>
+      <c r="L16" t="s">
+        <v>479</v>
+      </c>
+      <c r="M16" t="s">
+        <v>486</v>
+      </c>
+      <c r="N16" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C17" t="s">
         <v>205</v>
       </c>
       <c r="D17" t="n">
-        <v>2021.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E17" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F17" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G17" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H17" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I17" t="s">
-        <v>393</v>
-      </c>
-      <c r="J17" t="e">
+        <v>385</v>
+      </c>
+      <c r="J17" t="s">
+        <v>454</v>
+      </c>
+      <c r="K17" t="s">
+        <v>462</v>
+      </c>
+      <c r="L17" t="s">
+        <v>479</v>
+      </c>
+      <c r="M17" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K17" t="s">
-        <v>466</v>
+      <c r="N17" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C18" t="s">
         <v>206</v>
       </c>
       <c r="D18" t="n">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="E18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F18" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G18" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H18" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I18" t="s">
-        <v>394</v>
-      </c>
-      <c r="J18" t="e">
-        <v>#N/A</v>
+        <v>391</v>
+      </c>
+      <c r="J18" t="s">
+        <v>454</v>
       </c>
       <c r="K18" t="s">
-        <v>467</v>
+        <v>466</v>
+      </c>
+      <c r="L18" t="s">
+        <v>479</v>
+      </c>
+      <c r="M18" t="s">
+        <v>487</v>
+      </c>
+      <c r="N18" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C19" t="s">
         <v>206</v>
       </c>
       <c r="D19" t="n">
-        <v>2016.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E19" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F19" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G19" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H19" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I19" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="J19" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="K19" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L19" t="s">
+        <v>479</v>
+      </c>
+      <c r="M19" t="s">
+        <v>488</v>
+      </c>
+      <c r="N19" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>168</v>
       </c>
       <c r="C20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D20" t="n">
-        <v>2021.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F20" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G20" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H20" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I20" t="s">
-        <v>395</v>
-      </c>
-      <c r="J20" t="e">
-        <v>#N/A</v>
+        <v>392</v>
+      </c>
+      <c r="J20" t="s">
+        <v>454</v>
       </c>
       <c r="K20" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L20" t="s">
+        <v>479</v>
+      </c>
+      <c r="M20" t="s">
+        <v>488</v>
+      </c>
+      <c r="N20" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
         <v>168</v>
       </c>
       <c r="C21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D21" t="n">
-        <v>2020.0</v>
+        <v>2021.0</v>
       </c>
       <c r="E21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F21" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G21" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H21" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I21" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="J21" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="K21" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L21" t="s">
+        <v>479</v>
+      </c>
+      <c r="M21" t="s">
+        <v>487</v>
+      </c>
+      <c r="N21" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
         <v>168</v>
       </c>
       <c r="C22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D22" t="n">
-        <v>2020.0</v>
+        <v>2021.0</v>
       </c>
       <c r="E22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F22" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G22" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H22" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I22" t="s">
-        <v>396</v>
-      </c>
-      <c r="J22" t="e">
-        <v>#N/A</v>
+        <v>391</v>
+      </c>
+      <c r="J22" t="s">
+        <v>454</v>
       </c>
       <c r="K22" t="s">
         <v>466</v>
       </c>
+      <c r="L22" t="s">
+        <v>479</v>
+      </c>
+      <c r="M22" t="s">
+        <v>489</v>
+      </c>
+      <c r="N22" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C23" t="s">
         <v>207</v>
       </c>
       <c r="D23" t="n">
-        <v>2021.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F23" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G23" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H23" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I23" t="s">
-        <v>396</v>
-      </c>
-      <c r="J23" t="e">
-        <v>#N/A</v>
+        <v>393</v>
+      </c>
+      <c r="J23" t="s">
+        <v>456</v>
       </c>
       <c r="K23" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L23" t="s">
+        <v>479</v>
+      </c>
+      <c r="M23" t="s">
+        <v>486</v>
+      </c>
+      <c r="N23" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C24" t="s">
         <v>207</v>
       </c>
       <c r="D24" t="n">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="E24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F24" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G24" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H24" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I24" t="s">
-        <v>395</v>
-      </c>
-      <c r="J24" t="e">
-        <v>#N/A</v>
+        <v>394</v>
+      </c>
+      <c r="J24" t="s">
+        <v>456</v>
       </c>
       <c r="K24" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L24" t="s">
+        <v>479</v>
+      </c>
+      <c r="M24" t="s">
+        <v>486</v>
+      </c>
+      <c r="N24" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
         <v>169</v>
       </c>
       <c r="C25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D25" t="n">
-        <v>2020.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F25" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G25" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H25" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I25" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J25" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K25" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L25" t="s">
+        <v>479</v>
+      </c>
+      <c r="M25" t="s">
+        <v>490</v>
+      </c>
+      <c r="N25" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
         <v>169</v>
       </c>
       <c r="C26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D26" t="n">
-        <v>2019.0</v>
+        <v>2014.0</v>
       </c>
       <c r="E26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F26" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G26" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H26" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J26" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="K26" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L26" t="s">
+        <v>479</v>
+      </c>
+      <c r="M26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N26" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
         <v>169</v>
       </c>
       <c r="C27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D27" t="n">
-        <v>2016.0</v>
+        <v>2013.0</v>
       </c>
       <c r="E27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F27" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G27" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H27" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I27" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="J27" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="K27" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L27" t="s">
+        <v>479</v>
+      </c>
+      <c r="M27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N27" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C28" t="s">
         <v>208</v>
       </c>
       <c r="D28" t="n">
-        <v>2014.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F28" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G28" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H28" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I28" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="J28" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="K28" t="s">
         <v>467</v>
       </c>
+      <c r="L28" t="s">
+        <v>479</v>
+      </c>
+      <c r="M28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N28" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D29" t="n">
-        <v>2013.0</v>
+        <v>2021.0</v>
       </c>
       <c r="E29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F29" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G29" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H29" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I29" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J29" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="K29" t="s">
-        <v>466</v>
+        <v>468</v>
+      </c>
+      <c r="L29" t="s">
+        <v>479</v>
+      </c>
+      <c r="M29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N29" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D30" t="n">
-        <v>2016.0</v>
+        <v>2018.0</v>
       </c>
       <c r="E30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F30" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G30" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H30" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I30" t="s">
-        <v>401</v>
-      </c>
-      <c r="J30" t="e">
-        <v>#N/A</v>
+        <v>399</v>
+      </c>
+      <c r="J30" t="s">
+        <v>458</v>
       </c>
       <c r="K30" t="s">
-        <v>467</v>
+        <v>469</v>
+      </c>
+      <c r="L30" t="s">
+        <v>479</v>
+      </c>
+      <c r="M30" t="s">
+        <v>491</v>
+      </c>
+      <c r="N30" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C31" t="s">
         <v>210</v>
       </c>
       <c r="D31" t="n">
-        <v>2021.0</v>
+        <v>2018.0</v>
       </c>
       <c r="E31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F31" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G31" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H31" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I31" t="s">
-        <v>402</v>
-      </c>
-      <c r="J31" t="e">
-        <v>#N/A</v>
+        <v>399</v>
+      </c>
+      <c r="J31" t="s">
+        <v>458</v>
       </c>
       <c r="K31" t="s">
-        <v>466</v>
+        <v>469</v>
+      </c>
+      <c r="L31" t="s">
+        <v>479</v>
+      </c>
+      <c r="M31" t="s">
+        <v>491</v>
+      </c>
+      <c r="N31" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
         <v>172</v>
       </c>
       <c r="C32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D32" t="n">
         <v>2018.0</v>
       </c>
       <c r="E32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F32" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G32" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H32" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I32" t="s">
-        <v>403</v>
-      </c>
-      <c r="J32" t="e">
-        <v>#N/A</v>
+        <v>399</v>
+      </c>
+      <c r="J32" t="s">
+        <v>458</v>
       </c>
       <c r="K32" t="s">
-        <v>466</v>
+        <v>469</v>
+      </c>
+      <c r="L32" t="s">
+        <v>479</v>
+      </c>
+      <c r="M32" t="s">
+        <v>491</v>
+      </c>
+      <c r="N32" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
         <v>172</v>
       </c>
       <c r="C33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D33" t="n">
         <v>2018.0</v>
       </c>
       <c r="E33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F33" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G33" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H33" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I33" t="s">
-        <v>403</v>
-      </c>
-      <c r="J33" t="e">
-        <v>#N/A</v>
+        <v>399</v>
+      </c>
+      <c r="J33" t="s">
+        <v>458</v>
       </c>
       <c r="K33" t="s">
-        <v>466</v>
+        <v>468</v>
+      </c>
+      <c r="L33" t="s">
+        <v>479</v>
+      </c>
+      <c r="M33" t="s">
+        <v>491</v>
+      </c>
+      <c r="N33" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
         <v>172</v>
       </c>
       <c r="C34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D34" t="n">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="E34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F34" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G34" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H34" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I34" t="s">
-        <v>403</v>
-      </c>
-      <c r="J34" t="e">
+        <v>400</v>
+      </c>
+      <c r="J34" t="s">
+        <v>457</v>
+      </c>
+      <c r="K34" t="s">
+        <v>462</v>
+      </c>
+      <c r="L34" t="s">
+        <v>479</v>
+      </c>
+      <c r="M34" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K34" t="s">
-        <v>466</v>
+      <c r="N34" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C35" t="s">
         <v>211</v>
       </c>
       <c r="D35" t="n">
-        <v>2018.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E35" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F35" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G35" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H35" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I35" t="s">
-        <v>403</v>
-      </c>
-      <c r="J35" t="e">
-        <v>#N/A</v>
+        <v>401</v>
+      </c>
+      <c r="J35" t="s">
+        <v>454</v>
       </c>
       <c r="K35" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L35" t="s">
+        <v>479</v>
+      </c>
+      <c r="M35" t="s">
+        <v>492</v>
+      </c>
+      <c r="N35" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C36" t="s">
         <v>211</v>
       </c>
       <c r="D36" t="n">
-        <v>2017.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E36" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G36" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H36" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I36" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="J36" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="K36" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L36" t="s">
+        <v>479</v>
+      </c>
+      <c r="M36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N36" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
         <v>173</v>
       </c>
       <c r="C37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D37" t="n">
-        <v>2020.0</v>
+        <v>2013.0</v>
       </c>
       <c r="E37" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F37" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G37" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H37" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I37" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="J37" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="K37" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L37" t="s">
+        <v>479</v>
+      </c>
+      <c r="M37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N37" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
         <v>173</v>
       </c>
       <c r="C38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D38" t="n">
-        <v>2020.0</v>
+        <v>2013.0</v>
       </c>
       <c r="E38" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F38" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G38" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H38" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I38" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="J38" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="K38" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L38" t="s">
+        <v>479</v>
+      </c>
+      <c r="M38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N38" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
         <v>173</v>
       </c>
       <c r="C39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D39" t="n">
         <v>2013.0</v>
       </c>
       <c r="E39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F39" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G39" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H39" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I39" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="J39" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="K39" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L39" t="s">
+        <v>479</v>
+      </c>
+      <c r="M39" t="s">
+        <v>493</v>
+      </c>
+      <c r="N39" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
         <v>173</v>
       </c>
       <c r="C40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D40" t="n">
         <v>2013.0</v>
       </c>
       <c r="E40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F40" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G40" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H40" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I40" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="J40" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="K40" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L40" t="s">
+        <v>479</v>
+      </c>
+      <c r="M40" t="s">
+        <v>493</v>
+      </c>
+      <c r="N40" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C41" t="s">
         <v>212</v>
       </c>
       <c r="D41" t="n">
-        <v>2013.0</v>
+        <v>2021.0</v>
       </c>
       <c r="E41" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="F41" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G41" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H41" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I41" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="J41" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="K41" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L41" t="s">
+        <v>479</v>
+      </c>
+      <c r="M41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N41" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C42" t="s">
         <v>212</v>
@@ -2913,593 +3636,746 @@
         <v>2013.0</v>
       </c>
       <c r="E42" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F42" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G42" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H42" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I42" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="J42" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K42" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L42" t="s">
+        <v>479</v>
+      </c>
+      <c r="M42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N42" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C43" t="s">
         <v>213</v>
       </c>
       <c r="D43" t="n">
-        <v>2021.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E43" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="F43" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G43" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H43" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I43" t="s">
-        <v>408</v>
-      </c>
-      <c r="J43" t="e">
+        <v>406</v>
+      </c>
+      <c r="J43" t="s">
+        <v>456</v>
+      </c>
+      <c r="K43" t="s">
+        <v>462</v>
+      </c>
+      <c r="L43" t="s">
+        <v>479</v>
+      </c>
+      <c r="M43" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K43" t="s">
-        <v>466</v>
+      <c r="N43" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C44" t="s">
         <v>213</v>
       </c>
       <c r="D44" t="n">
-        <v>2013.0</v>
+        <v>2017.0</v>
       </c>
       <c r="E44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F44" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G44" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H44" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I44" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="J44" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="K44" t="s">
-        <v>467</v>
+        <v>470</v>
+      </c>
+      <c r="L44" t="s">
+        <v>479</v>
+      </c>
+      <c r="M44" t="s">
+        <v>494</v>
+      </c>
+      <c r="N44" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
         <v>175</v>
       </c>
       <c r="C45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D45" t="n">
-        <v>2020.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F45" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G45" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H45" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I45" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="J45" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="K45" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L45" t="s">
+        <v>479</v>
+      </c>
+      <c r="M45" t="s">
+        <v>495</v>
+      </c>
+      <c r="N45" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C46" t="s">
         <v>214</v>
       </c>
       <c r="D46" t="n">
-        <v>2017.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E46" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F46" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G46" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H46" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I46" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="J46" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="K46" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L46" t="s">
+        <v>479</v>
+      </c>
+      <c r="M46" t="s">
+        <v>496</v>
+      </c>
+      <c r="N46" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C47" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D47" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="E47" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F47" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G47" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H47" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I47" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="J47" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="K47" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L47" t="s">
+        <v>479</v>
+      </c>
+      <c r="M47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N47" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C48" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D48" t="n">
-        <v>2020.0</v>
+        <v>2021.0</v>
       </c>
       <c r="E48" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="F48" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G48" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H48" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I48" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J48" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="K48" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L48" t="s">
+        <v>479</v>
+      </c>
+      <c r="M48" t="s">
+        <v>497</v>
+      </c>
+      <c r="N48" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C49" t="s">
         <v>216</v>
       </c>
       <c r="D49" t="n">
-        <v>2017.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E49" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F49" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G49" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H49" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I49" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="J49" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="K49" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L49" t="s">
+        <v>479</v>
+      </c>
+      <c r="M49" t="s">
+        <v>498</v>
+      </c>
+      <c r="N49" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B50" t="s">
         <v>178</v>
       </c>
       <c r="C50" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D50" t="n">
-        <v>2021.0</v>
+        <v>2017.0</v>
       </c>
       <c r="E50" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="F50" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G50" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H50" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I50" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="J50" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K50" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L50" t="s">
+        <v>479</v>
+      </c>
+      <c r="M50" t="s">
+        <v>499</v>
+      </c>
+      <c r="N50" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B51" t="s">
         <v>178</v>
       </c>
       <c r="C51" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D51" t="n">
-        <v>2020.0</v>
+        <v>2013.0</v>
       </c>
       <c r="E51" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F51" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G51" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H51" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I51" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J51" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K51" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L51" t="s">
+        <v>479</v>
+      </c>
+      <c r="M51" t="s">
+        <v>500</v>
+      </c>
+      <c r="N51" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B52" t="s">
         <v>178</v>
       </c>
       <c r="C52" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D52" t="n">
-        <v>2017.0</v>
+        <v>2014.0</v>
       </c>
       <c r="E52" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F52" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G52" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H52" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I52" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J52" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="K52" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L52" t="s">
+        <v>479</v>
+      </c>
+      <c r="M52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N52" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B53" t="s">
         <v>178</v>
       </c>
       <c r="C53" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D53" t="n">
-        <v>2013.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E53" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F53" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G53" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H53" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I53" t="s">
-        <v>417</v>
-      </c>
-      <c r="J53" t="s">
-        <v>460</v>
+        <v>413</v>
+      </c>
+      <c r="J53" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K53" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L53" t="s">
+        <v>479</v>
+      </c>
+      <c r="M53" t="s">
+        <v>501</v>
+      </c>
+      <c r="N53" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B54" t="s">
         <v>178</v>
       </c>
       <c r="C54" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D54" t="n">
-        <v>2014.0</v>
+        <v>2019.0</v>
       </c>
       <c r="E54" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F54" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G54" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H54" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I54" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="J54" t="s">
         <v>457</v>
       </c>
       <c r="K54" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L54" t="s">
+        <v>479</v>
+      </c>
+      <c r="M54" t="s">
+        <v>502</v>
+      </c>
+      <c r="N54" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C55" t="s">
         <v>217</v>
       </c>
       <c r="D55" t="n">
-        <v>2016.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E55" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F55" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G55" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H55" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I55" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="J55" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="K55" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L55" t="s">
+        <v>479</v>
+      </c>
+      <c r="M55" t="s">
+        <v>503</v>
+      </c>
+      <c r="N55" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C56" t="s">
         <v>217</v>
       </c>
       <c r="D56" t="n">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="E56" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F56" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G56" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H56" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I56" t="s">
         <v>416</v>
       </c>
       <c r="J56" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="K56" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L56" t="s">
+        <v>479</v>
+      </c>
+      <c r="M56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N56" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B57" t="s">
         <v>179</v>
       </c>
       <c r="C57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D57" t="n">
-        <v>2020.0</v>
+        <v>2014.0</v>
       </c>
       <c r="E57" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F57" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G57" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H57" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I57" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="J57" t="s">
         <v>457</v>
       </c>
       <c r="K57" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L57" t="s">
+        <v>479</v>
+      </c>
+      <c r="M57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N57" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C58" t="s">
         <v>218</v>
       </c>
       <c r="D58" t="n">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="E58" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F58" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G58" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H58" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I58" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="J58" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="K58" t="s">
-        <v>466</v>
+        <v>468</v>
+      </c>
+      <c r="L58" t="s">
+        <v>479</v>
+      </c>
+      <c r="M58" t="s">
+        <v>504</v>
+      </c>
+      <c r="N58" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C59" t="s">
         <v>218</v>
@@ -3508,3280 +4384,4038 @@
         <v>2014.0</v>
       </c>
       <c r="E59" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F59" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G59" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H59" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I59" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J59" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="K59" t="s">
-        <v>466</v>
+        <v>468</v>
+      </c>
+      <c r="L59" t="s">
+        <v>479</v>
+      </c>
+      <c r="M59" t="s">
+        <v>505</v>
+      </c>
+      <c r="N59" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C60" t="s">
         <v>219</v>
       </c>
       <c r="D60" t="n">
-        <v>2017.0</v>
+        <v>2019.0</v>
       </c>
       <c r="E60" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F60" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G60" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H60" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I60" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="J60" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="K60" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L60" t="s">
+        <v>479</v>
+      </c>
+      <c r="M60" t="s">
+        <v>506</v>
+      </c>
+      <c r="N60" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C61" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D61" t="n">
-        <v>2014.0</v>
+        <v>2015.0</v>
       </c>
       <c r="E61" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F61" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G61" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H61" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I61" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="J61" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="K61" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L61" t="s">
+        <v>479</v>
+      </c>
+      <c r="M61" t="s">
+        <v>507</v>
+      </c>
+      <c r="N61" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C62" t="s">
         <v>220</v>
       </c>
       <c r="D62" t="n">
-        <v>2019.0</v>
+        <v>2015.0</v>
       </c>
       <c r="E62" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F62" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G62" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H62" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I62" t="s">
-        <v>423</v>
-      </c>
-      <c r="J62" t="e">
-        <v>#N/A</v>
+        <v>420</v>
+      </c>
+      <c r="J62" t="s">
+        <v>454</v>
       </c>
       <c r="K62" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L62" t="s">
+        <v>480</v>
+      </c>
+      <c r="M62" t="s">
+        <v>508</v>
+      </c>
+      <c r="N62" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B63" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C63" t="s">
         <v>221</v>
       </c>
       <c r="D63" t="n">
-        <v>2015.0</v>
+        <v>2021.0</v>
       </c>
       <c r="E63" t="s">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="F63" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G63" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H63" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I63" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="J63" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="K63" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L63" t="s">
+        <v>479</v>
+      </c>
+      <c r="M63" t="s">
+        <v>509</v>
+      </c>
+      <c r="N63" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B64" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C64" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D64" t="n">
-        <v>2015.0</v>
+        <v>2018.0</v>
       </c>
       <c r="E64" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F64" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G64" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H64" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I64" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="J64" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="K64" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L64" t="s">
+        <v>479</v>
+      </c>
+      <c r="M64" t="s">
+        <v>510</v>
+      </c>
+      <c r="N64" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B65" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C65" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D65" t="n">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="E65" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F65" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G65" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H65" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I65" t="s">
-        <v>397</v>
-      </c>
-      <c r="J65" t="e">
-        <v>#N/A</v>
+        <v>422</v>
+      </c>
+      <c r="J65" t="s">
+        <v>452</v>
       </c>
       <c r="K65" t="s">
-        <v>466</v>
+        <v>468</v>
+      </c>
+      <c r="L65" t="s">
+        <v>479</v>
+      </c>
+      <c r="M65" t="s">
+        <v>511</v>
+      </c>
+      <c r="N65" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B66" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C66" t="s">
         <v>223</v>
       </c>
       <c r="D66" t="n">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="E66" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F66" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G66" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H66" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I66" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J66" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="K66" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L66" t="s">
+        <v>479</v>
+      </c>
+      <c r="M66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N66" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B67" t="s">
         <v>185</v>
       </c>
       <c r="C67" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D67" t="n">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="E67" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F67" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G67" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H67" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I67" t="s">
-        <v>426</v>
-      </c>
-      <c r="J67" t="e">
-        <v>#N/A</v>
+        <v>401</v>
+      </c>
+      <c r="J67" t="s">
+        <v>459</v>
       </c>
       <c r="K67" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L67" t="s">
+        <v>479</v>
+      </c>
+      <c r="M67" t="s">
+        <v>512</v>
+      </c>
+      <c r="N67" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B68" t="s">
         <v>185</v>
       </c>
       <c r="C68" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D68" t="n">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E68" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F68" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G68" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H68" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I68" t="s">
-        <v>427</v>
-      </c>
-      <c r="J68" t="e">
-        <v>#N/A</v>
+        <v>424</v>
+      </c>
+      <c r="J68" t="s">
+        <v>452</v>
       </c>
       <c r="K68" t="s">
-        <v>467</v>
+        <v>471</v>
+      </c>
+      <c r="L68" t="s">
+        <v>479</v>
+      </c>
+      <c r="M68" t="s">
+        <v>513</v>
+      </c>
+      <c r="N68" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B69" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C69" t="s">
         <v>224</v>
       </c>
       <c r="D69" t="n">
-        <v>2018.0</v>
+        <v>2015.0</v>
       </c>
       <c r="E69" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F69" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G69" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H69" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I69" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="J69" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="K69" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L69" t="s">
+        <v>479</v>
+      </c>
+      <c r="M69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N69" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B70" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C70" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D70" t="n">
-        <v>2016.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E70" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F70" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G70" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H70" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I70" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="J70" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="K70" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L70" t="s">
+        <v>479</v>
+      </c>
+      <c r="M70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N70" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B71" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C71" t="s">
         <v>225</v>
       </c>
       <c r="D71" t="n">
-        <v>2015.0</v>
+        <v>2019.0</v>
       </c>
       <c r="E71" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F71" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G71" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H71" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I71" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="J71" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="K71" t="s">
-        <v>467</v>
+        <v>472</v>
+      </c>
+      <c r="L71" t="s">
+        <v>479</v>
+      </c>
+      <c r="M71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N71" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B72" t="s">
         <v>187</v>
       </c>
       <c r="C72" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D72" t="n">
-        <v>2020.0</v>
+        <v>2019.0</v>
       </c>
       <c r="E72" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F72" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G72" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H72" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I72" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="J72" t="s">
         <v>457</v>
       </c>
       <c r="K72" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L72" t="s">
+        <v>479</v>
+      </c>
+      <c r="M72" t="s">
+        <v>486</v>
+      </c>
+      <c r="N72" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B73" t="s">
         <v>187</v>
       </c>
       <c r="C73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D73" t="n">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E73" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F73" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G73" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H73" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I73" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="J73" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="K73" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L73" t="s">
+        <v>479</v>
+      </c>
+      <c r="M73" t="s">
+        <v>514</v>
+      </c>
+      <c r="N73" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B74" t="s">
         <v>187</v>
       </c>
       <c r="C74" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D74" t="n">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E74" t="s">
-        <v>306</v>
+        <v>245</v>
       </c>
       <c r="F74" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G74" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H74" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I74" t="s">
-        <v>430</v>
+        <v>385</v>
       </c>
       <c r="J74" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="K74" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L74" t="s">
+        <v>479</v>
+      </c>
+      <c r="M74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N74" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B75" t="s">
         <v>187</v>
       </c>
       <c r="C75" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D75" t="n">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
       <c r="E75" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F75" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G75" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H75" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I75" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J75" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="K75" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L75" t="s">
+        <v>479</v>
+      </c>
+      <c r="M75" t="s">
+        <v>515</v>
+      </c>
+      <c r="N75" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B76" t="s">
         <v>187</v>
       </c>
       <c r="C76" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D76" t="n">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
       <c r="E76" t="s">
-        <v>247</v>
+        <v>306</v>
       </c>
       <c r="F76" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G76" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H76" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I76" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="J76" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="K76" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L76" t="s">
+        <v>479</v>
+      </c>
+      <c r="M76" t="s">
+        <v>514</v>
+      </c>
+      <c r="N76" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B77" t="s">
         <v>187</v>
       </c>
       <c r="C77" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D77" t="n">
-        <v>2015.0</v>
+        <v>2013.0</v>
       </c>
       <c r="E77" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F77" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G77" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H77" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I77" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="J77" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="K77" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L77" t="s">
+        <v>479</v>
+      </c>
+      <c r="M77" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N77" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B78" t="s">
         <v>187</v>
       </c>
       <c r="C78" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" t="n">
-        <v>2015.0</v>
+        <v>2013.0</v>
       </c>
       <c r="E78" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F78" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G78" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H78" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I78" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="J78" t="s">
         <v>457</v>
       </c>
       <c r="K78" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L78" t="s">
+        <v>479</v>
+      </c>
+      <c r="M78" t="s">
+        <v>516</v>
+      </c>
+      <c r="N78" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B79" t="s">
-        <v>187</v>
-      </c>
-      <c r="C79" t="s">
-        <v>226</v>
+        <v>188</v>
+      </c>
+      <c r="C79" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D79" t="n">
-        <v>2013.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E79" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F79" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G79" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H79" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I79" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J79" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K79" t="s">
-        <v>467</v>
+        <v>473</v>
+      </c>
+      <c r="L79" t="s">
+        <v>481</v>
+      </c>
+      <c r="M79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N79" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B80" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C80" t="s">
         <v>226</v>
       </c>
       <c r="D80" t="n">
-        <v>2013.0</v>
+        <v>2015.0</v>
       </c>
       <c r="E80" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="F80" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G80" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H80" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I80" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="J80" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="K80" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L80" t="s">
+        <v>480</v>
+      </c>
+      <c r="M80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N80" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B81" t="s">
-        <v>188</v>
-      </c>
-      <c r="C81" t="e">
-        <v>#N/A</v>
+        <v>190</v>
+      </c>
+      <c r="C81" t="s">
+        <v>227</v>
       </c>
       <c r="D81" t="n">
-        <v>2020.0</v>
+        <v>2021.0</v>
       </c>
       <c r="E81" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F81" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G81" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H81" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I81" t="s">
-        <v>433</v>
-      </c>
-      <c r="J81" t="e">
-        <v>#N/A</v>
+        <v>393</v>
+      </c>
+      <c r="J81" t="s">
+        <v>454</v>
       </c>
       <c r="K81" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L81" t="s">
+        <v>479</v>
+      </c>
+      <c r="M81" t="s">
+        <v>517</v>
+      </c>
+      <c r="N81" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B82" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C82" t="s">
         <v>227</v>
       </c>
       <c r="D82" t="n">
-        <v>2015.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E82" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="F82" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G82" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H82" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I82" t="s">
-        <v>424</v>
+        <v>393</v>
       </c>
       <c r="J82" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K82" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L82" t="s">
+        <v>479</v>
+      </c>
+      <c r="M82" t="s">
+        <v>517</v>
+      </c>
+      <c r="N82" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B83" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C83" t="s">
         <v>228</v>
       </c>
       <c r="D83" t="n">
-        <v>2021.0</v>
+        <v>2018.0</v>
       </c>
       <c r="E83" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F83" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G83" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H83" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I83" t="s">
-        <v>397</v>
-      </c>
-      <c r="J83" t="e">
-        <v>#N/A</v>
+        <v>430</v>
+      </c>
+      <c r="J83" t="s">
+        <v>452</v>
       </c>
       <c r="K83" t="s">
-        <v>466</v>
+        <v>468</v>
+      </c>
+      <c r="L83" t="s">
+        <v>479</v>
+      </c>
+      <c r="M83" t="s">
+        <v>518</v>
+      </c>
+      <c r="N83" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B84" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C84" t="s">
         <v>228</v>
       </c>
       <c r="D84" t="n">
-        <v>2020.0</v>
+        <v>2017.0</v>
       </c>
       <c r="E84" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="F84" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G84" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H84" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I84" t="s">
-        <v>397</v>
+        <v>430</v>
       </c>
       <c r="J84" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="K84" t="s">
-        <v>466</v>
+        <v>468</v>
+      </c>
+      <c r="L84" t="s">
+        <v>479</v>
+      </c>
+      <c r="M84" t="s">
+        <v>519</v>
+      </c>
+      <c r="N84" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B85" t="s">
         <v>191</v>
       </c>
       <c r="C85" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D85" t="n">
-        <v>2018.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E85" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F85" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G85" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H85" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I85" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="J85" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="K85" t="s">
-        <v>466</v>
+        <v>468</v>
+      </c>
+      <c r="L85" t="s">
+        <v>479</v>
+      </c>
+      <c r="M85" t="s">
+        <v>519</v>
+      </c>
+      <c r="N85" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B86" t="s">
         <v>191</v>
       </c>
       <c r="C86" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D86" t="n">
-        <v>2017.0</v>
+        <v>2015.0</v>
       </c>
       <c r="E86" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="F86" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G86" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H86" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I86" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="J86" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="K86" t="s">
-        <v>466</v>
+        <v>468</v>
+      </c>
+      <c r="L86" t="s">
+        <v>479</v>
+      </c>
+      <c r="M86" t="s">
+        <v>520</v>
+      </c>
+      <c r="N86" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B87" t="s">
         <v>191</v>
       </c>
       <c r="C87" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D87" t="n">
-        <v>2016.0</v>
+        <v>2014.0</v>
       </c>
       <c r="E87" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="F87" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G87" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H87" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I87" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="J87" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="K87" t="s">
-        <v>466</v>
+        <v>468</v>
+      </c>
+      <c r="L87" t="s">
+        <v>479</v>
+      </c>
+      <c r="M87" t="s">
+        <v>521</v>
+      </c>
+      <c r="N87" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B88" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C88" t="s">
         <v>229</v>
       </c>
       <c r="D88" t="n">
-        <v>2015.0</v>
+        <v>2018.0</v>
       </c>
       <c r="E88" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F88" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G88" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H88" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I88" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="J88" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="K88" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L88" t="s">
+        <v>479</v>
+      </c>
+      <c r="M88" t="s">
+        <v>522</v>
+      </c>
+      <c r="N88" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B89" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C89" t="s">
         <v>229</v>
       </c>
       <c r="D89" t="n">
-        <v>2014.0</v>
+        <v>2017.0</v>
       </c>
       <c r="E89" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="F89" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G89" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H89" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I89" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J89" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="K89" t="s">
-        <v>466</v>
+        <v>471</v>
+      </c>
+      <c r="L89" t="s">
+        <v>479</v>
+      </c>
+      <c r="M89" t="s">
+        <v>523</v>
+      </c>
+      <c r="N89" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B90" t="s">
         <v>192</v>
       </c>
       <c r="C90" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D90" t="n">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="E90" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F90" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G90" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H90" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I90" t="s">
-        <v>435</v>
-      </c>
-      <c r="J90" t="e">
-        <v>#N/A</v>
+        <v>431</v>
+      </c>
+      <c r="J90" t="s">
+        <v>452</v>
       </c>
       <c r="K90" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L90" t="s">
+        <v>479</v>
+      </c>
+      <c r="M90" t="s">
+        <v>522</v>
+      </c>
+      <c r="N90" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B91" t="s">
         <v>192</v>
       </c>
       <c r="C91" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D91" t="n">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E91" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F91" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G91" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H91" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I91" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J91" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="K91" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L91" t="s">
+        <v>479</v>
+      </c>
+      <c r="M91" t="s">
+        <v>524</v>
+      </c>
+      <c r="N91" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B92" t="s">
         <v>192</v>
       </c>
       <c r="C92" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D92" t="n">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E92" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F92" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G92" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H92" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I92" t="s">
-        <v>435</v>
-      </c>
-      <c r="J92" t="e">
-        <v>#N/A</v>
+        <v>431</v>
+      </c>
+      <c r="J92" t="s">
+        <v>452</v>
       </c>
       <c r="K92" t="s">
-        <v>466</v>
+        <v>468</v>
+      </c>
+      <c r="L92" t="s">
+        <v>479</v>
+      </c>
+      <c r="M92" t="s">
+        <v>525</v>
+      </c>
+      <c r="N92" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B93" t="s">
         <v>192</v>
       </c>
       <c r="C93" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D93" t="n">
         <v>2016.0</v>
       </c>
       <c r="E93" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F93" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G93" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H93" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I93" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="J93" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="K93" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L93" t="s">
+        <v>479</v>
+      </c>
+      <c r="M93" t="s">
+        <v>526</v>
+      </c>
+      <c r="N93" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B94" t="s">
         <v>192</v>
       </c>
       <c r="C94" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D94" t="n">
         <v>2016.0</v>
       </c>
       <c r="E94" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F94" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G94" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H94" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I94" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J94" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="K94" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L94" t="s">
+        <v>479</v>
+      </c>
+      <c r="M94" t="s">
+        <v>522</v>
+      </c>
+      <c r="N94" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B95" t="s">
         <v>192</v>
       </c>
       <c r="C95" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D95" t="n">
         <v>2016.0</v>
       </c>
       <c r="E95" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F95" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G95" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H95" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I95" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="J95" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="K95" t="s">
-        <v>466</v>
+        <v>471</v>
+      </c>
+      <c r="L95" t="s">
+        <v>479</v>
+      </c>
+      <c r="M95" t="s">
+        <v>527</v>
+      </c>
+      <c r="N95" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B96" t="s">
         <v>192</v>
       </c>
       <c r="C96" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D96" t="n">
         <v>2016.0</v>
       </c>
       <c r="E96" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F96" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G96" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H96" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I96" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="J96" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="K96" t="s">
-        <v>466</v>
+        <v>471</v>
+      </c>
+      <c r="L96" t="s">
+        <v>479</v>
+      </c>
+      <c r="M96" t="s">
+        <v>528</v>
+      </c>
+      <c r="N96" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B97" t="s">
         <v>192</v>
       </c>
       <c r="C97" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D97" t="n">
         <v>2016.0</v>
       </c>
       <c r="E97" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F97" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G97" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H97" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I97" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="J97" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="K97" t="s">
-        <v>466</v>
+        <v>471</v>
+      </c>
+      <c r="L97" t="s">
+        <v>479</v>
+      </c>
+      <c r="M97" t="s">
+        <v>529</v>
+      </c>
+      <c r="N97" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B98" t="s">
         <v>192</v>
       </c>
       <c r="C98" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D98" t="n">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
       <c r="E98" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F98" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G98" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H98" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I98" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="J98" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="K98" t="s">
-        <v>466</v>
+        <v>471</v>
+      </c>
+      <c r="L98" t="s">
+        <v>479</v>
+      </c>
+      <c r="M98" t="s">
+        <v>530</v>
+      </c>
+      <c r="N98" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B99" t="s">
         <v>192</v>
       </c>
       <c r="C99" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D99" t="n">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
       <c r="E99" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F99" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G99" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H99" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I99" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J99" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="K99" t="s">
-        <v>466</v>
+        <v>471</v>
+      </c>
+      <c r="L99" t="s">
+        <v>479</v>
+      </c>
+      <c r="M99" t="s">
+        <v>531</v>
+      </c>
+      <c r="N99" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B100" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C100" t="s">
         <v>230</v>
       </c>
       <c r="D100" t="n">
-        <v>2015.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E100" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F100" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G100" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H100" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I100" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J100" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="K100" t="s">
-        <v>466</v>
+        <v>468</v>
+      </c>
+      <c r="L100" t="s">
+        <v>479</v>
+      </c>
+      <c r="M100" t="s">
+        <v>532</v>
+      </c>
+      <c r="N100" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B101" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C101" t="s">
         <v>230</v>
       </c>
       <c r="D101" t="n">
-        <v>2015.0</v>
+        <v>2019.0</v>
       </c>
       <c r="E101" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F101" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G101" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H101" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I101" t="s">
         <v>435</v>
       </c>
       <c r="J101" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="K101" t="s">
-        <v>466</v>
+        <v>468</v>
+      </c>
+      <c r="L101" t="s">
+        <v>479</v>
+      </c>
+      <c r="M101" t="s">
+        <v>533</v>
+      </c>
+      <c r="N101" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B102" t="s">
         <v>193</v>
       </c>
       <c r="C102" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D102" t="n">
-        <v>2020.0</v>
+        <v>2017.0</v>
       </c>
       <c r="E102" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F102" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G102" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H102" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I102" t="s">
-        <v>439</v>
-      </c>
-      <c r="J102" t="e">
-        <v>#N/A</v>
+        <v>435</v>
+      </c>
+      <c r="J102" t="s">
+        <v>452</v>
       </c>
       <c r="K102" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L102" t="s">
+        <v>479</v>
+      </c>
+      <c r="M102" t="s">
+        <v>534</v>
+      </c>
+      <c r="N102" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B103" t="s">
         <v>193</v>
       </c>
       <c r="C103" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D103" t="n">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="E103" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F103" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G103" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H103" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I103" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J103" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="K103" t="s">
-        <v>466</v>
+        <v>468</v>
+      </c>
+      <c r="L103" t="s">
+        <v>479</v>
+      </c>
+      <c r="M103" t="s">
+        <v>535</v>
+      </c>
+      <c r="N103" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B104" t="s">
         <v>193</v>
       </c>
       <c r="C104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D104" t="n">
         <v>2017.0</v>
       </c>
       <c r="E104" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F104" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G104" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H104" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I104" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J104" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="K104" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L104" t="s">
+        <v>479</v>
+      </c>
+      <c r="M104" t="s">
+        <v>534</v>
+      </c>
+      <c r="N104" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B105" t="s">
         <v>193</v>
       </c>
       <c r="C105" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D105" t="n">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="E105" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F105" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G105" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H105" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I105" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J105" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="K105" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L105" t="s">
+        <v>479</v>
+      </c>
+      <c r="M105" t="s">
+        <v>536</v>
+      </c>
+      <c r="N105" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B106" t="s">
         <v>193</v>
       </c>
       <c r="C106" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D106" t="n">
         <v>2017.0</v>
       </c>
       <c r="E106" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F106" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G106" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H106" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I106" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="J106" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="K106" t="s">
-        <v>467</v>
+        <v>468</v>
+      </c>
+      <c r="L106" t="s">
+        <v>479</v>
+      </c>
+      <c r="M106" t="s">
+        <v>537</v>
+      </c>
+      <c r="N106" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B107" t="s">
         <v>193</v>
       </c>
       <c r="C107" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D107" t="n">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E107" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F107" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G107" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H107" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I107" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="J107" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="K107" t="s">
-        <v>467</v>
+        <v>468</v>
+      </c>
+      <c r="L107" t="s">
+        <v>479</v>
+      </c>
+      <c r="M107" t="s">
+        <v>538</v>
+      </c>
+      <c r="N107" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B108" t="s">
         <v>193</v>
       </c>
       <c r="C108" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D108" t="n">
-        <v>2017.0</v>
+        <v>2015.0</v>
       </c>
       <c r="E108" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F108" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G108" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H108" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I108" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J108" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="K108" t="s">
-        <v>466</v>
+        <v>468</v>
+      </c>
+      <c r="L108" t="s">
+        <v>479</v>
+      </c>
+      <c r="M108" t="s">
+        <v>539</v>
+      </c>
+      <c r="N108" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B109" t="s">
         <v>193</v>
       </c>
       <c r="C109" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D109" t="n">
-        <v>2016.0</v>
+        <v>2014.0</v>
       </c>
       <c r="E109" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F109" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G109" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H109" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I109" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J109" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="K109" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L109" t="s">
+        <v>479</v>
+      </c>
+      <c r="M109" t="s">
+        <v>540</v>
+      </c>
+      <c r="N109" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B110" t="s">
         <v>193</v>
       </c>
       <c r="C110" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D110" t="n">
-        <v>2015.0</v>
+        <v>2014.0</v>
       </c>
       <c r="E110" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F110" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G110" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H110" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I110" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J110" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="K110" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L110" t="s">
+        <v>479</v>
+      </c>
+      <c r="M110" t="s">
+        <v>540</v>
+      </c>
+      <c r="N110" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B111" t="s">
         <v>193</v>
       </c>
       <c r="C111" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D111" t="n">
         <v>2014.0</v>
       </c>
       <c r="E111" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F111" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G111" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H111" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I111" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="J111" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K111" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L111" t="s">
+        <v>479</v>
+      </c>
+      <c r="M111" t="s">
+        <v>540</v>
+      </c>
+      <c r="N111" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B112" t="s">
         <v>193</v>
       </c>
       <c r="C112" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D112" t="n">
         <v>2014.0</v>
       </c>
       <c r="E112" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F112" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G112" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H112" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I112" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="J112" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="K112" t="s">
-        <v>467</v>
+        <v>468</v>
+      </c>
+      <c r="L112" t="s">
+        <v>479</v>
+      </c>
+      <c r="M112" t="s">
+        <v>541</v>
+      </c>
+      <c r="N112" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B113" t="s">
         <v>193</v>
       </c>
       <c r="C113" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D113" t="n">
-        <v>2014.0</v>
+        <v>2013.0</v>
       </c>
       <c r="E113" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F113" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G113" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H113" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I113" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="J113" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="K113" t="s">
-        <v>467</v>
+        <v>468</v>
+      </c>
+      <c r="L113" t="s">
+        <v>479</v>
+      </c>
+      <c r="M113" t="s">
+        <v>542</v>
+      </c>
+      <c r="N113" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B114" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C114" t="s">
         <v>231</v>
       </c>
       <c r="D114" t="n">
-        <v>2014.0</v>
+        <v>2022.0</v>
       </c>
       <c r="E114" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F114" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G114" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H114" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I114" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="J114" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="K114" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L114" t="s">
+        <v>479</v>
+      </c>
+      <c r="M114" t="s">
+        <v>543</v>
+      </c>
+      <c r="N114" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B115" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C115" t="s">
         <v>231</v>
       </c>
       <c r="D115" t="n">
-        <v>2013.0</v>
+        <v>2021.0</v>
       </c>
       <c r="E115" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F115" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G115" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H115" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I115" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J115" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="K115" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L115" t="s">
+        <v>479</v>
+      </c>
+      <c r="M115" t="s">
+        <v>543</v>
+      </c>
+      <c r="N115" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B116" t="s">
         <v>194</v>
       </c>
       <c r="C116" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D116" t="n">
-        <v>2022.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E116" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F116" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G116" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H116" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I116" t="s">
-        <v>442</v>
-      </c>
-      <c r="J116" t="e">
-        <v>#N/A</v>
+        <v>438</v>
+      </c>
+      <c r="J116" t="s">
+        <v>452</v>
       </c>
       <c r="K116" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L116" t="s">
+        <v>479</v>
+      </c>
+      <c r="M116" t="s">
+        <v>544</v>
+      </c>
+      <c r="N116" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B117" t="s">
         <v>194</v>
       </c>
       <c r="C117" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D117" t="n">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="E117" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F117" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G117" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H117" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I117" t="s">
-        <v>442</v>
-      </c>
-      <c r="J117" t="e">
-        <v>#N/A</v>
+        <v>439</v>
+      </c>
+      <c r="J117" t="s">
+        <v>452</v>
       </c>
       <c r="K117" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L117" t="s">
+        <v>479</v>
+      </c>
+      <c r="M117" t="s">
+        <v>545</v>
+      </c>
+      <c r="N117" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B118" t="s">
         <v>194</v>
       </c>
       <c r="C118" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D118" t="n">
-        <v>2020.0</v>
+        <v>2019.0</v>
       </c>
       <c r="E118" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F118" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G118" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H118" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I118" t="s">
-        <v>442</v>
-      </c>
-      <c r="J118" t="e">
-        <v>#N/A</v>
+        <v>440</v>
+      </c>
+      <c r="J118" t="s">
+        <v>454</v>
       </c>
       <c r="K118" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L118" t="s">
+        <v>479</v>
+      </c>
+      <c r="M118" t="s">
+        <v>546</v>
+      </c>
+      <c r="N118" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B119" t="s">
         <v>194</v>
       </c>
       <c r="C119" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D119" t="n">
         <v>2019.0</v>
       </c>
       <c r="E119" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F119" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G119" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H119" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I119" t="s">
-        <v>443</v>
-      </c>
-      <c r="J119" t="e">
+        <v>441</v>
+      </c>
+      <c r="J119" t="s">
+        <v>452</v>
+      </c>
+      <c r="K119" t="s">
+        <v>468</v>
+      </c>
+      <c r="L119" t="s">
+        <v>479</v>
+      </c>
+      <c r="M119" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K119" t="s">
-        <v>466</v>
+      <c r="N119" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B120" t="s">
         <v>194</v>
       </c>
       <c r="C120" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D120" t="n">
-        <v>2019.0</v>
+        <v>2017.0</v>
       </c>
       <c r="E120" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F120" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G120" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H120" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I120" t="s">
-        <v>444</v>
-      </c>
-      <c r="J120" t="e">
-        <v>#N/A</v>
+        <v>441</v>
+      </c>
+      <c r="J120" t="s">
+        <v>452</v>
       </c>
       <c r="K120" t="s">
-        <v>466</v>
+        <v>468</v>
+      </c>
+      <c r="L120" t="s">
+        <v>479</v>
+      </c>
+      <c r="M120" t="s">
+        <v>547</v>
+      </c>
+      <c r="N120" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B121" t="s">
         <v>194</v>
       </c>
       <c r="C121" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D121" t="n">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="E121" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F121" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G121" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H121" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I121" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J121" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="K121" t="s">
-        <v>466</v>
+        <v>474</v>
+      </c>
+      <c r="L121" t="s">
+        <v>479</v>
+      </c>
+      <c r="M121" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N121" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B122" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C122" t="s">
         <v>232</v>
       </c>
       <c r="D122" t="n">
-        <v>2017.0</v>
+        <v>2022.0</v>
       </c>
       <c r="E122" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F122" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G122" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H122" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I122" t="s">
-        <v>445</v>
+        <v>393</v>
       </c>
       <c r="J122" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="K122" t="s">
-        <v>466</v>
+        <v>475</v>
+      </c>
+      <c r="L122" t="s">
+        <v>479</v>
+      </c>
+      <c r="M122" t="s">
+        <v>548</v>
+      </c>
+      <c r="N122" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B123" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C123" t="s">
         <v>232</v>
       </c>
       <c r="D123" t="n">
-        <v>2018.0</v>
+        <v>2021.0</v>
       </c>
       <c r="E123" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F123" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G123" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H123" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I123" t="s">
-        <v>446</v>
-      </c>
-      <c r="J123" t="e">
-        <v>#N/A</v>
+        <v>393</v>
+      </c>
+      <c r="J123" t="s">
+        <v>456</v>
       </c>
       <c r="K123" t="s">
-        <v>467</v>
+        <v>476</v>
+      </c>
+      <c r="L123" t="s">
+        <v>479</v>
+      </c>
+      <c r="M123" t="s">
+        <v>549</v>
+      </c>
+      <c r="N123" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B124" t="s">
         <v>195</v>
       </c>
       <c r="C124" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D124" t="n">
-        <v>2022.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E124" t="s">
-        <v>352</v>
+        <v>311</v>
       </c>
       <c r="F124" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G124" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H124" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I124" t="s">
-        <v>397</v>
-      </c>
-      <c r="J124" t="e">
-        <v>#N/A</v>
+        <v>393</v>
+      </c>
+      <c r="J124" t="s">
+        <v>456</v>
       </c>
       <c r="K124" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L124" t="s">
+        <v>479</v>
+      </c>
+      <c r="M124" t="s">
+        <v>550</v>
+      </c>
+      <c r="N124" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B125" t="s">
         <v>195</v>
       </c>
       <c r="C125" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D125" t="n">
         <v>2021.0</v>
       </c>
       <c r="E125" t="s">
-        <v>353</v>
+        <v>311</v>
       </c>
       <c r="F125" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G125" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H125" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I125" t="s">
-        <v>397</v>
-      </c>
-      <c r="J125" t="e">
-        <v>#N/A</v>
+        <v>393</v>
+      </c>
+      <c r="J125" t="s">
+        <v>454</v>
       </c>
       <c r="K125" t="s">
-        <v>466</v>
+        <v>467</v>
+      </c>
+      <c r="L125" t="s">
+        <v>479</v>
+      </c>
+      <c r="M125" t="s">
+        <v>551</v>
+      </c>
+      <c r="N125" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B126" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C126" t="s">
         <v>233</v>
       </c>
       <c r="D126" t="n">
-        <v>2020.0</v>
+        <v>2018.0</v>
       </c>
       <c r="E126" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="F126" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G126" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H126" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I126" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="J126" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="K126" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L126" t="s">
+        <v>479</v>
+      </c>
+      <c r="M126" t="s">
+        <v>552</v>
+      </c>
+      <c r="N126" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B127" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C127" t="s">
         <v>233</v>
       </c>
       <c r="D127" t="n">
-        <v>2021.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E127" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="F127" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G127" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H127" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I127" t="s">
-        <v>397</v>
-      </c>
-      <c r="J127" t="e">
-        <v>#N/A</v>
+        <v>443</v>
+      </c>
+      <c r="J127" t="s">
+        <v>457</v>
       </c>
       <c r="K127" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L127" t="s">
+        <v>479</v>
+      </c>
+      <c r="M127" t="s">
+        <v>553</v>
+      </c>
+      <c r="N127" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B128" t="s">
         <v>196</v>
       </c>
       <c r="C128" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D128" t="n">
-        <v>2018.0</v>
+        <v>2015.0</v>
       </c>
       <c r="E128" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F128" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G128" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H128" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I128" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="J128" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="K128" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L128" t="s">
+        <v>479</v>
+      </c>
+      <c r="M128" t="s">
+        <v>554</v>
+      </c>
+      <c r="N128" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B129" t="s">
         <v>196</v>
       </c>
       <c r="C129" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D129" t="n">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
       <c r="E129" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F129" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G129" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H129" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I129" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="J129" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K129" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L129" t="s">
+        <v>479</v>
+      </c>
+      <c r="M129" t="s">
+        <v>555</v>
+      </c>
+      <c r="N129" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B130" t="s">
         <v>196</v>
       </c>
       <c r="C130" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D130" t="n">
-        <v>2015.0</v>
+        <v>2013.0</v>
       </c>
       <c r="E130" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F130" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G130" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H130" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I130" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="J130" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="K130" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L130" t="s">
+        <v>479</v>
+      </c>
+      <c r="M130" t="s">
+        <v>552</v>
+      </c>
+      <c r="N130" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B131" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C131" t="s">
         <v>234</v>
       </c>
       <c r="D131" t="n">
-        <v>2015.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E131" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F131" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G131" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H131" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I131" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J131" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="K131" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L131" t="s">
+        <v>479</v>
+      </c>
+      <c r="M131" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N131" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B132" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C132" t="s">
         <v>234</v>
       </c>
       <c r="D132" t="n">
-        <v>2013.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E132" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F132" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G132" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H132" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I132" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J132" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="K132" t="s">
-        <v>467</v>
+        <v>477</v>
+      </c>
+      <c r="L132" t="s">
+        <v>479</v>
+      </c>
+      <c r="M132" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N132" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B133" t="s">
         <v>197</v>
       </c>
       <c r="C133" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D133" t="n">
-        <v>2020.0</v>
+        <v>2019.0</v>
       </c>
       <c r="E133" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F133" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G133" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H133" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I133" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="J133" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="K133" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L133" t="s">
+        <v>479</v>
+      </c>
+      <c r="M133" t="s">
+        <v>556</v>
+      </c>
+      <c r="N133" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B134" t="s">
         <v>197</v>
       </c>
       <c r="C134" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D134" t="n">
-        <v>2020.0</v>
+        <v>2019.0</v>
       </c>
       <c r="E134" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F134" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G134" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H134" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I134" t="s">
-        <v>450</v>
-      </c>
-      <c r="J134" t="e">
+        <v>447</v>
+      </c>
+      <c r="J134" t="s">
+        <v>457</v>
+      </c>
+      <c r="K134" t="s">
+        <v>462</v>
+      </c>
+      <c r="L134" t="s">
+        <v>479</v>
+      </c>
+      <c r="M134" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K134" t="s">
-        <v>466</v>
+      <c r="N134" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B135" t="s">
         <v>197</v>
       </c>
       <c r="C135" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D135" t="n">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E135" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F135" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G135" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H135" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I135" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J135" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="K135" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L135" t="s">
+        <v>479</v>
+      </c>
+      <c r="M135" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N135" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B136" t="s">
         <v>197</v>
       </c>
       <c r="C136" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D136" t="n">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E136" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F136" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G136" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H136" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I136" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="J136" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="K136" t="s">
-        <v>466</v>
+        <v>478</v>
+      </c>
+      <c r="L136" t="s">
+        <v>479</v>
+      </c>
+      <c r="M136" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N136" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B137" t="s">
         <v>197</v>
       </c>
       <c r="C137" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D137" t="n">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
       <c r="E137" t="s">
-        <v>363</v>
+        <v>293</v>
       </c>
       <c r="F137" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G137" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H137" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I137" t="s">
-        <v>452</v>
+        <v>385</v>
       </c>
       <c r="J137" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="K137" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L137" t="s">
+        <v>479</v>
+      </c>
+      <c r="M137" t="s">
+        <v>507</v>
+      </c>
+      <c r="N137" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B138" t="s">
         <v>197</v>
       </c>
       <c r="C138" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D138" t="n">
-        <v>2016.0</v>
+        <v>2013.0</v>
       </c>
       <c r="E138" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F138" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G138" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H138" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I138" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J138" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="K138" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L138" t="s">
+        <v>479</v>
+      </c>
+      <c r="M138" t="s">
+        <v>557</v>
+      </c>
+      <c r="N138" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B139" t="s">
         <v>197</v>
       </c>
       <c r="C139" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D139" t="n">
-        <v>2015.0</v>
+        <v>2014.0</v>
       </c>
       <c r="E139" t="s">
-        <v>296</v>
+        <v>363</v>
       </c>
       <c r="F139" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G139" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H139" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I139" t="s">
-        <v>389</v>
+        <v>446</v>
       </c>
       <c r="J139" t="s">
         <v>457</v>
       </c>
       <c r="K139" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L139" t="s">
+        <v>479</v>
+      </c>
+      <c r="M139" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N139" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B140" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C140" t="s">
         <v>235</v>
       </c>
       <c r="D140" t="n">
-        <v>2013.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E140" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F140" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G140" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H140" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I140" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="J140" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="K140" t="s">
-        <v>467</v>
+        <v>468</v>
+      </c>
+      <c r="L140" t="s">
+        <v>479</v>
+      </c>
+      <c r="M140" t="s">
+        <v>558</v>
+      </c>
+      <c r="N140" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B141" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C141" t="s">
         <v>235</v>
       </c>
       <c r="D141" t="n">
-        <v>2014.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E141" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F141" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G141" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H141" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I141" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="J141" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="K141" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L141" t="s">
+        <v>479</v>
+      </c>
+      <c r="M141" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N141" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B142" t="s">
         <v>198</v>
       </c>
       <c r="C142" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D142" t="n">
         <v>2016.0</v>
       </c>
       <c r="E142" t="s">
-        <v>367</v>
+        <v>245</v>
       </c>
       <c r="F142" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G142" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H142" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I142" t="s">
+        <v>385</v>
+      </c>
+      <c r="J142" t="s">
         <v>454</v>
       </c>
-      <c r="J142" t="s">
-        <v>461</v>
-      </c>
       <c r="K142" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L142" t="s">
+        <v>479</v>
+      </c>
+      <c r="M142" t="s">
+        <v>483</v>
+      </c>
+      <c r="N142" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B143" t="s">
         <v>198</v>
       </c>
       <c r="C143" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D143" t="n">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
       <c r="E143" t="s">
-        <v>368</v>
+        <v>294</v>
       </c>
       <c r="F143" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G143" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H143" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I143" t="s">
-        <v>455</v>
+        <v>420</v>
       </c>
       <c r="J143" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="K143" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L143" t="s">
+        <v>480</v>
+      </c>
+      <c r="M143" t="s">
+        <v>559</v>
+      </c>
+      <c r="N143" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B144" t="s">
         <v>198</v>
       </c>
       <c r="C144" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D144" t="n">
         <v>2016.0</v>
       </c>
       <c r="E144" t="s">
-        <v>247</v>
+        <v>366</v>
       </c>
       <c r="F144" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G144" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H144" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I144" t="s">
-        <v>389</v>
+        <v>427</v>
       </c>
       <c r="J144" t="s">
         <v>457</v>
       </c>
       <c r="K144" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L144" t="s">
+        <v>479</v>
+      </c>
+      <c r="M144" t="s">
+        <v>560</v>
+      </c>
+      <c r="N144" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B145" t="s">
         <v>198</v>
       </c>
       <c r="C145" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D145" t="n">
-        <v>2015.0</v>
+        <v>2013.0</v>
       </c>
       <c r="E145" t="s">
-        <v>297</v>
+        <v>367</v>
       </c>
       <c r="F145" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G145" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H145" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I145" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="J145" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="K145" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="L145" t="s">
+        <v>479</v>
+      </c>
+      <c r="M145" t="s">
+        <v>561</v>
+      </c>
+      <c r="N145" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B146" t="s">
         <v>198</v>
       </c>
       <c r="C146" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D146" t="n">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
       <c r="E146" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F146" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G146" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H146" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I146" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="J146" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="K146" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="L146" t="s">
+        <v>479</v>
+      </c>
+      <c r="M146" t="s">
+        <v>560</v>
+      </c>
+      <c r="N146" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B147" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C147" t="s">
         <v>236</v>
       </c>
       <c r="D147" t="n">
-        <v>2013.0</v>
+        <v>2019.0</v>
       </c>
       <c r="E147" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F147" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G147" t="s">
+        <v>374</v>
+      </c>
+      <c r="H147" t="s">
         <v>376</v>
       </c>
-      <c r="H147" t="s">
-        <v>378</v>
-      </c>
-      <c r="I147" t="s">
-        <v>431</v>
+      <c r="I147" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J147" t="s">
-        <v>457</v>
-      </c>
-      <c r="K147" t="s">
-        <v>466</v>
+        <v>460</v>
+      </c>
+      <c r="K147" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L147" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M147" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N147" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B148" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="C148" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D148" t="n">
-        <v>2015.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E148" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F148" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G148" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H148" t="s">
-        <v>378</v>
-      </c>
-      <c r="I148" t="s">
-        <v>431</v>
+        <v>377</v>
+      </c>
+      <c r="I148" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J148" t="s">
         <v>460</v>
       </c>
-      <c r="K148" t="s">
-        <v>466</v>
+      <c r="K148" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L148" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M148" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N148" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B149" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C149" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D149" t="n">
-        <v>2019.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E149" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="F149" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G149" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H149" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I149" t="e">
         <v>#N/A</v>
       </c>
       <c r="J149" t="s">
-        <v>464</v>
-      </c>
-      <c r="K149" t="s">
-        <v>466</v>
+        <v>460</v>
+      </c>
+      <c r="K149" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L149" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M149" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N149" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B150" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C150" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="D150" t="n">
         <v>2020.0</v>
       </c>
       <c r="E150" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F150" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G150" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H150" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I150" t="e">
         <v>#N/A</v>
       </c>
       <c r="J150" t="s">
-        <v>464</v>
-      </c>
-      <c r="K150" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s">
-        <v>159</v>
-      </c>
-      <c r="B151" t="s">
-        <v>194</v>
-      </c>
-      <c r="C151" t="s">
-        <v>232</v>
-      </c>
-      <c r="D151" t="n">
-        <v>2020.0</v>
-      </c>
-      <c r="E151" t="s">
-        <v>346</v>
-      </c>
-      <c r="F151" t="s">
-        <v>375</v>
-      </c>
-      <c r="G151" t="s">
-        <v>377</v>
-      </c>
-      <c r="H151" t="s">
-        <v>381</v>
-      </c>
-      <c r="I151" t="e">
+        <v>457</v>
+      </c>
+      <c r="K150" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J151" t="s">
-        <v>464</v>
-      </c>
-      <c r="K151" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s">
-        <v>160</v>
-      </c>
-      <c r="B152" t="s">
-        <v>197</v>
-      </c>
-      <c r="C152" t="s">
-        <v>235</v>
-      </c>
-      <c r="D152" t="n">
-        <v>2020.0</v>
-      </c>
-      <c r="E152" t="s">
-        <v>374</v>
-      </c>
-      <c r="F152" t="s">
-        <v>375</v>
-      </c>
-      <c r="G152" t="s">
-        <v>377</v>
-      </c>
-      <c r="H152" t="s">
-        <v>382</v>
-      </c>
-      <c r="I152" t="e">
+      <c r="L150" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J152" t="s">
-        <v>460</v>
-      </c>
-      <c r="K152" t="s">
-        <v>466</v>
+      <c r="M150" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N150" t="s">
+        <v>562</v>
       </c>
     </row>
   </sheetData>
